--- a/возможно будет лучше.xlsx
+++ b/возможно будет лучше.xlsx
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>ни одна девочка, девушка, женщина не будут продавать себя (за деньги, за будущее детей и др.) и никто не будет знать о том, что продажа или покупка возможна</t>
-  </si>
-  <si>
-    <t>будет ненужно зарабатывать, накапливать, тратить деньги</t>
   </si>
   <si>
     <t>у каждого будет вторая половина</t>
@@ -755,10 +752,13 @@
     <t>нигде не будет заборов, колючей проволки, замков, шлагбаумов, таможень, границ.  Вместо заборов и т.п. будут конструктивные решения (растения, насыпи, каналы, и др.) там, где возможны угрозы для жизни.</t>
   </si>
   <si>
-    <t>у каждого будет необходимые еда, одежда, мебль, инструменты</t>
+    <t>подсчитать какие виды и количество ресурсов в настоящий момент расходуется на автомобили(изобретение, производство, хранение, утилизацию, гсм, мойку, ремонт, дороги, гибдд, посты, шлагбаумы, устранение последствий аварий, загрязнение воздуха, водоемов, обучение, страховку, парковку, суды,  светофоры, разметку , нервы, конфликты и др.) 8.12.24 18:00 Рязань многоквартирный дом 16 этажей, 5 подъездов.  Вокруг него стоит 220 автомобилей. На 50 из 220 не ездили более суток. Большинству людей машина нужна (доехать до работы, вернуться с работы, отвезти детей в образовательные учереждения, доехать до места отдыха и вернуться обратно, съездить в гости. Остальное время они просто стоят перед домами, перед офисами, перед торговыми центрами на дорогах.</t>
   </si>
   <si>
-    <t>подсчитать какие виды и количество ресурсов в настоящий момент расходуется на автомобили(изобретение, производство, хранение, утилизацию, гсм, мойку, ремонт, дороги, гибдд, посты, шлагбаумы, устранение последствий аварий, загрязнение воздуха, водоемов, обучение, страховку, парковку, суды,  светофоры, разметку , нервы, конфликты и др.) 8.12.24 18:00 Рязань многоквартирный дом 16 этажей, 5 подъездов.  Вокруг него стоит 220 автомобилей. На 50 из 220 не ездили более суток. Большинству людей машина нужна (доехать до работы, вернуться с работы, отвезти детей в образовательные учереждения, доехать до места отдыха и вернуться обратно, съездить в гости. Остальное время они просто стоят перед домами, перед офисами, перед торговыми центрами на дорогах.</t>
+    <t>Будет возможность произвести все необходимое для жизни или обменять на результаты своего труда. Будет ненужно зарабатывать, накапливать, тратить деньги.</t>
+  </si>
+  <si>
+    <t>у каждого будет необходимые еда, одежда, мебель, инструменты</t>
   </si>
 </sst>
 </file>
@@ -2585,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="105" t="s">
         <v>4</v>
@@ -2633,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="106"/>
     </row>
@@ -2651,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="107"/>
     </row>
@@ -2660,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -2678,7 +2678,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -2696,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -2705,16 +2705,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="C13" s="5"/>
     </row>
@@ -2723,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -2732,10 +2732,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2743,10 +2743,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -2754,10 +2754,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6"/>
     </row>
@@ -2785,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="6"/>
     </row>
@@ -2796,17 +2796,17 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2831,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3395,62 +3395,62 @@
       <c r="E12" s="10"/>
       <c r="F12" s="17"/>
       <c r="G12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="43"/>
       <c r="M12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="43"/>
       <c r="P12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="43"/>
       <c r="S12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="43"/>
       <c r="V12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="43"/>
       <c r="Y12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="43"/>
       <c r="AB12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC12" s="10"/>
       <c r="AD12" s="43"/>
       <c r="AE12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF12" s="10"/>
       <c r="AG12" s="43"/>
       <c r="AH12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="43"/>
       <c r="AK12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL12" s="10"/>
       <c r="AM12" s="43"/>
       <c r="AN12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO12" s="18"/>
       <c r="AP12" s="10"/>
@@ -3562,62 +3562,62 @@
       <c r="E15" s="10"/>
       <c r="F15" s="17"/>
       <c r="G15" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="43"/>
       <c r="M15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="43"/>
       <c r="P15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="43"/>
       <c r="S15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="43"/>
       <c r="V15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="43"/>
       <c r="Y15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF15" s="10"/>
       <c r="AG15" s="43"/>
       <c r="AH15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="43"/>
       <c r="AK15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL15" s="10"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO15" s="18"/>
       <c r="AP15" s="10"/>
@@ -3729,62 +3729,62 @@
       <c r="E18" s="10"/>
       <c r="F18" s="17"/>
       <c r="G18" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="43"/>
       <c r="M18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="43"/>
       <c r="P18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="43"/>
       <c r="S18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="43"/>
       <c r="V18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="43"/>
       <c r="AB18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC18" s="10"/>
       <c r="AD18" s="43"/>
       <c r="AE18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF18" s="10"/>
       <c r="AG18" s="43"/>
       <c r="AH18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="43"/>
       <c r="AK18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL18" s="10"/>
       <c r="AM18" s="43"/>
       <c r="AN18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO18" s="18"/>
       <c r="AP18" s="10"/>
@@ -3896,62 +3896,62 @@
       <c r="E21" s="10"/>
       <c r="F21" s="17"/>
       <c r="G21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="43"/>
       <c r="M21" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="43"/>
       <c r="P21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="43"/>
       <c r="S21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="43"/>
       <c r="V21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="43"/>
       <c r="Y21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="43"/>
       <c r="AB21" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC21" s="10"/>
       <c r="AD21" s="43"/>
       <c r="AE21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF21" s="10"/>
       <c r="AG21" s="43"/>
       <c r="AH21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="43"/>
       <c r="AK21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL21" s="10"/>
       <c r="AM21" s="43"/>
       <c r="AN21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO21" s="18"/>
       <c r="AP21" s="10"/>
@@ -4063,62 +4063,62 @@
       <c r="E24" s="10"/>
       <c r="F24" s="17"/>
       <c r="G24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="43"/>
       <c r="M24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="43"/>
       <c r="P24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="43"/>
       <c r="S24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T24" s="10"/>
       <c r="U24" s="43"/>
       <c r="V24" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="43"/>
       <c r="Y24" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="43"/>
       <c r="AB24" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC24" s="10"/>
       <c r="AD24" s="43"/>
       <c r="AE24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF24" s="10"/>
       <c r="AG24" s="43"/>
       <c r="AH24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL24" s="10"/>
       <c r="AM24" s="43"/>
       <c r="AN24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO24" s="18"/>
       <c r="AP24" s="10"/>
@@ -4230,62 +4230,62 @@
       <c r="E27" s="10"/>
       <c r="F27" s="17"/>
       <c r="G27" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="43"/>
       <c r="M27" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="43"/>
       <c r="P27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="43"/>
       <c r="S27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T27" s="10"/>
       <c r="U27" s="43"/>
       <c r="V27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="43"/>
       <c r="Y27" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="43"/>
       <c r="AB27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC27" s="10"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF27" s="10"/>
       <c r="AG27" s="43"/>
       <c r="AH27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI27" s="10"/>
       <c r="AJ27" s="43"/>
       <c r="AK27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL27" s="10"/>
       <c r="AM27" s="43"/>
       <c r="AN27" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO27" s="18"/>
       <c r="AP27" s="10"/>
@@ -4397,62 +4397,62 @@
       <c r="E30" s="10"/>
       <c r="F30" s="17"/>
       <c r="G30" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="43"/>
       <c r="M30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="43"/>
       <c r="P30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="43"/>
       <c r="S30" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="43"/>
       <c r="V30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W30" s="10"/>
       <c r="X30" s="43"/>
       <c r="Y30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z30" s="10"/>
       <c r="AA30" s="43"/>
       <c r="AB30" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC30" s="10"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="43"/>
       <c r="AH30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="43"/>
       <c r="AK30" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL30" s="10"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO30" s="18"/>
       <c r="AP30" s="10"/>
@@ -4564,62 +4564,62 @@
       <c r="E33" s="10"/>
       <c r="F33" s="17"/>
       <c r="G33" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="43"/>
       <c r="M33" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="43"/>
       <c r="P33" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="43"/>
       <c r="S33" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="43"/>
       <c r="V33" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W33" s="10"/>
       <c r="X33" s="43"/>
       <c r="Y33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="43"/>
       <c r="AB33" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC33" s="10"/>
       <c r="AD33" s="43"/>
       <c r="AE33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF33" s="10"/>
       <c r="AG33" s="43"/>
       <c r="AH33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI33" s="10"/>
       <c r="AJ33" s="43"/>
       <c r="AK33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL33" s="10"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO33" s="18"/>
       <c r="AP33" s="10"/>
@@ -4731,62 +4731,62 @@
       <c r="E36" s="10"/>
       <c r="F36" s="17"/>
       <c r="G36" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="43"/>
       <c r="M36" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="43"/>
       <c r="P36" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="10"/>
       <c r="R36" s="43"/>
       <c r="S36" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T36" s="10"/>
       <c r="U36" s="43"/>
       <c r="V36" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="43"/>
       <c r="Y36" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z36" s="10"/>
       <c r="AA36" s="43"/>
       <c r="AB36" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC36" s="10"/>
       <c r="AD36" s="43"/>
       <c r="AE36" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF36" s="10"/>
       <c r="AG36" s="43"/>
       <c r="AH36" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI36" s="10"/>
       <c r="AJ36" s="43"/>
       <c r="AK36" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL36" s="10"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO36" s="18"/>
       <c r="AP36" s="10"/>
@@ -4898,62 +4898,62 @@
       <c r="E39" s="79"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="43"/>
       <c r="M39" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="43"/>
       <c r="P39" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="43"/>
       <c r="S39" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T39" s="10"/>
       <c r="U39" s="43"/>
       <c r="V39" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W39" s="10"/>
       <c r="X39" s="43"/>
       <c r="Y39" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z39" s="10"/>
       <c r="AA39" s="43"/>
       <c r="AB39" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC39" s="10"/>
       <c r="AD39" s="43"/>
       <c r="AE39" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="43"/>
       <c r="AH39" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI39" s="10"/>
       <c r="AJ39" s="43"/>
       <c r="AK39" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL39" s="10"/>
       <c r="AM39" s="43"/>
       <c r="AN39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO39" s="18"/>
       <c r="AP39" s="10"/>
@@ -5065,62 +5065,62 @@
       <c r="E42" s="10"/>
       <c r="F42" s="17"/>
       <c r="G42" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="43"/>
       <c r="M42" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="43"/>
       <c r="P42" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="43"/>
       <c r="S42" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T42" s="10"/>
       <c r="U42" s="43"/>
       <c r="V42" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W42" s="10"/>
       <c r="X42" s="43"/>
       <c r="Y42" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z42" s="10"/>
       <c r="AA42" s="43"/>
       <c r="AB42" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC42" s="10"/>
       <c r="AD42" s="43"/>
       <c r="AE42" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF42" s="10"/>
       <c r="AG42" s="43"/>
       <c r="AH42" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI42" s="10"/>
       <c r="AJ42" s="43"/>
       <c r="AK42" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL42" s="10"/>
       <c r="AM42" s="43"/>
       <c r="AN42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO42" s="18"/>
       <c r="AP42" s="10"/>
@@ -5232,62 +5232,62 @@
       <c r="E45" s="10"/>
       <c r="F45" s="17"/>
       <c r="G45" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="43"/>
       <c r="M45" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="43"/>
       <c r="P45" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="10"/>
       <c r="R45" s="43"/>
       <c r="S45" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T45" s="10"/>
       <c r="U45" s="43"/>
       <c r="V45" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W45" s="10"/>
       <c r="X45" s="43"/>
       <c r="Y45" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z45" s="10"/>
       <c r="AA45" s="43"/>
       <c r="AB45" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC45" s="10"/>
       <c r="AD45" s="43"/>
       <c r="AE45" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF45" s="10"/>
       <c r="AG45" s="43"/>
       <c r="AH45" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI45" s="10"/>
       <c r="AJ45" s="43"/>
       <c r="AK45" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL45" s="10"/>
       <c r="AM45" s="43"/>
       <c r="AN45" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO45" s="18"/>
       <c r="AP45" s="10"/>
@@ -5399,62 +5399,62 @@
       <c r="E48" s="10"/>
       <c r="F48" s="17"/>
       <c r="G48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="43"/>
       <c r="M48" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="43"/>
       <c r="P48" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="43"/>
       <c r="S48" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T48" s="10"/>
       <c r="U48" s="43"/>
       <c r="V48" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W48" s="10"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z48" s="10"/>
       <c r="AA48" s="43"/>
       <c r="AB48" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC48" s="10"/>
       <c r="AD48" s="43"/>
       <c r="AE48" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF48" s="10"/>
       <c r="AG48" s="43"/>
       <c r="AH48" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="43"/>
       <c r="AK48" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL48" s="10"/>
       <c r="AM48" s="43"/>
       <c r="AN48" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO48" s="18"/>
       <c r="AP48" s="10"/>
@@ -5566,62 +5566,62 @@
       <c r="E51" s="10"/>
       <c r="F51" s="17"/>
       <c r="G51" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="43"/>
       <c r="M51" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="43"/>
       <c r="P51" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="43"/>
       <c r="S51" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T51" s="10"/>
       <c r="U51" s="43"/>
       <c r="V51" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W51" s="10"/>
       <c r="X51" s="43"/>
       <c r="Y51" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z51" s="10"/>
       <c r="AA51" s="43"/>
       <c r="AB51" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC51" s="10"/>
       <c r="AD51" s="43"/>
       <c r="AE51" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF51" s="10"/>
       <c r="AG51" s="43"/>
       <c r="AH51" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI51" s="10"/>
       <c r="AJ51" s="43"/>
       <c r="AK51" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL51" s="10"/>
       <c r="AM51" s="43"/>
       <c r="AN51" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO51" s="18"/>
       <c r="AP51" s="10"/>
@@ -5733,62 +5733,62 @@
       <c r="E54" s="10"/>
       <c r="F54" s="17"/>
       <c r="G54" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="43"/>
       <c r="M54" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="43"/>
       <c r="P54" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q54" s="10"/>
       <c r="R54" s="43"/>
       <c r="S54" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="43"/>
       <c r="V54" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W54" s="10"/>
       <c r="X54" s="43"/>
       <c r="Y54" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z54" s="10"/>
       <c r="AA54" s="43"/>
       <c r="AB54" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC54" s="10"/>
       <c r="AD54" s="43"/>
       <c r="AE54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF54" s="10"/>
       <c r="AG54" s="43"/>
       <c r="AH54" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI54" s="10"/>
       <c r="AJ54" s="43"/>
       <c r="AK54" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL54" s="10"/>
       <c r="AM54" s="43"/>
       <c r="AN54" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO54" s="18"/>
       <c r="AP54" s="10"/>
@@ -5900,62 +5900,62 @@
       <c r="E57" s="10"/>
       <c r="F57" s="17"/>
       <c r="G57" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="43"/>
       <c r="M57" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="43"/>
       <c r="P57" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="10"/>
       <c r="R57" s="43"/>
       <c r="S57" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T57" s="10"/>
       <c r="U57" s="43"/>
       <c r="V57" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W57" s="10"/>
       <c r="X57" s="43"/>
       <c r="Y57" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z57" s="10"/>
       <c r="AA57" s="43"/>
       <c r="AB57" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC57" s="10"/>
       <c r="AD57" s="43"/>
       <c r="AE57" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF57" s="10"/>
       <c r="AG57" s="43"/>
       <c r="AH57" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="43"/>
       <c r="AK57" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL57" s="10"/>
       <c r="AM57" s="43"/>
       <c r="AN57" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO57" s="18"/>
       <c r="AP57" s="10"/>
@@ -6067,62 +6067,62 @@
       <c r="E60" s="10"/>
       <c r="F60" s="17"/>
       <c r="G60" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H60" s="26"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="43"/>
       <c r="M60" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="43"/>
       <c r="P60" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="43"/>
       <c r="S60" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T60" s="10"/>
       <c r="U60" s="43"/>
       <c r="V60" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W60" s="10"/>
       <c r="X60" s="43"/>
       <c r="Y60" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z60" s="10"/>
       <c r="AA60" s="43"/>
       <c r="AB60" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC60" s="10"/>
       <c r="AD60" s="43"/>
       <c r="AE60" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF60" s="10"/>
       <c r="AG60" s="43"/>
       <c r="AH60" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI60" s="10"/>
       <c r="AJ60" s="43"/>
       <c r="AK60" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL60" s="10"/>
       <c r="AM60" s="43"/>
       <c r="AN60" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO60" s="18"/>
       <c r="AP60" s="10"/>
@@ -6234,62 +6234,62 @@
       <c r="E63" s="10"/>
       <c r="F63" s="17"/>
       <c r="G63" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="43"/>
       <c r="M63" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="43"/>
       <c r="P63" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="10"/>
       <c r="R63" s="43"/>
       <c r="S63" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T63" s="10"/>
       <c r="U63" s="43"/>
       <c r="V63" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W63" s="10"/>
       <c r="X63" s="43"/>
       <c r="Y63" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z63" s="10"/>
       <c r="AA63" s="43"/>
       <c r="AB63" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC63" s="10"/>
       <c r="AD63" s="43"/>
       <c r="AE63" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF63" s="10"/>
       <c r="AG63" s="43"/>
       <c r="AH63" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI63" s="10"/>
       <c r="AJ63" s="43"/>
       <c r="AK63" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL63" s="10"/>
       <c r="AM63" s="43"/>
       <c r="AN63" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO63" s="18"/>
       <c r="AP63" s="10"/>
@@ -6401,62 +6401,62 @@
       <c r="E66" s="10"/>
       <c r="F66" s="17"/>
       <c r="G66" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="43"/>
       <c r="M66" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N66" s="10"/>
       <c r="O66" s="43"/>
       <c r="P66" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q66" s="10"/>
       <c r="R66" s="43"/>
       <c r="S66" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T66" s="10"/>
       <c r="U66" s="43"/>
       <c r="V66" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W66" s="10"/>
       <c r="X66" s="43"/>
       <c r="Y66" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z66" s="10"/>
       <c r="AA66" s="43"/>
       <c r="AB66" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC66" s="10"/>
       <c r="AD66" s="43"/>
       <c r="AE66" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF66" s="10"/>
       <c r="AG66" s="43"/>
       <c r="AH66" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI66" s="10"/>
       <c r="AJ66" s="43"/>
       <c r="AK66" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL66" s="10"/>
       <c r="AM66" s="43"/>
       <c r="AN66" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO66" s="18"/>
       <c r="AP66" s="10"/>
@@ -6568,62 +6568,62 @@
       <c r="E69" s="10"/>
       <c r="F69" s="17"/>
       <c r="G69" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="43"/>
       <c r="M69" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="43"/>
       <c r="P69" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="43"/>
       <c r="S69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T69" s="10"/>
       <c r="U69" s="43"/>
       <c r="V69" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W69" s="10"/>
       <c r="X69" s="43"/>
       <c r="Y69" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z69" s="10"/>
       <c r="AA69" s="43"/>
       <c r="AB69" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC69" s="10"/>
       <c r="AD69" s="43"/>
       <c r="AE69" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF69" s="10"/>
       <c r="AG69" s="43"/>
       <c r="AH69" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="43"/>
       <c r="AK69" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL69" s="10"/>
       <c r="AM69" s="43"/>
       <c r="AN69" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO69" s="18"/>
       <c r="AP69" s="10"/>
@@ -6735,62 +6735,62 @@
       <c r="E72" s="10"/>
       <c r="F72" s="17"/>
       <c r="G72" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="43"/>
       <c r="M72" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N72" s="10"/>
       <c r="O72" s="43"/>
       <c r="P72" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="43"/>
       <c r="S72" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T72" s="10"/>
       <c r="U72" s="43"/>
       <c r="V72" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W72" s="10"/>
       <c r="X72" s="43"/>
       <c r="Y72" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z72" s="10"/>
       <c r="AA72" s="43"/>
       <c r="AB72" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC72" s="10"/>
       <c r="AD72" s="43"/>
       <c r="AE72" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF72" s="10"/>
       <c r="AG72" s="43"/>
       <c r="AH72" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI72" s="10"/>
       <c r="AJ72" s="43"/>
       <c r="AK72" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL72" s="10"/>
       <c r="AM72" s="43"/>
       <c r="AN72" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO72" s="18"/>
       <c r="AP72" s="10"/>
@@ -6902,62 +6902,62 @@
       <c r="E75" s="79"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="43"/>
       <c r="M75" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="43"/>
       <c r="P75" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q75" s="10"/>
       <c r="R75" s="43"/>
       <c r="S75" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T75" s="10"/>
       <c r="U75" s="43"/>
       <c r="V75" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W75" s="10"/>
       <c r="X75" s="43"/>
       <c r="Y75" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z75" s="10"/>
       <c r="AA75" s="43"/>
       <c r="AB75" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC75" s="10"/>
       <c r="AD75" s="43"/>
       <c r="AE75" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF75" s="10"/>
       <c r="AG75" s="43"/>
       <c r="AH75" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI75" s="10"/>
       <c r="AJ75" s="43"/>
       <c r="AK75" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL75" s="10"/>
       <c r="AM75" s="43"/>
       <c r="AN75" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO75" s="18"/>
       <c r="AP75" s="10"/>
@@ -7069,62 +7069,62 @@
       <c r="E78" s="10"/>
       <c r="F78" s="17"/>
       <c r="G78" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" s="26"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="43"/>
       <c r="M78" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="43"/>
       <c r="P78" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q78" s="10"/>
       <c r="R78" s="43"/>
       <c r="S78" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T78" s="10"/>
       <c r="U78" s="43"/>
       <c r="V78" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W78" s="10"/>
       <c r="X78" s="43"/>
       <c r="Y78" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z78" s="10"/>
       <c r="AA78" s="43"/>
       <c r="AB78" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC78" s="10"/>
       <c r="AD78" s="43"/>
       <c r="AE78" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF78" s="10"/>
       <c r="AG78" s="43"/>
       <c r="AH78" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI78" s="10"/>
       <c r="AJ78" s="43"/>
       <c r="AK78" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL78" s="10"/>
       <c r="AM78" s="43"/>
       <c r="AN78" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO78" s="18"/>
       <c r="AP78" s="10"/>
@@ -7236,62 +7236,62 @@
       <c r="E81" s="10"/>
       <c r="F81" s="17"/>
       <c r="G81" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H81" s="26"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="43"/>
       <c r="M81" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="43"/>
       <c r="P81" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q81" s="10"/>
       <c r="R81" s="43"/>
       <c r="S81" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T81" s="10"/>
       <c r="U81" s="43"/>
       <c r="V81" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W81" s="10"/>
       <c r="X81" s="43"/>
       <c r="Y81" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z81" s="10"/>
       <c r="AA81" s="43"/>
       <c r="AB81" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC81" s="10"/>
       <c r="AD81" s="43"/>
       <c r="AE81" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF81" s="10"/>
       <c r="AG81" s="43"/>
       <c r="AH81" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI81" s="10"/>
       <c r="AJ81" s="43"/>
       <c r="AK81" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL81" s="10"/>
       <c r="AM81" s="43"/>
       <c r="AN81" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO81" s="18"/>
       <c r="AP81" s="10"/>
@@ -7403,62 +7403,62 @@
       <c r="E84" s="10"/>
       <c r="F84" s="17"/>
       <c r="G84" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="43"/>
       <c r="M84" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="43"/>
       <c r="P84" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q84" s="10"/>
       <c r="R84" s="43"/>
       <c r="S84" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T84" s="10"/>
       <c r="U84" s="43"/>
       <c r="V84" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W84" s="10"/>
       <c r="X84" s="43"/>
       <c r="Y84" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z84" s="10"/>
       <c r="AA84" s="43"/>
       <c r="AB84" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC84" s="10"/>
       <c r="AD84" s="43"/>
       <c r="AE84" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF84" s="10"/>
       <c r="AG84" s="43"/>
       <c r="AH84" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI84" s="10"/>
       <c r="AJ84" s="43"/>
       <c r="AK84" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL84" s="10"/>
       <c r="AM84" s="43"/>
       <c r="AN84" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO84" s="18"/>
       <c r="AP84" s="10"/>
@@ -7570,62 +7570,62 @@
       <c r="E87" s="10"/>
       <c r="F87" s="17"/>
       <c r="G87" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="26"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="43"/>
       <c r="M87" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N87" s="10"/>
       <c r="O87" s="43"/>
       <c r="P87" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q87" s="10"/>
       <c r="R87" s="43"/>
       <c r="S87" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T87" s="10"/>
       <c r="U87" s="43"/>
       <c r="V87" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W87" s="10"/>
       <c r="X87" s="43"/>
       <c r="Y87" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z87" s="10"/>
       <c r="AA87" s="43"/>
       <c r="AB87" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC87" s="10"/>
       <c r="AD87" s="43"/>
       <c r="AE87" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF87" s="10"/>
       <c r="AG87" s="43"/>
       <c r="AH87" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI87" s="10"/>
       <c r="AJ87" s="43"/>
       <c r="AK87" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL87" s="10"/>
       <c r="AM87" s="43"/>
       <c r="AN87" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO87" s="18"/>
       <c r="AP87" s="10"/>
@@ -7737,62 +7737,62 @@
       <c r="E90" s="10"/>
       <c r="F90" s="17"/>
       <c r="G90" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="43"/>
       <c r="M90" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N90" s="10"/>
       <c r="O90" s="43"/>
       <c r="P90" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q90" s="10"/>
       <c r="R90" s="43"/>
       <c r="S90" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T90" s="10"/>
       <c r="U90" s="43"/>
       <c r="V90" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W90" s="10"/>
       <c r="X90" s="43"/>
       <c r="Y90" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z90" s="10"/>
       <c r="AA90" s="43"/>
       <c r="AB90" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC90" s="10"/>
       <c r="AD90" s="43"/>
       <c r="AE90" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF90" s="10"/>
       <c r="AG90" s="43"/>
       <c r="AH90" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI90" s="10"/>
       <c r="AJ90" s="43"/>
       <c r="AK90" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL90" s="10"/>
       <c r="AM90" s="43"/>
       <c r="AN90" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO90" s="18"/>
       <c r="AP90" s="10"/>
@@ -7904,62 +7904,62 @@
       <c r="E93" s="10"/>
       <c r="F93" s="17"/>
       <c r="G93" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="43"/>
       <c r="M93" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="43"/>
       <c r="P93" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q93" s="10"/>
       <c r="R93" s="43"/>
       <c r="S93" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T93" s="10"/>
       <c r="U93" s="43"/>
       <c r="V93" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W93" s="10"/>
       <c r="X93" s="43"/>
       <c r="Y93" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z93" s="10"/>
       <c r="AA93" s="43"/>
       <c r="AB93" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC93" s="10"/>
       <c r="AD93" s="43"/>
       <c r="AE93" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF93" s="10"/>
       <c r="AG93" s="43"/>
       <c r="AH93" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI93" s="10"/>
       <c r="AJ93" s="43"/>
       <c r="AK93" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL93" s="10"/>
       <c r="AM93" s="43"/>
       <c r="AN93" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO93" s="18"/>
       <c r="AP93" s="10"/>
@@ -8071,62 +8071,62 @@
       <c r="E96" s="10"/>
       <c r="F96" s="17"/>
       <c r="G96" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="43"/>
       <c r="M96" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N96" s="10"/>
       <c r="O96" s="43"/>
       <c r="P96" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q96" s="10"/>
       <c r="R96" s="43"/>
       <c r="S96" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T96" s="10"/>
       <c r="U96" s="43"/>
       <c r="V96" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W96" s="10"/>
       <c r="X96" s="43"/>
       <c r="Y96" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z96" s="10"/>
       <c r="AA96" s="43"/>
       <c r="AB96" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC96" s="10"/>
       <c r="AD96" s="43"/>
       <c r="AE96" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF96" s="10"/>
       <c r="AG96" s="43"/>
       <c r="AH96" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI96" s="10"/>
       <c r="AJ96" s="43"/>
       <c r="AK96" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL96" s="10"/>
       <c r="AM96" s="43"/>
       <c r="AN96" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO96" s="18"/>
       <c r="AP96" s="10"/>
@@ -8238,62 +8238,62 @@
       <c r="E99" s="79"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K99" s="10"/>
       <c r="L99" s="43"/>
       <c r="M99" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N99" s="10"/>
       <c r="O99" s="43"/>
       <c r="P99" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q99" s="10"/>
       <c r="R99" s="43"/>
       <c r="S99" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T99" s="10"/>
       <c r="U99" s="43"/>
       <c r="V99" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W99" s="10"/>
       <c r="X99" s="43"/>
       <c r="Y99" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z99" s="10"/>
       <c r="AA99" s="43"/>
       <c r="AB99" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC99" s="10"/>
       <c r="AD99" s="43"/>
       <c r="AE99" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF99" s="10"/>
       <c r="AG99" s="43"/>
       <c r="AH99" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI99" s="10"/>
       <c r="AJ99" s="43"/>
       <c r="AK99" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL99" s="10"/>
       <c r="AM99" s="43"/>
       <c r="AN99" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO99" s="18"/>
       <c r="AP99" s="10"/>
@@ -8405,62 +8405,62 @@
       <c r="E102" s="10"/>
       <c r="F102" s="17"/>
       <c r="G102" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H102" s="26"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K102" s="10"/>
       <c r="L102" s="43"/>
       <c r="M102" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N102" s="10"/>
       <c r="O102" s="43"/>
       <c r="P102" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q102" s="10"/>
       <c r="R102" s="43"/>
       <c r="S102" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T102" s="10"/>
       <c r="U102" s="43"/>
       <c r="V102" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W102" s="10"/>
       <c r="X102" s="43"/>
       <c r="Y102" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z102" s="10"/>
       <c r="AA102" s="43"/>
       <c r="AB102" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC102" s="10"/>
       <c r="AD102" s="43"/>
       <c r="AE102" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF102" s="10"/>
       <c r="AG102" s="43"/>
       <c r="AH102" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI102" s="10"/>
       <c r="AJ102" s="43"/>
       <c r="AK102" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL102" s="10"/>
       <c r="AM102" s="43"/>
       <c r="AN102" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO102" s="18"/>
       <c r="AP102" s="10"/>
@@ -8572,62 +8572,62 @@
       <c r="E105" s="10"/>
       <c r="F105" s="17"/>
       <c r="G105" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H105" s="26"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K105" s="10"/>
       <c r="L105" s="43"/>
       <c r="M105" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N105" s="10"/>
       <c r="O105" s="43"/>
       <c r="P105" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q105" s="10"/>
       <c r="R105" s="43"/>
       <c r="S105" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T105" s="10"/>
       <c r="U105" s="43"/>
       <c r="V105" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W105" s="10"/>
       <c r="X105" s="43"/>
       <c r="Y105" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z105" s="10"/>
       <c r="AA105" s="43"/>
       <c r="AB105" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC105" s="10"/>
       <c r="AD105" s="43"/>
       <c r="AE105" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF105" s="10"/>
       <c r="AG105" s="43"/>
       <c r="AH105" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI105" s="10"/>
       <c r="AJ105" s="43"/>
       <c r="AK105" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL105" s="10"/>
       <c r="AM105" s="43"/>
       <c r="AN105" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO105" s="18"/>
       <c r="AP105" s="10"/>
@@ -8739,62 +8739,62 @@
       <c r="E108" s="10"/>
       <c r="F108" s="17"/>
       <c r="G108" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="43"/>
       <c r="M108" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N108" s="10"/>
       <c r="O108" s="43"/>
       <c r="P108" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q108" s="10"/>
       <c r="R108" s="43"/>
       <c r="S108" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T108" s="10"/>
       <c r="U108" s="43"/>
       <c r="V108" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W108" s="10"/>
       <c r="X108" s="43"/>
       <c r="Y108" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z108" s="10"/>
       <c r="AA108" s="43"/>
       <c r="AB108" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC108" s="10"/>
       <c r="AD108" s="43"/>
       <c r="AE108" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF108" s="10"/>
       <c r="AG108" s="43"/>
       <c r="AH108" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI108" s="10"/>
       <c r="AJ108" s="43"/>
       <c r="AK108" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL108" s="10"/>
       <c r="AM108" s="43"/>
       <c r="AN108" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO108" s="18"/>
       <c r="AP108" s="10"/>
@@ -8906,62 +8906,62 @@
       <c r="E111" s="10"/>
       <c r="F111" s="17"/>
       <c r="G111" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K111" s="10"/>
       <c r="L111" s="43"/>
       <c r="M111" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N111" s="10"/>
       <c r="O111" s="43"/>
       <c r="P111" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q111" s="10"/>
       <c r="R111" s="43"/>
       <c r="S111" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T111" s="10"/>
       <c r="U111" s="43"/>
       <c r="V111" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W111" s="10"/>
       <c r="X111" s="43"/>
       <c r="Y111" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z111" s="10"/>
       <c r="AA111" s="43"/>
       <c r="AB111" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC111" s="10"/>
       <c r="AD111" s="43"/>
       <c r="AE111" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF111" s="10"/>
       <c r="AG111" s="43"/>
       <c r="AH111" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI111" s="10"/>
       <c r="AJ111" s="43"/>
       <c r="AK111" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL111" s="10"/>
       <c r="AM111" s="43"/>
       <c r="AN111" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO111" s="18"/>
       <c r="AP111" s="10"/>
@@ -9073,62 +9073,62 @@
       <c r="E114" s="10"/>
       <c r="F114" s="17"/>
       <c r="G114" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H114" s="26"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K114" s="10"/>
       <c r="L114" s="43"/>
       <c r="M114" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N114" s="10"/>
       <c r="O114" s="43"/>
       <c r="P114" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q114" s="10"/>
       <c r="R114" s="43"/>
       <c r="S114" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T114" s="10"/>
       <c r="U114" s="43"/>
       <c r="V114" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W114" s="10"/>
       <c r="X114" s="43"/>
       <c r="Y114" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z114" s="10"/>
       <c r="AA114" s="43"/>
       <c r="AB114" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC114" s="10"/>
       <c r="AD114" s="43"/>
       <c r="AE114" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF114" s="10"/>
       <c r="AG114" s="43"/>
       <c r="AH114" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI114" s="10"/>
       <c r="AJ114" s="43"/>
       <c r="AK114" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL114" s="10"/>
       <c r="AM114" s="43"/>
       <c r="AN114" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO114" s="18"/>
       <c r="AP114" s="10"/>
@@ -9240,62 +9240,62 @@
       <c r="E117" s="10"/>
       <c r="F117" s="17"/>
       <c r="G117" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H117" s="26"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K117" s="10"/>
       <c r="L117" s="43"/>
       <c r="M117" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N117" s="10"/>
       <c r="O117" s="43"/>
       <c r="P117" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q117" s="10"/>
       <c r="R117" s="43"/>
       <c r="S117" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T117" s="10"/>
       <c r="U117" s="43"/>
       <c r="V117" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W117" s="10"/>
       <c r="X117" s="43"/>
       <c r="Y117" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z117" s="10"/>
       <c r="AA117" s="43"/>
       <c r="AB117" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC117" s="10"/>
       <c r="AD117" s="43"/>
       <c r="AE117" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF117" s="10"/>
       <c r="AG117" s="43"/>
       <c r="AH117" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI117" s="10"/>
       <c r="AJ117" s="43"/>
       <c r="AK117" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL117" s="10"/>
       <c r="AM117" s="43"/>
       <c r="AN117" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO117" s="18"/>
       <c r="AP117" s="10"/>
@@ -9407,62 +9407,62 @@
       <c r="E120" s="10"/>
       <c r="F120" s="17"/>
       <c r="G120" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H120" s="26"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K120" s="10"/>
       <c r="L120" s="43"/>
       <c r="M120" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N120" s="10"/>
       <c r="O120" s="43"/>
       <c r="P120" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q120" s="10"/>
       <c r="R120" s="43"/>
       <c r="S120" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T120" s="10"/>
       <c r="U120" s="43"/>
       <c r="V120" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W120" s="10"/>
       <c r="X120" s="43"/>
       <c r="Y120" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z120" s="10"/>
       <c r="AA120" s="43"/>
       <c r="AB120" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC120" s="10"/>
       <c r="AD120" s="43"/>
       <c r="AE120" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF120" s="10"/>
       <c r="AG120" s="43"/>
       <c r="AH120" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI120" s="10"/>
       <c r="AJ120" s="43"/>
       <c r="AK120" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL120" s="10"/>
       <c r="AM120" s="43"/>
       <c r="AN120" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO120" s="18"/>
       <c r="AP120" s="10"/>
@@ -9574,62 +9574,62 @@
       <c r="E123" s="79"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H123" s="26"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K123" s="10"/>
       <c r="L123" s="43"/>
       <c r="M123" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N123" s="10"/>
       <c r="O123" s="43"/>
       <c r="P123" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q123" s="10"/>
       <c r="R123" s="43"/>
       <c r="S123" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T123" s="10"/>
       <c r="U123" s="43"/>
       <c r="V123" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W123" s="10"/>
       <c r="X123" s="43"/>
       <c r="Y123" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z123" s="10"/>
       <c r="AA123" s="43"/>
       <c r="AB123" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC123" s="10"/>
       <c r="AD123" s="43"/>
       <c r="AE123" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF123" s="10"/>
       <c r="AG123" s="43"/>
       <c r="AH123" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI123" s="10"/>
       <c r="AJ123" s="43"/>
       <c r="AK123" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL123" s="10"/>
       <c r="AM123" s="43"/>
       <c r="AN123" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO123" s="18"/>
       <c r="AP123" s="10"/>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="V133" s="99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -9945,30 +9945,30 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
       <c r="B3" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="97"/>
       <c r="B4" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -9996,10 +9996,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10010,7 +10010,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10019,158 +10019,158 @@
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -10193,82 +10193,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -10291,35 +10291,35 @@
   <sheetData>
     <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -10459,712 +10459,712 @@
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
       <c r="D1" s="101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="101" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="101" t="s">
-        <v>190</v>
-      </c>
       <c r="I1" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="K1" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="L1" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="M1" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="N1" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="101" t="s">
+      <c r="P1" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="Q1" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z1" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA1" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG1" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH1" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI1" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ1" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK1" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL1" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM1" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN1" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO1" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP1" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ1" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR1" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS1" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT1" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU1" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV1" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW1" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX1" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY1" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ1" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA1" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB1" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC1" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD1" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE1" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF1" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG1" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH1" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI1" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ1" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK1" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL1" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM1" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN1" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="BO1" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP1" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ1" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR1" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="BS1" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT1" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU1" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="T1" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="U1" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="V1" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="W1" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="X1" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y1" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z1" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA1" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB1" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD1" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE1" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="101" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG1" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH1" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI1" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ1" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK1" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL1" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM1" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN1" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO1" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP1" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ1" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR1" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS1" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT1" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU1" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV1" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW1" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX1" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY1" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ1" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA1" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB1" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="BC1" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="BD1" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="BE1" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF1" s="101" t="s">
-        <v>177</v>
-      </c>
-      <c r="BG1" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH1" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI1" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="BJ1" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK1" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="BL1" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM1" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="BN1" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="BO1" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="BP1" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="BQ1" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR1" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="BS1" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT1" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="BU1" s="101" t="s">
+      <c r="BV1" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="BV1" s="101" t="s">
+      <c r="BW1" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="BW1" s="101" t="s">
+      <c r="BX1" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="BX1" s="101" t="s">
+      <c r="BY1" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ1" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA1" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB1" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC1" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD1" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE1" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF1" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG1" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH1" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI1" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="BY1" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ1" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA1" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="CB1" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC1" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD1" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="CE1" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="CF1" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="CG1" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH1" s="101" t="s">
+      <c r="CJ1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL1" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="CI1" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ1" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="CK1" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="CL1" s="101" t="s">
-        <v>93</v>
-      </c>
       <c r="CM1" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN1" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="101" t="s">
-        <v>96</v>
-      </c>
       <c r="CO1" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CP1" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="CQ1" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="CQ1" s="101" t="s">
+      <c r="CR1" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="CR1" s="101" t="s">
+      <c r="CS1" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="CS1" s="101" t="s">
+      <c r="CT1" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="CU1" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="CV1" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="CW1" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX1" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="CT1" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="CU1" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="CV1" s="101" t="s">
+      <c r="CY1" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="CW1" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="CX1" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="CY1" s="101" t="s">
-        <v>121</v>
-      </c>
       <c r="CZ1" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DA1" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="DB1" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="DB1" s="101" t="s">
+      <c r="DC1" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="DC1" s="101" t="s">
+      <c r="DD1" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="DD1" s="101" t="s">
+      <c r="DE1" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="DF1" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="DE1" s="101" t="s">
+      <c r="DG1" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="DH1" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="DF1" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="DG1" s="101" t="s">
+      <c r="DI1" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ1" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="DH1" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="DI1" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="DJ1" s="101" t="s">
+      <c r="DK1" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="DK1" s="101" t="s">
+      <c r="DL1" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="DL1" s="102" t="s">
-        <v>138</v>
-      </c>
       <c r="DM1" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="DN1" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="DN1" s="102" t="s">
+      <c r="DO1" s="102" t="s">
         <v>232</v>
-      </c>
-      <c r="DO1" s="102" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="101"/>
       <c r="B2" s="101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="101"/>
       <c r="D2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AT2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BB2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BC2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BG2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BH2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BI2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BJ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BK2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BL2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BM2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BN2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BO2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BQ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BR2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BS2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BT2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BU2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BV2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BW2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BX2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BY2" s="101"/>
       <c r="BZ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CA2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CB2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CC2" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CD2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CF2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CG2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CH2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CI2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CJ2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CK2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CL2" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CM2" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CN2" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CO2" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CP2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CQ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CR2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CS2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CT2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CU2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CV2" s="101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CW2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CX2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CY2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CZ2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DA2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DB2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="DC2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="DD2" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="DE2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DF2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DG2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DH2" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="DI2" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="DJ2" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DK2" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DL2" s="102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DM2" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DN2" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DO2" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="101"/>
       <c r="B3" s="101"/>
       <c r="C3" s="103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
@@ -11278,21 +11278,21 @@
     </row>
     <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="101" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>80</v>
       </c>
       <c r="C4" s="101"/>
       <c r="D4" s="104"/>
       <c r="E4" s="104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="101" t="s">
         <v>223</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>224</v>
       </c>
       <c r="H4" s="101"/>
       <c r="I4" s="101"/>
@@ -11402,21 +11402,21 @@
     </row>
     <row r="5" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="101"/>
       <c r="D5" s="104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="104"/>
       <c r="F5" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="101" t="s">
         <v>223</v>
-      </c>
-      <c r="G5" s="101" t="s">
-        <v>224</v>
       </c>
       <c r="H5" s="101"/>
       <c r="I5" s="101"/>
@@ -11526,21 +11526,21 @@
     </row>
     <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="101"/>
       <c r="G6" s="104" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="104"/>
       <c r="I6" s="101"/>
@@ -11650,20 +11650,20 @@
     </row>
     <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="101"/>
       <c r="D7" s="104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="104" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="101" t="s">
         <v>228</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>229</v>
       </c>
       <c r="G7" s="101"/>
       <c r="H7" s="101"/>
@@ -11774,10 +11774,10 @@
     </row>
     <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="101"/>
       <c r="D8" s="104"/>
@@ -11892,10 +11892,10 @@
     </row>
     <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
@@ -12010,10 +12010,10 @@
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
@@ -12128,10 +12128,10 @@
     </row>
     <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
@@ -12246,10 +12246,10 @@
     </row>
     <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -12364,10 +12364,10 @@
     </row>
     <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
@@ -12482,10 +12482,10 @@
     </row>
     <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
@@ -12600,10 +12600,10 @@
     </row>
     <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -12718,10 +12718,10 @@
     </row>
     <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="101"/>
@@ -12836,10 +12836,10 @@
     </row>
     <row r="17" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A17" s="101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
@@ -12954,10 +12954,10 @@
     </row>
     <row r="18" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A18" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="101"/>
@@ -13072,10 +13072,10 @@
     </row>
     <row r="19" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A19" s="101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
@@ -13190,10 +13190,10 @@
     </row>
     <row r="20" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A20" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="101"/>
@@ -13308,10 +13308,10 @@
     </row>
     <row r="21" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
@@ -13426,10 +13426,10 @@
     </row>
     <row r="22" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A22" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="23" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A23" s="101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="101"/>
       <c r="D23" s="101"/>
@@ -13662,10 +13662,10 @@
     </row>
     <row r="24" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A24" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
@@ -13780,10 +13780,10 @@
     </row>
     <row r="25" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A25" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="26" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A26" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
@@ -14016,10 +14016,10 @@
     </row>
     <row r="27" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A27" s="101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
@@ -14134,10 +14134,10 @@
     </row>
     <row r="28" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A28" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="101"/>
       <c r="D28" s="101"/>
@@ -14252,10 +14252,10 @@
     </row>
     <row r="29" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A29" s="101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="101"/>
       <c r="D29" s="101"/>
@@ -14370,10 +14370,10 @@
     </row>
     <row r="30" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A30" s="101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="101"/>
       <c r="D30" s="101"/>
@@ -14488,10 +14488,10 @@
     </row>
     <row r="31" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A31" s="101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="101"/>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="32" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A32" s="101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -14724,10 +14724,10 @@
     </row>
     <row r="33" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A33" s="101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="101"/>
       <c r="D33" s="101"/>
@@ -14842,10 +14842,10 @@
     </row>
     <row r="34" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A34" s="101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="101"/>
       <c r="D34" s="101"/>
@@ -14960,10 +14960,10 @@
     </row>
     <row r="35" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A35" s="101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="101"/>
       <c r="D35" s="101"/>
@@ -15078,10 +15078,10 @@
     </row>
     <row r="36" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A36" s="101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="101"/>
       <c r="D36" s="101"/>
@@ -15196,10 +15196,10 @@
     </row>
     <row r="37" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A37" s="101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="101"/>
       <c r="D37" s="101"/>
@@ -15314,10 +15314,10 @@
     </row>
     <row r="38" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A38" s="101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="101"/>
       <c r="D38" s="101"/>
@@ -15432,10 +15432,10 @@
     </row>
     <row r="39" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A39" s="101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="101"/>
       <c r="D39" s="101"/>
@@ -15550,10 +15550,10 @@
     </row>
     <row r="40" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A40" s="101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
@@ -15668,10 +15668,10 @@
     </row>
     <row r="41" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A41" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="101"/>
       <c r="D41" s="101"/>
@@ -15786,10 +15786,10 @@
     </row>
     <row r="42" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A42" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="101"/>
       <c r="D42" s="101"/>
@@ -15904,10 +15904,10 @@
     </row>
     <row r="43" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A43" s="101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
@@ -16022,10 +16022,10 @@
     </row>
     <row r="44" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A44" s="101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
@@ -16140,10 +16140,10 @@
     </row>
     <row r="45" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A45" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
@@ -16258,10 +16258,10 @@
     </row>
     <row r="46" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A46" s="101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
@@ -16376,10 +16376,10 @@
     </row>
     <row r="47" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A47" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -16494,10 +16494,10 @@
     </row>
     <row r="48" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A48" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -16612,10 +16612,10 @@
     </row>
     <row r="49" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A49" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="50" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A50" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
@@ -16848,10 +16848,10 @@
     </row>
     <row r="51" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A51" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
@@ -16966,10 +16966,10 @@
     </row>
     <row r="52" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A52" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
@@ -17084,10 +17084,10 @@
     </row>
     <row r="53" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A53" s="101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="101"/>
       <c r="D53" s="101"/>
@@ -17202,10 +17202,10 @@
     </row>
     <row r="54" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A54" s="101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="101"/>
       <c r="D54" s="101"/>
@@ -17320,10 +17320,10 @@
     </row>
     <row r="55" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A55" s="101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="101"/>
       <c r="D55" s="101"/>
@@ -17438,10 +17438,10 @@
     </row>
     <row r="56" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A56" s="101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="101"/>
       <c r="D56" s="101"/>
@@ -17556,10 +17556,10 @@
     </row>
     <row r="57" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A57" s="101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
@@ -17674,10 +17674,10 @@
     </row>
     <row r="58" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A58" s="101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="101"/>
       <c r="D58" s="101"/>
@@ -17792,10 +17792,10 @@
     </row>
     <row r="59" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A59" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="101"/>
       <c r="D59" s="101"/>
@@ -17910,10 +17910,10 @@
     </row>
     <row r="60" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A60" s="101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B60" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
@@ -18028,10 +18028,10 @@
     </row>
     <row r="61" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A61" s="101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
@@ -18146,10 +18146,10 @@
     </row>
     <row r="62" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A62" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
@@ -18264,10 +18264,10 @@
     </row>
     <row r="63" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A63" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
@@ -18382,10 +18382,10 @@
     </row>
     <row r="64" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A64" s="101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -18500,10 +18500,10 @@
     </row>
     <row r="65" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A65" s="101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -18618,10 +18618,10 @@
     </row>
     <row r="66" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A66" s="101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -18736,10 +18736,10 @@
     </row>
     <row r="67" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A67" s="101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
@@ -18854,10 +18854,10 @@
     </row>
     <row r="68" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
@@ -18972,10 +18972,10 @@
     </row>
     <row r="69" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A69" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
@@ -19090,10 +19090,10 @@
     </row>
     <row r="70" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A70" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="101"/>
       <c r="D70" s="101"/>
@@ -19208,10 +19208,10 @@
     </row>
     <row r="71" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A71" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="101"/>
       <c r="D71" s="101"/>
@@ -19326,10 +19326,10 @@
     </row>
     <row r="72" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A72" s="101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="101"/>
       <c r="D72" s="101"/>
@@ -19444,10 +19444,10 @@
     </row>
     <row r="73" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A73" s="101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="101"/>
       <c r="D73" s="101"/>
@@ -19562,10 +19562,10 @@
     </row>
     <row r="74" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A74" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="101"/>
       <c r="D74" s="101"/>
@@ -19680,10 +19680,10 @@
     </row>
     <row r="75" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A75" s="101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="101"/>
       <c r="D75" s="101"/>
@@ -19798,10 +19798,10 @@
     </row>
     <row r="76" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A76" s="101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="101"/>
       <c r="D76" s="101"/>
@@ -19916,10 +19916,10 @@
     </row>
     <row r="77" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A77" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
@@ -20034,10 +20034,10 @@
     </row>
     <row r="78" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A78" s="101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="101"/>
       <c r="D78" s="101"/>
@@ -20152,10 +20152,10 @@
     </row>
     <row r="79" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A79" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
@@ -20270,10 +20270,10 @@
     </row>
     <row r="80" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A80" s="101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="101">
         <v>1</v>
@@ -20390,10 +20390,10 @@
     </row>
     <row r="81" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A81" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="B81" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -20508,10 +20508,10 @@
     </row>
     <row r="82" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A82" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="101" t="s">
         <v>87</v>
-      </c>
-      <c r="B82" s="101" t="s">
-        <v>88</v>
       </c>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -20626,10 +20626,10 @@
     </row>
     <row r="83" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A83" s="101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -20744,10 +20744,10 @@
     </row>
     <row r="84" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A84" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
@@ -20862,10 +20862,10 @@
     </row>
     <row r="85" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A85" s="101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
@@ -20980,10 +20980,10 @@
     </row>
     <row r="86" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A86" s="101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
@@ -21098,10 +21098,10 @@
     </row>
     <row r="87" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A87" s="101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="101"/>
       <c r="D87" s="101"/>
@@ -21216,10 +21216,10 @@
     </row>
     <row r="88" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A88" s="101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="101"/>
       <c r="D88" s="101"/>
@@ -21334,10 +21334,10 @@
     </row>
     <row r="89" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A89" s="101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="101"/>
       <c r="D89" s="101"/>
@@ -21452,10 +21452,10 @@
     </row>
     <row r="90" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A90" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="101" t="s">
         <v>93</v>
-      </c>
-      <c r="B90" s="101" t="s">
-        <v>94</v>
       </c>
       <c r="C90" s="101"/>
       <c r="D90" s="101"/>
@@ -21570,10 +21570,10 @@
     </row>
     <row r="91" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A91" s="101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="101"/>
       <c r="D91" s="101"/>
@@ -21688,10 +21688,10 @@
     </row>
     <row r="92" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A92" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="101" t="s">
         <v>96</v>
-      </c>
-      <c r="B92" s="101" t="s">
-        <v>97</v>
       </c>
       <c r="C92" s="101">
         <f>365*120</f>
@@ -21809,10 +21809,10 @@
     </row>
     <row r="93" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A93" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="101">
         <f>365*120</f>
@@ -21930,10 +21930,10 @@
     </row>
     <row r="94" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A94" s="101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
@@ -22048,10 +22048,10 @@
     </row>
     <row r="95" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A95" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
@@ -22166,10 +22166,10 @@
     </row>
     <row r="96" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A96" s="101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
@@ -22284,10 +22284,10 @@
     </row>
     <row r="97" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A97" s="101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -22402,10 +22402,10 @@
     </row>
     <row r="98" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A98" s="101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -22520,10 +22520,10 @@
     </row>
     <row r="99" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A99" s="101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -22638,10 +22638,10 @@
     </row>
     <row r="100" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A100" s="101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -22756,10 +22756,10 @@
     </row>
     <row r="101" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A101" s="101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
@@ -22874,10 +22874,10 @@
     </row>
     <row r="102" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A102" s="101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
@@ -22992,10 +22992,10 @@
     </row>
     <row r="103" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A103" s="101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
@@ -23110,10 +23110,10 @@
     </row>
     <row r="104" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A104" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C104" s="101"/>
       <c r="D104" s="101"/>
@@ -23228,10 +23228,10 @@
     </row>
     <row r="105" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A105" s="101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B105" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" s="101"/>
       <c r="D105" s="101"/>
@@ -23346,10 +23346,10 @@
     </row>
     <row r="106" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A106" s="101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="101"/>
       <c r="D106" s="101"/>
@@ -23464,10 +23464,10 @@
     </row>
     <row r="107" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A107" s="101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" s="101"/>
       <c r="D107" s="101"/>
@@ -23582,10 +23582,10 @@
     </row>
     <row r="108" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A108" s="101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="101"/>
       <c r="D108" s="101"/>
@@ -23700,10 +23700,10 @@
     </row>
     <row r="109" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A109" s="101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" s="101"/>
       <c r="D109" s="101"/>
@@ -23818,10 +23818,10 @@
     </row>
     <row r="110" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A110" s="101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
@@ -23936,10 +23936,10 @@
     </row>
     <row r="111" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A111" s="101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" s="101"/>
       <c r="D111" s="101"/>
@@ -24054,10 +24054,10 @@
     </row>
     <row r="112" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A112" s="101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" s="101"/>
       <c r="D112" s="101"/>
@@ -24172,10 +24172,10 @@
     </row>
     <row r="113" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A113" s="101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" s="101"/>
       <c r="D113" s="101"/>
@@ -24290,10 +24290,10 @@
     </row>
     <row r="114" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A114" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" s="101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
@@ -24408,10 +24408,10 @@
     </row>
     <row r="115" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A115" s="101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -24526,10 +24526,10 @@
     </row>
     <row r="116" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A116" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -24644,26 +24644,26 @@
     </row>
     <row r="117" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A117" s="102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B117" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A118" s="102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B118" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A119" s="102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B119" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -24687,27 +24687,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/возможно будет лучше.xlsx
+++ b/возможно будет лучше.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27501E1-28FC-4D26-80F0-D44640673420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B809FC-D959-4DD7-B777-10F6846F79B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="главная" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="254">
   <si>
     <t>Возможно будет лучше, если:</t>
   </si>
@@ -760,6 +760,42 @@
   </si>
   <si>
     <t>у каждого будет необходимые еда, одежда, мебель, инструменты</t>
+  </si>
+  <si>
+    <t>потребление 1 человеком за сутки</t>
+  </si>
+  <si>
+    <t>вода для питья</t>
+  </si>
+  <si>
+    <t>посещение стоматолога</t>
+  </si>
+  <si>
+    <t>рубли</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>рост после 25</t>
+  </si>
+  <si>
+    <t>температура в месте жизни</t>
+  </si>
+  <si>
+    <t>вода для приготовления пищи</t>
+  </si>
+  <si>
+    <t>капуста цветная</t>
+  </si>
+  <si>
+    <t>грибы шампиньоны</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1931,6 +1967,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2885,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
@@ -8704,7 +8752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -9001,7 +9049,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9049,1346 +9097,935 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:DO119"/>
+  <dimension ref="A1:DT127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="99" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.88671875" style="99" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7" style="99" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.44140625" style="99" customWidth="1"/>
-    <col min="45" max="45" width="6.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" style="99" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15" style="99" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.6640625" style="99" customWidth="1"/>
-    <col min="56" max="56" width="7" style="99" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.44140625" style="99" customWidth="1"/>
-    <col min="61" max="61" width="13.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9" style="99" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="5.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.109375" style="99"/>
-    <col min="74" max="74" width="8.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="4.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9" style="99" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="28.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="22.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="20.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="5.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="14.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="23.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="6.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16" style="99" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="5.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="27.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="17.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="114" max="16384" width="9.109375" style="99"/>
+    <col min="1" max="1" width="34.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="99" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="99" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="99" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" style="99" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" style="99" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" style="99" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9" style="99" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9" style="99" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6" style="99" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14" style="99" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6" style="99" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6" style="99" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="5.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="4.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="5.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="5" style="99" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="5.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="26.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="6" style="99" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="21.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="17.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="7.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="5.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="13.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14" style="99" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="22.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="5.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="8.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="5" style="99" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12" style="99" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="25.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="22.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="14.5546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="7.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="4.77734375" style="99" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="6.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.88671875" style="99" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="124" max="16384" width="9.109375" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A1" s="98"/>
+    <row r="1" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>247</v>
+      </c>
       <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98" t="s">
+      <c r="C1" s="98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A2" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A4" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+    </row>
+    <row r="5" spans="1:124" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="H5" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="I5" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="J5" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="K5" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="L5" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="M5" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="N5" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="O5" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="P5" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="Q5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="R5" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="S5" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="T5" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="U5" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="V5" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="98" t="s">
+      <c r="W5" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="X5" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="98" t="s">
+      <c r="Y5" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="98" t="s">
+      <c r="Z5" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="98" t="s">
+      <c r="AA5" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="98" t="s">
+      <c r="AB5" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="AC5" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="98" t="s">
+      <c r="AD5" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AE5" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AF5" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="AD1" s="98" t="s">
+      <c r="AG5" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="98" t="s">
+      <c r="AH5" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="98" t="s">
+      <c r="AI5" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="98" t="s">
+      <c r="AJ5" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" s="98" t="s">
+      <c r="AK5" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="AI1" s="98" t="s">
+      <c r="AL5" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="AJ1" s="98" t="s">
+      <c r="AM5" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="AK1" s="98" t="s">
+      <c r="AN5" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="AL1" s="98" t="s">
+      <c r="AO5" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="AM1" s="98" t="s">
+      <c r="AP5" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="98" t="s">
+      <c r="AQ5" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="AO1" s="98" t="s">
+      <c r="AR5" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="AP1" s="98" t="s">
+      <c r="AS5" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="AQ1" s="98" t="s">
+      <c r="AT5" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="AR1" s="98" t="s">
+      <c r="AU5" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="AS1" s="98" t="s">
+      <c r="AV5" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="AT1" s="98" t="s">
+      <c r="AW5" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="AU1" s="98" t="s">
+      <c r="AX5" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="AV1" s="98" t="s">
+      <c r="AY5" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="AW1" s="98" t="s">
+      <c r="AZ5" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="AX1" s="98" t="s">
+      <c r="BA5" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="AY1" s="98" t="s">
+      <c r="BB5" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="AZ1" s="98" t="s">
+      <c r="BC5" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="BA1" s="98" t="s">
+      <c r="BD5" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="BB1" s="98" t="s">
+      <c r="BE5" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="BC1" s="98" t="s">
+      <c r="BF5" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="BD1" s="98" t="s">
+      <c r="BG5" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="BE1" s="98" t="s">
+      <c r="BH5" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="BF1" s="98" t="s">
+      <c r="BI5" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="BG1" s="98" t="s">
+      <c r="BJ5" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="BH1" s="98" t="s">
+      <c r="BK5" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="BI1" s="98" t="s">
+      <c r="BL5" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="BJ1" s="98" t="s">
+      <c r="BM5" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="BK1" s="98" t="s">
+      <c r="BN5" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="BL1" s="98" t="s">
+      <c r="BO5" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="BM1" s="98" t="s">
+      <c r="BP5" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="BN1" s="98" t="s">
+      <c r="BQ5" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="BO1" s="98" t="s">
+      <c r="BR5" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="BP1" s="98" t="s">
+      <c r="BS5" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="BQ1" s="98" t="s">
+      <c r="BT5" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="BR1" s="98" t="s">
+      <c r="BU5" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="BS1" s="98" t="s">
+      <c r="BV5" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="BT1" s="98" t="s">
+      <c r="BW5" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="BU1" s="98" t="s">
+      <c r="BX5" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="BV1" s="98" t="s">
+      <c r="BY5" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="BW1" s="98" t="s">
+      <c r="BZ5" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="BX1" s="98" t="s">
+      <c r="CA5" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="BY1" s="98" t="s">
+      <c r="CB5" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="BZ1" s="98" t="s">
+      <c r="CC5" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="CA1" s="98" t="s">
+      <c r="CD5" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="98" t="s">
+      <c r="CE5" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="CC1" s="98" t="s">
+      <c r="CF5" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="98" t="s">
+      <c r="CG5" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="98" t="s">
+      <c r="CH5" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="CF1" s="98" t="s">
+      <c r="CI5" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="CG1" s="98" t="s">
+      <c r="CJ5" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="CH1" s="98" t="s">
+      <c r="CK5" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="CI1" s="98" t="s">
+      <c r="CL5" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="CJ1" s="98" t="s">
+      <c r="CM5" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="CK1" s="98" t="s">
+      <c r="CN5" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="CL1" s="98" t="s">
+      <c r="CO5" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="CM1" s="98" t="s">
+      <c r="CP5" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="CN1" s="98" t="s">
+      <c r="CQ5" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" s="98" t="s">
+      <c r="CR5" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="98" t="s">
+      <c r="CS5" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="CQ1" s="98" t="s">
+      <c r="CT5" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="CR1" s="98" t="s">
+      <c r="CU5" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="CS1" s="98" t="s">
+      <c r="CV5" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="CT1" s="98" t="s">
+      <c r="CW5" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="CU1" s="98" t="s">
+      <c r="CX5" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="CV1" s="98" t="s">
+      <c r="CY5" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="CW1" s="98" t="s">
+      <c r="CZ5" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="CX1" s="98" t="s">
+      <c r="DA5" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="CY1" s="98" t="s">
+      <c r="DB5" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="CZ1" s="98" t="s">
+      <c r="DC5" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="DA1" s="98" t="s">
+      <c r="DD5" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="DB1" s="98" t="s">
+      <c r="DE5" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="DC1" s="98" t="s">
+      <c r="DF5" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="DD1" s="98" t="s">
+      <c r="DG5" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="DE1" s="98" t="s">
+      <c r="DH5" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="DF1" s="98" t="s">
+      <c r="DI5" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="DG1" s="98" t="s">
+      <c r="DJ5" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="DH1" s="98" t="s">
+      <c r="DK5" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="DI1" s="98" t="s">
+      <c r="DL5" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="DJ1" s="98" t="s">
+      <c r="DM5" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="DN5" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="DK1" s="98" t="s">
+      <c r="DO5" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="DL1" s="99" t="s">
+      <c r="DP5" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="DM1" s="99" t="s">
+      <c r="DQ5" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="DN1" s="99" t="s">
+      <c r="DR5" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="DO1" s="99" t="s">
+      <c r="DS5" s="98" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98" t="s">
+      <c r="DT5" s="99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:124" x14ac:dyDescent="0.3">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="F6" s="98"/>
+      <c r="G6" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="I6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="J6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="K6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="L6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="M6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="N6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="O6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="P6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="Q6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="R6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="S6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="T6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="U6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="V6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="98" t="s">
+      <c r="W6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="98" t="s">
+      <c r="X6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="98" t="s">
+      <c r="Y6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="98" t="s">
+      <c r="Z6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="98" t="s">
+      <c r="AA6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="98" t="s">
+      <c r="AB6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="98" t="s">
+      <c r="AC6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="98" t="s">
+      <c r="AD6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="98" t="s">
+      <c r="AE6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="98" t="s">
+      <c r="AF6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="98" t="s">
+      <c r="AG6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="98" t="s">
+      <c r="AH6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="98" t="s">
+      <c r="AI6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="98" t="s">
+      <c r="AJ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="98" t="s">
+      <c r="AK6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="98" t="s">
+      <c r="AL6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="98" t="s">
+      <c r="AM6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="98" t="s">
+      <c r="AN6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="98" t="s">
+      <c r="AO6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="98" t="s">
+      <c r="AP6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="98" t="s">
+      <c r="AQ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="98" t="s">
+      <c r="AR6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="98" t="s">
+      <c r="AS6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="98" t="s">
+      <c r="AT6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AR2" s="98" t="s">
+      <c r="AU6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AS2" s="98" t="s">
+      <c r="AV6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="98" t="s">
+      <c r="AW6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="98" t="s">
+      <c r="AX6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="98" t="s">
+      <c r="AY6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AW2" s="98" t="s">
+      <c r="AZ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AX2" s="98" t="s">
+      <c r="BA6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="98" t="s">
+      <c r="BB6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AZ2" s="98" t="s">
+      <c r="BC6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BA2" s="98" t="s">
+      <c r="BD6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BB2" s="98" t="s">
+      <c r="BE6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BC2" s="98" t="s">
+      <c r="BF6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BD2" s="98" t="s">
+      <c r="BG6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="BE2" s="98" t="s">
+      <c r="BH6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="BF2" s="98" t="s">
+      <c r="BI6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BG2" s="98" t="s">
+      <c r="BJ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BH2" s="98" t="s">
+      <c r="BK6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BI2" s="98" t="s">
+      <c r="BL6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BJ2" s="98" t="s">
+      <c r="BM6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BK2" s="98" t="s">
+      <c r="BN6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BL2" s="98" t="s">
+      <c r="BO6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BM2" s="98" t="s">
+      <c r="BP6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BN2" s="98" t="s">
+      <c r="BQ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BO2" s="98" t="s">
+      <c r="BR6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BP2" s="98" t="s">
+      <c r="BS6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BQ2" s="98" t="s">
+      <c r="BT6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BR2" s="98" t="s">
+      <c r="BU6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BS2" s="98" t="s">
+      <c r="BV6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BT2" s="98" t="s">
+      <c r="BW6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BU2" s="98" t="s">
+      <c r="BX6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BV2" s="98" t="s">
+      <c r="BY6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BW2" s="98" t="s">
+      <c r="BZ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BX2" s="98" t="s">
+      <c r="CA6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" s="98"/>
-      <c r="BZ2" s="98" t="s">
+      <c r="CB6" s="98"/>
+      <c r="CC6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="CA2" s="98" t="s">
+      <c r="CD6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="CB2" s="98" t="s">
+      <c r="CE6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CC2" s="98" t="s">
+      <c r="CF6" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="CD2" s="98" t="s">
+      <c r="CG6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CE2" s="98" t="s">
+      <c r="CH6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CF2" s="98" t="s">
+      <c r="CI6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CG2" s="98" t="s">
+      <c r="CJ6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CH2" s="98" t="s">
+      <c r="CK6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CI2" s="98" t="s">
+      <c r="CL6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" s="98" t="s">
+      <c r="CM6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" s="98" t="s">
+      <c r="CN6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CL2" s="98" t="s">
+      <c r="CO6" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="CM2" s="98" t="s">
+      <c r="CP6" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="CN2" s="98" t="s">
+      <c r="CQ6" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="CO2" s="98" t="s">
+      <c r="CR6" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="98" t="s">
+      <c r="CS6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="CQ2" s="98" t="s">
+      <c r="CT6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="CR2" s="98" t="s">
+      <c r="CU6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="CS2" s="98" t="s">
+      <c r="CV6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="CT2" s="98" t="s">
+      <c r="CW6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CU2" s="98" t="s">
+      <c r="CX6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CV2" s="98" t="s">
+      <c r="CY6" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="CW2" s="98" t="s">
+      <c r="CZ6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CX2" s="98" t="s">
+      <c r="DA6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CY2" s="98" t="s">
+      <c r="DB6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="CZ2" s="98" t="s">
+      <c r="DC6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="DA2" s="98" t="s">
+      <c r="DD6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DB2" s="98" t="s">
+      <c r="DE6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="DC2" s="98" t="s">
+      <c r="DF6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="DD2" s="98" t="s">
+      <c r="DG6" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="DE2" s="98" t="s">
+      <c r="DH6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DF2" s="98" t="s">
+      <c r="DI6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DG2" s="98" t="s">
+      <c r="DJ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DH2" s="98" t="s">
+      <c r="DK6" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="DI2" s="98" t="s">
+      <c r="DL6" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="DJ2" s="98" t="s">
+      <c r="DM6" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="DN6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DK2" s="98" t="s">
+      <c r="DO6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="DL2" s="99" t="s">
+      <c r="DP6" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="DM2" s="99" t="s">
+      <c r="DQ6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DN2" s="99" t="s">
+      <c r="DR6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="DO2" s="99" t="s">
+      <c r="DS6" s="98" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="98"/>
-      <c r="AX3" s="98"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="98"/>
-      <c r="BC3" s="98"/>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="98"/>
-      <c r="BH3" s="98"/>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98"/>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="98"/>
-      <c r="BQ3" s="98"/>
-      <c r="BR3" s="98"/>
-      <c r="BS3" s="98"/>
-      <c r="BT3" s="98"/>
-      <c r="BU3" s="98"/>
-      <c r="BV3" s="98"/>
-      <c r="BW3" s="98"/>
-      <c r="BX3" s="98"/>
-      <c r="BY3" s="98"/>
-      <c r="BZ3" s="98"/>
-      <c r="CA3" s="98"/>
-      <c r="CB3" s="98"/>
-      <c r="CC3" s="98"/>
-      <c r="CD3" s="98"/>
-      <c r="CE3" s="98"/>
-      <c r="CF3" s="98"/>
-      <c r="CG3" s="98"/>
-      <c r="CH3" s="98"/>
-      <c r="CI3" s="98"/>
-      <c r="CJ3" s="98"/>
-      <c r="CK3" s="98"/>
-      <c r="CL3" s="98"/>
-      <c r="CM3" s="98"/>
-      <c r="CN3" s="98"/>
-      <c r="CO3" s="98"/>
-      <c r="CP3" s="98"/>
-      <c r="CQ3" s="98"/>
-      <c r="CR3" s="98"/>
-      <c r="CS3" s="98"/>
-      <c r="CT3" s="98"/>
-      <c r="CU3" s="98"/>
-      <c r="CV3" s="98"/>
-      <c r="CW3" s="98"/>
-      <c r="CX3" s="98"/>
-      <c r="CY3" s="98"/>
-      <c r="CZ3" s="98"/>
-      <c r="DA3" s="98"/>
-      <c r="DB3" s="98"/>
-      <c r="DC3" s="98"/>
-      <c r="DD3" s="98"/>
-      <c r="DE3" s="98"/>
-      <c r="DF3" s="98"/>
-      <c r="DG3" s="98"/>
-      <c r="DH3" s="98"/>
-    </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="98"/>
-      <c r="BO4" s="98"/>
-      <c r="BP4" s="98"/>
-      <c r="BQ4" s="98"/>
-      <c r="BR4" s="98"/>
-      <c r="BS4" s="98"/>
-      <c r="BT4" s="98"/>
-      <c r="BU4" s="98"/>
-      <c r="BV4" s="98"/>
-      <c r="BW4" s="98"/>
-      <c r="BX4" s="98"/>
-      <c r="BY4" s="98"/>
-      <c r="BZ4" s="98"/>
-      <c r="CA4" s="98"/>
-      <c r="CB4" s="98"/>
-      <c r="CC4" s="98"/>
-      <c r="CD4" s="98"/>
-      <c r="CE4" s="98"/>
-      <c r="CF4" s="98"/>
-      <c r="CG4" s="98"/>
-      <c r="CH4" s="98"/>
-      <c r="CI4" s="98"/>
-      <c r="CJ4" s="98"/>
-      <c r="CK4" s="98"/>
-      <c r="CL4" s="98"/>
-      <c r="CM4" s="98"/>
-      <c r="CN4" s="98"/>
-      <c r="CO4" s="98"/>
-      <c r="CP4" s="98"/>
-      <c r="CQ4" s="98"/>
-      <c r="CR4" s="98"/>
-      <c r="CS4" s="98"/>
-      <c r="CT4" s="98"/>
-      <c r="CU4" s="98"/>
-      <c r="CV4" s="98"/>
-      <c r="CW4" s="98"/>
-      <c r="CX4" s="98"/>
-      <c r="CY4" s="98"/>
-      <c r="CZ4" s="98"/>
-      <c r="DA4" s="98"/>
-      <c r="DB4" s="98"/>
-      <c r="DC4" s="98"/>
-      <c r="DD4" s="98"/>
-      <c r="DE4" s="98"/>
-      <c r="DF4" s="98"/>
-      <c r="DG4" s="98"/>
-      <c r="DH4" s="98"/>
-    </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="98"/>
-      <c r="BJ5" s="98"/>
-      <c r="BK5" s="98"/>
-      <c r="BL5" s="98"/>
-      <c r="BM5" s="98"/>
-      <c r="BN5" s="98"/>
-      <c r="BO5" s="98"/>
-      <c r="BP5" s="98"/>
-      <c r="BQ5" s="98"/>
-      <c r="BR5" s="98"/>
-      <c r="BS5" s="98"/>
-      <c r="BT5" s="98"/>
-      <c r="BU5" s="98"/>
-      <c r="BV5" s="98"/>
-      <c r="BW5" s="98"/>
-      <c r="BX5" s="98"/>
-      <c r="BY5" s="98"/>
-      <c r="BZ5" s="98"/>
-      <c r="CA5" s="98"/>
-      <c r="CB5" s="98"/>
-      <c r="CC5" s="98"/>
-      <c r="CD5" s="98"/>
-      <c r="CE5" s="98"/>
-      <c r="CF5" s="98"/>
-      <c r="CG5" s="98"/>
-      <c r="CH5" s="98"/>
-      <c r="CI5" s="98"/>
-      <c r="CJ5" s="98"/>
-      <c r="CK5" s="98"/>
-      <c r="CL5" s="98"/>
-      <c r="CM5" s="98"/>
-      <c r="CN5" s="98"/>
-      <c r="CO5" s="98"/>
-      <c r="CP5" s="98"/>
-      <c r="CQ5" s="98"/>
-      <c r="CR5" s="98"/>
-      <c r="CS5" s="98"/>
-      <c r="CT5" s="98"/>
-      <c r="CU5" s="98"/>
-      <c r="CV5" s="98"/>
-      <c r="CW5" s="98"/>
-      <c r="CX5" s="98"/>
-      <c r="CY5" s="98"/>
-      <c r="CZ5" s="98"/>
-      <c r="DA5" s="98"/>
-      <c r="DB5" s="98"/>
-      <c r="DC5" s="98"/>
-      <c r="DD5" s="98"/>
-      <c r="DE5" s="98"/>
-      <c r="DF5" s="98"/>
-      <c r="DG5" s="98"/>
-      <c r="DH5" s="98"/>
-    </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.3">
-      <c r="A6" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="101" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="98"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="98"/>
-      <c r="BM6" s="98"/>
-      <c r="BN6" s="98"/>
-      <c r="BO6" s="98"/>
-      <c r="BP6" s="98"/>
-      <c r="BQ6" s="98"/>
-      <c r="BR6" s="98"/>
-      <c r="BS6" s="98"/>
-      <c r="BT6" s="98"/>
-      <c r="BU6" s="98"/>
-      <c r="BV6" s="98"/>
-      <c r="BW6" s="98"/>
-      <c r="BX6" s="98"/>
-      <c r="BY6" s="98"/>
-      <c r="BZ6" s="98"/>
-      <c r="CA6" s="98"/>
-      <c r="CB6" s="98"/>
-      <c r="CC6" s="98"/>
-      <c r="CD6" s="98"/>
-      <c r="CE6" s="98"/>
-      <c r="CF6" s="98"/>
-      <c r="CG6" s="98"/>
-      <c r="CH6" s="98"/>
-      <c r="CI6" s="98"/>
-      <c r="CJ6" s="98"/>
-      <c r="CK6" s="98"/>
-      <c r="CL6" s="98"/>
-      <c r="CM6" s="98"/>
-      <c r="CN6" s="98"/>
-      <c r="CO6" s="98"/>
-      <c r="CP6" s="98"/>
-      <c r="CQ6" s="98"/>
-      <c r="CR6" s="98"/>
-      <c r="CS6" s="98"/>
-      <c r="CT6" s="98"/>
-      <c r="CU6" s="98"/>
-      <c r="CV6" s="98"/>
-      <c r="CW6" s="98"/>
-      <c r="CX6" s="98"/>
-      <c r="CY6" s="98"/>
-      <c r="CZ6" s="98"/>
-      <c r="DA6" s="98"/>
-      <c r="DB6" s="98"/>
-      <c r="DC6" s="98"/>
-      <c r="DD6" s="98"/>
-      <c r="DE6" s="98"/>
-      <c r="DF6" s="98"/>
-      <c r="DG6" s="98"/>
-      <c r="DH6" s="98"/>
-    </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B7" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="101" t="s">
+      <c r="C7" s="98">
+        <f>0.03*C3</f>
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="108">
+        <f>C7*365*120</f>
+        <v>105120</v>
+      </c>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
       <c r="K7" s="98"/>
       <c r="L7" s="98"/>
       <c r="M7" s="98"/>
@@ -10491,20 +10128,31 @@
       <c r="DF7" s="98"/>
       <c r="DG7" s="98"/>
       <c r="DH7" s="98"/>
-    </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI7" s="98"/>
+      <c r="DJ7" s="98"/>
+      <c r="DK7" s="98"/>
+      <c r="DL7" s="98"/>
+      <c r="DM7" s="98"/>
+      <c r="DN7" s="98"/>
+      <c r="DO7" s="98"/>
+      <c r="DP7" s="98"/>
+      <c r="DQ7" s="98"/>
+      <c r="DR7" s="98"/>
+      <c r="DS7" s="98"/>
+    </row>
+    <row r="8" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="B8" s="98" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="98"/>
-      <c r="D8" s="101"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="101"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98"/>
@@ -10609,20 +10257,31 @@
       <c r="DF8" s="98"/>
       <c r="DG8" s="98"/>
       <c r="DH8" s="98"/>
-    </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI8" s="98"/>
+      <c r="DJ8" s="98"/>
+      <c r="DK8" s="98"/>
+      <c r="DL8" s="98"/>
+      <c r="DM8" s="98"/>
+      <c r="DN8" s="98"/>
+      <c r="DO8" s="98"/>
+      <c r="DP8" s="98"/>
+      <c r="DQ8" s="98"/>
+      <c r="DR8" s="98"/>
+      <c r="DS8" s="98"/>
+    </row>
+    <row r="9" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="98"/>
       <c r="J9" s="98"/>
       <c r="K9" s="98"/>
@@ -10727,22 +10386,39 @@
       <c r="DF9" s="98"/>
       <c r="DG9" s="98"/>
       <c r="DH9" s="98"/>
-    </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI9" s="98"/>
+      <c r="DJ9" s="98"/>
+      <c r="DK9" s="98"/>
+      <c r="DL9" s="98"/>
+      <c r="DM9" s="98"/>
+      <c r="DN9" s="98"/>
+      <c r="DO9" s="98"/>
+      <c r="DP9" s="98"/>
+      <c r="DQ9" s="98"/>
+      <c r="DR9" s="98"/>
+      <c r="DS9" s="98"/>
+    </row>
+    <row r="10" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B10" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="98" t="s">
+        <v>223</v>
+      </c>
       <c r="K10" s="98"/>
       <c r="L10" s="98"/>
       <c r="M10" s="98"/>
@@ -10845,23 +10521,40 @@
       <c r="DF10" s="98"/>
       <c r="DG10" s="98"/>
       <c r="DH10" s="98"/>
-    </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI10" s="98"/>
+      <c r="DJ10" s="98"/>
+      <c r="DK10" s="98"/>
+      <c r="DL10" s="98"/>
+      <c r="DM10" s="98"/>
+      <c r="DN10" s="98"/>
+      <c r="DO10" s="98"/>
+      <c r="DP10" s="98"/>
+      <c r="DQ10" s="98"/>
+      <c r="DR10" s="98"/>
+      <c r="DS10" s="98"/>
+    </row>
+    <row r="11" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A11" s="98" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B11" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101" t="s">
+        <v>225</v>
+      </c>
       <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
+      <c r="J11" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="101"/>
       <c r="L11" s="98"/>
       <c r="M11" s="98"/>
       <c r="N11" s="98"/>
@@ -10963,21 +10656,38 @@
       <c r="DF11" s="98"/>
       <c r="DG11" s="98"/>
       <c r="DH11" s="98"/>
-    </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI11" s="98"/>
+      <c r="DJ11" s="98"/>
+      <c r="DK11" s="98"/>
+      <c r="DL11" s="98"/>
+      <c r="DM11" s="98"/>
+      <c r="DN11" s="98"/>
+      <c r="DO11" s="98"/>
+      <c r="DP11" s="98"/>
+      <c r="DQ11" s="98"/>
+      <c r="DR11" s="98"/>
+      <c r="DS11" s="98"/>
+    </row>
+    <row r="12" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>228</v>
+      </c>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
       <c r="L12" s="98"/>
@@ -11081,20 +10791,31 @@
       <c r="DF12" s="98"/>
       <c r="DG12" s="98"/>
       <c r="DH12" s="98"/>
-    </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI12" s="98"/>
+      <c r="DJ12" s="98"/>
+      <c r="DK12" s="98"/>
+      <c r="DL12" s="98"/>
+      <c r="DM12" s="98"/>
+      <c r="DN12" s="98"/>
+      <c r="DO12" s="98"/>
+      <c r="DP12" s="98"/>
+      <c r="DQ12" s="98"/>
+      <c r="DR12" s="98"/>
+      <c r="DS12" s="98"/>
+    </row>
+    <row r="13" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
@@ -11199,16 +10920,30 @@
       <c r="DF13" s="98"/>
       <c r="DG13" s="98"/>
       <c r="DH13" s="98"/>
-    </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI13" s="98"/>
+      <c r="DJ13" s="98"/>
+      <c r="DK13" s="98"/>
+      <c r="DL13" s="98"/>
+      <c r="DM13" s="98"/>
+      <c r="DN13" s="98"/>
+      <c r="DO13" s="98"/>
+      <c r="DP13" s="98"/>
+      <c r="DQ13" s="98"/>
+      <c r="DR13" s="98"/>
+      <c r="DS13" s="98"/>
+      <c r="DT13" s="99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="98"/>
       <c r="F14" s="98"/>
       <c r="G14" s="98"/>
@@ -11317,16 +11052,27 @@
       <c r="DF14" s="98"/>
       <c r="DG14" s="98"/>
       <c r="DH14" s="98"/>
-    </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI14" s="98"/>
+      <c r="DJ14" s="98"/>
+      <c r="DK14" s="98"/>
+      <c r="DL14" s="98"/>
+      <c r="DM14" s="98"/>
+      <c r="DN14" s="98"/>
+      <c r="DO14" s="98"/>
+      <c r="DP14" s="98"/>
+      <c r="DQ14" s="98"/>
+      <c r="DR14" s="98"/>
+      <c r="DS14" s="98"/>
+    </row>
+    <row r="15" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B15" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="98"/>
       <c r="F15" s="98"/>
       <c r="G15" s="98"/>
@@ -11435,16 +11181,27 @@
       <c r="DF15" s="98"/>
       <c r="DG15" s="98"/>
       <c r="DH15" s="98"/>
-    </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="DI15" s="98"/>
+      <c r="DJ15" s="98"/>
+      <c r="DK15" s="98"/>
+      <c r="DL15" s="98"/>
+      <c r="DM15" s="98"/>
+      <c r="DN15" s="98"/>
+      <c r="DO15" s="98"/>
+      <c r="DP15" s="98"/>
+      <c r="DQ15" s="98"/>
+      <c r="DR15" s="98"/>
+      <c r="DS15" s="98"/>
+    </row>
+    <row r="16" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B16" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="98"/>
       <c r="F16" s="98"/>
       <c r="G16" s="98"/>
@@ -11553,16 +11310,27 @@
       <c r="DF16" s="98"/>
       <c r="DG16" s="98"/>
       <c r="DH16" s="98"/>
-    </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI16" s="98"/>
+      <c r="DJ16" s="98"/>
+      <c r="DK16" s="98"/>
+      <c r="DL16" s="98"/>
+      <c r="DM16" s="98"/>
+      <c r="DN16" s="98"/>
+      <c r="DO16" s="98"/>
+      <c r="DP16" s="98"/>
+      <c r="DQ16" s="98"/>
+      <c r="DR16" s="98"/>
+      <c r="DS16" s="98"/>
+    </row>
+    <row r="17" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A17" s="98" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="98"/>
       <c r="F17" s="98"/>
       <c r="G17" s="98"/>
@@ -11671,16 +11439,27 @@
       <c r="DF17" s="98"/>
       <c r="DG17" s="98"/>
       <c r="DH17" s="98"/>
-    </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI17" s="98"/>
+      <c r="DJ17" s="98"/>
+      <c r="DK17" s="98"/>
+      <c r="DL17" s="98"/>
+      <c r="DM17" s="98"/>
+      <c r="DN17" s="98"/>
+      <c r="DO17" s="98"/>
+      <c r="DP17" s="98"/>
+      <c r="DQ17" s="98"/>
+      <c r="DR17" s="98"/>
+      <c r="DS17" s="98"/>
+    </row>
+    <row r="18" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A18" s="98" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B18" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="98"/>
       <c r="F18" s="98"/>
       <c r="G18" s="98"/>
@@ -11789,16 +11568,27 @@
       <c r="DF18" s="98"/>
       <c r="DG18" s="98"/>
       <c r="DH18" s="98"/>
-    </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI18" s="98"/>
+      <c r="DJ18" s="98"/>
+      <c r="DK18" s="98"/>
+      <c r="DL18" s="98"/>
+      <c r="DM18" s="98"/>
+      <c r="DN18" s="98"/>
+      <c r="DO18" s="98"/>
+      <c r="DP18" s="98"/>
+      <c r="DQ18" s="98"/>
+      <c r="DR18" s="98"/>
+      <c r="DS18" s="98"/>
+    </row>
+    <row r="19" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A19" s="98" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B19" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="98"/>
       <c r="F19" s="98"/>
       <c r="G19" s="98"/>
@@ -11907,16 +11697,27 @@
       <c r="DF19" s="98"/>
       <c r="DG19" s="98"/>
       <c r="DH19" s="98"/>
-    </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI19" s="98"/>
+      <c r="DJ19" s="98"/>
+      <c r="DK19" s="98"/>
+      <c r="DL19" s="98"/>
+      <c r="DM19" s="98"/>
+      <c r="DN19" s="98"/>
+      <c r="DO19" s="98"/>
+      <c r="DP19" s="98"/>
+      <c r="DQ19" s="98"/>
+      <c r="DR19" s="98"/>
+      <c r="DS19" s="98"/>
+    </row>
+    <row r="20" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A20" s="98" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B20" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="98"/>
       <c r="F20" s="98"/>
       <c r="G20" s="98"/>
@@ -12025,16 +11826,32 @@
       <c r="DF20" s="98"/>
       <c r="DG20" s="98"/>
       <c r="DH20" s="98"/>
-    </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI20" s="98"/>
+      <c r="DJ20" s="98"/>
+      <c r="DK20" s="98"/>
+      <c r="DL20" s="98"/>
+      <c r="DM20" s="98"/>
+      <c r="DN20" s="98"/>
+      <c r="DO20" s="98"/>
+      <c r="DP20" s="98"/>
+      <c r="DQ20" s="98"/>
+      <c r="DR20" s="98"/>
+      <c r="DS20" s="98"/>
+    </row>
+    <row r="21" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B21" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="C21" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="108">
+        <f>C21*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E21" s="98"/>
       <c r="F21" s="98"/>
       <c r="G21" s="98"/>
@@ -12143,16 +11960,32 @@
       <c r="DF21" s="98"/>
       <c r="DG21" s="98"/>
       <c r="DH21" s="98"/>
-    </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI21" s="98"/>
+      <c r="DJ21" s="98"/>
+      <c r="DK21" s="98"/>
+      <c r="DL21" s="98"/>
+      <c r="DM21" s="98"/>
+      <c r="DN21" s="98"/>
+      <c r="DO21" s="98"/>
+      <c r="DP21" s="98"/>
+      <c r="DQ21" s="98"/>
+      <c r="DR21" s="98"/>
+      <c r="DS21" s="98"/>
+    </row>
+    <row r="22" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A22" s="98" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B22" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="108">
+        <f>C22*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E22" s="98"/>
       <c r="F22" s="98"/>
       <c r="G22" s="98"/>
@@ -12261,16 +12094,32 @@
       <c r="DF22" s="98"/>
       <c r="DG22" s="98"/>
       <c r="DH22" s="98"/>
-    </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI22" s="98"/>
+      <c r="DJ22" s="98"/>
+      <c r="DK22" s="98"/>
+      <c r="DL22" s="98"/>
+      <c r="DM22" s="98"/>
+      <c r="DN22" s="98"/>
+      <c r="DO22" s="98"/>
+      <c r="DP22" s="98"/>
+      <c r="DQ22" s="98"/>
+      <c r="DR22" s="98"/>
+      <c r="DS22" s="98"/>
+    </row>
+    <row r="23" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A23" s="98" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B23" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="108">
+        <f>C23*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E23" s="98"/>
       <c r="F23" s="98"/>
       <c r="G23" s="98"/>
@@ -12379,16 +12228,32 @@
       <c r="DF23" s="98"/>
       <c r="DG23" s="98"/>
       <c r="DH23" s="98"/>
-    </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI23" s="98"/>
+      <c r="DJ23" s="98"/>
+      <c r="DK23" s="98"/>
+      <c r="DL23" s="98"/>
+      <c r="DM23" s="98"/>
+      <c r="DN23" s="98"/>
+      <c r="DO23" s="98"/>
+      <c r="DP23" s="98"/>
+      <c r="DQ23" s="98"/>
+      <c r="DR23" s="98"/>
+      <c r="DS23" s="98"/>
+    </row>
+    <row r="24" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A24" s="98" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B24" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="108">
+        <f>C24*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E24" s="98"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
@@ -12497,16 +12362,32 @@
       <c r="DF24" s="98"/>
       <c r="DG24" s="98"/>
       <c r="DH24" s="98"/>
-    </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI24" s="98"/>
+      <c r="DJ24" s="98"/>
+      <c r="DK24" s="98"/>
+      <c r="DL24" s="98"/>
+      <c r="DM24" s="98"/>
+      <c r="DN24" s="98"/>
+      <c r="DO24" s="98"/>
+      <c r="DP24" s="98"/>
+      <c r="DQ24" s="98"/>
+      <c r="DR24" s="98"/>
+      <c r="DS24" s="98"/>
+    </row>
+    <row r="25" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A25" s="98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B25" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="C25" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="108">
+        <f>C25*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E25" s="98"/>
       <c r="F25" s="98"/>
       <c r="G25" s="98"/>
@@ -12615,16 +12496,32 @@
       <c r="DF25" s="98"/>
       <c r="DG25" s="98"/>
       <c r="DH25" s="98"/>
-    </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI25" s="98"/>
+      <c r="DJ25" s="98"/>
+      <c r="DK25" s="98"/>
+      <c r="DL25" s="98"/>
+      <c r="DM25" s="98"/>
+      <c r="DN25" s="98"/>
+      <c r="DO25" s="98"/>
+      <c r="DP25" s="98"/>
+      <c r="DQ25" s="98"/>
+      <c r="DR25" s="98"/>
+      <c r="DS25" s="98"/>
+    </row>
+    <row r="26" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A26" s="98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B26" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="C26" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="108">
+        <f>C26*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E26" s="98"/>
       <c r="F26" s="98"/>
       <c r="G26" s="98"/>
@@ -12733,16 +12630,32 @@
       <c r="DF26" s="98"/>
       <c r="DG26" s="98"/>
       <c r="DH26" s="98"/>
-    </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI26" s="98"/>
+      <c r="DJ26" s="98"/>
+      <c r="DK26" s="98"/>
+      <c r="DL26" s="98"/>
+      <c r="DM26" s="98"/>
+      <c r="DN26" s="98"/>
+      <c r="DO26" s="98"/>
+      <c r="DP26" s="98"/>
+      <c r="DQ26" s="98"/>
+      <c r="DR26" s="98"/>
+      <c r="DS26" s="98"/>
+    </row>
+    <row r="27" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A27" s="98" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="C27" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="108">
+        <f>C27*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E27" s="98"/>
       <c r="F27" s="98"/>
       <c r="G27" s="98"/>
@@ -12851,16 +12764,32 @@
       <c r="DF27" s="98"/>
       <c r="DG27" s="98"/>
       <c r="DH27" s="98"/>
-    </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI27" s="98"/>
+      <c r="DJ27" s="98"/>
+      <c r="DK27" s="98"/>
+      <c r="DL27" s="98"/>
+      <c r="DM27" s="98"/>
+      <c r="DN27" s="98"/>
+      <c r="DO27" s="98"/>
+      <c r="DP27" s="98"/>
+      <c r="DQ27" s="98"/>
+      <c r="DR27" s="98"/>
+      <c r="DS27" s="98"/>
+    </row>
+    <row r="28" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B28" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="108">
+        <f>C28*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E28" s="98"/>
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
@@ -12969,16 +12898,32 @@
       <c r="DF28" s="98"/>
       <c r="DG28" s="98"/>
       <c r="DH28" s="98"/>
-    </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI28" s="98"/>
+      <c r="DJ28" s="98"/>
+      <c r="DK28" s="98"/>
+      <c r="DL28" s="98"/>
+      <c r="DM28" s="98"/>
+      <c r="DN28" s="98"/>
+      <c r="DO28" s="98"/>
+      <c r="DP28" s="98"/>
+      <c r="DQ28" s="98"/>
+      <c r="DR28" s="98"/>
+      <c r="DS28" s="98"/>
+    </row>
+    <row r="29" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B29" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="C29" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="108">
+        <f>C29*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E29" s="98"/>
       <c r="F29" s="98"/>
       <c r="G29" s="98"/>
@@ -13087,16 +13032,32 @@
       <c r="DF29" s="98"/>
       <c r="DG29" s="98"/>
       <c r="DH29" s="98"/>
-    </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI29" s="98"/>
+      <c r="DJ29" s="98"/>
+      <c r="DK29" s="98"/>
+      <c r="DL29" s="98"/>
+      <c r="DM29" s="98"/>
+      <c r="DN29" s="98"/>
+      <c r="DO29" s="98"/>
+      <c r="DP29" s="98"/>
+      <c r="DQ29" s="98"/>
+      <c r="DR29" s="98"/>
+      <c r="DS29" s="98"/>
+    </row>
+    <row r="30" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A30" s="98" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
+      <c r="C30" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="108">
+        <f>C30*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E30" s="98"/>
       <c r="F30" s="98"/>
       <c r="G30" s="98"/>
@@ -13205,16 +13166,32 @@
       <c r="DF30" s="98"/>
       <c r="DG30" s="98"/>
       <c r="DH30" s="98"/>
-    </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI30" s="98"/>
+      <c r="DJ30" s="98"/>
+      <c r="DK30" s="98"/>
+      <c r="DL30" s="98"/>
+      <c r="DM30" s="98"/>
+      <c r="DN30" s="98"/>
+      <c r="DO30" s="98"/>
+      <c r="DP30" s="98"/>
+      <c r="DQ30" s="98"/>
+      <c r="DR30" s="98"/>
+      <c r="DS30" s="98"/>
+    </row>
+    <row r="31" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A31" s="98" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B31" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D31" s="108">
+        <f>C31*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E31" s="98"/>
       <c r="F31" s="98"/>
       <c r="G31" s="98"/>
@@ -13323,16 +13300,32 @@
       <c r="DF31" s="98"/>
       <c r="DG31" s="98"/>
       <c r="DH31" s="98"/>
-    </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI31" s="98"/>
+      <c r="DJ31" s="98"/>
+      <c r="DK31" s="98"/>
+      <c r="DL31" s="98"/>
+      <c r="DM31" s="98"/>
+      <c r="DN31" s="98"/>
+      <c r="DO31" s="98"/>
+      <c r="DP31" s="98"/>
+      <c r="DQ31" s="98"/>
+      <c r="DR31" s="98"/>
+      <c r="DS31" s="98"/>
+    </row>
+    <row r="32" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A32" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D32" s="108">
+        <f t="shared" ref="D32:D40" si="0">C32*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E32" s="98"/>
       <c r="F32" s="98"/>
       <c r="G32" s="98"/>
@@ -13441,16 +13434,32 @@
       <c r="DF32" s="98"/>
       <c r="DG32" s="98"/>
       <c r="DH32" s="98"/>
-    </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI32" s="98"/>
+      <c r="DJ32" s="98"/>
+      <c r="DK32" s="98"/>
+      <c r="DL32" s="98"/>
+      <c r="DM32" s="98"/>
+      <c r="DN32" s="98"/>
+      <c r="DO32" s="98"/>
+      <c r="DP32" s="98"/>
+      <c r="DQ32" s="98"/>
+      <c r="DR32" s="98"/>
+      <c r="DS32" s="98"/>
+    </row>
+    <row r="33" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A33" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
+      <c r="C33" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E33" s="98"/>
       <c r="F33" s="98"/>
       <c r="G33" s="98"/>
@@ -13559,16 +13568,32 @@
       <c r="DF33" s="98"/>
       <c r="DG33" s="98"/>
       <c r="DH33" s="98"/>
-    </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI33" s="98"/>
+      <c r="DJ33" s="98"/>
+      <c r="DK33" s="98"/>
+      <c r="DL33" s="98"/>
+      <c r="DM33" s="98"/>
+      <c r="DN33" s="98"/>
+      <c r="DO33" s="98"/>
+      <c r="DP33" s="98"/>
+      <c r="DQ33" s="98"/>
+      <c r="DR33" s="98"/>
+      <c r="DS33" s="98"/>
+    </row>
+    <row r="34" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
+      <c r="C34" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E34" s="98"/>
       <c r="F34" s="98"/>
       <c r="G34" s="98"/>
@@ -13677,16 +13702,32 @@
       <c r="DF34" s="98"/>
       <c r="DG34" s="98"/>
       <c r="DH34" s="98"/>
-    </row>
-    <row r="35" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI34" s="98"/>
+      <c r="DJ34" s="98"/>
+      <c r="DK34" s="98"/>
+      <c r="DL34" s="98"/>
+      <c r="DM34" s="98"/>
+      <c r="DN34" s="98"/>
+      <c r="DO34" s="98"/>
+      <c r="DP34" s="98"/>
+      <c r="DQ34" s="98"/>
+      <c r="DR34" s="98"/>
+      <c r="DS34" s="98"/>
+    </row>
+    <row r="35" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A35" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
+      <c r="C35" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E35" s="98"/>
       <c r="F35" s="98"/>
       <c r="G35" s="98"/>
@@ -13795,16 +13836,32 @@
       <c r="DF35" s="98"/>
       <c r="DG35" s="98"/>
       <c r="DH35" s="98"/>
-    </row>
-    <row r="36" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI35" s="98"/>
+      <c r="DJ35" s="98"/>
+      <c r="DK35" s="98"/>
+      <c r="DL35" s="98"/>
+      <c r="DM35" s="98"/>
+      <c r="DN35" s="98"/>
+      <c r="DO35" s="98"/>
+      <c r="DP35" s="98"/>
+      <c r="DQ35" s="98"/>
+      <c r="DR35" s="98"/>
+      <c r="DS35" s="98"/>
+    </row>
+    <row r="36" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A36" s="98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
+      <c r="C36" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E36" s="98"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
@@ -13913,16 +13970,32 @@
       <c r="DF36" s="98"/>
       <c r="DG36" s="98"/>
       <c r="DH36" s="98"/>
-    </row>
-    <row r="37" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI36" s="98"/>
+      <c r="DJ36" s="98"/>
+      <c r="DK36" s="98"/>
+      <c r="DL36" s="98"/>
+      <c r="DM36" s="98"/>
+      <c r="DN36" s="98"/>
+      <c r="DO36" s="98"/>
+      <c r="DP36" s="98"/>
+      <c r="DQ36" s="98"/>
+      <c r="DR36" s="98"/>
+      <c r="DS36" s="98"/>
+    </row>
+    <row r="37" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A37" s="98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="C37" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E37" s="98"/>
       <c r="F37" s="98"/>
       <c r="G37" s="98"/>
@@ -14031,16 +14104,32 @@
       <c r="DF37" s="98"/>
       <c r="DG37" s="98"/>
       <c r="DH37" s="98"/>
-    </row>
-    <row r="38" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI37" s="98"/>
+      <c r="DJ37" s="98"/>
+      <c r="DK37" s="98"/>
+      <c r="DL37" s="98"/>
+      <c r="DM37" s="98"/>
+      <c r="DN37" s="98"/>
+      <c r="DO37" s="98"/>
+      <c r="DP37" s="98"/>
+      <c r="DQ37" s="98"/>
+      <c r="DR37" s="98"/>
+      <c r="DS37" s="98"/>
+    </row>
+    <row r="38" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A38" s="98" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B38" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
+      <c r="C38" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D38" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E38" s="98"/>
       <c r="F38" s="98"/>
       <c r="G38" s="98"/>
@@ -14149,16 +14238,32 @@
       <c r="DF38" s="98"/>
       <c r="DG38" s="98"/>
       <c r="DH38" s="98"/>
-    </row>
-    <row r="39" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI38" s="98"/>
+      <c r="DJ38" s="98"/>
+      <c r="DK38" s="98"/>
+      <c r="DL38" s="98"/>
+      <c r="DM38" s="98"/>
+      <c r="DN38" s="98"/>
+      <c r="DO38" s="98"/>
+      <c r="DP38" s="98"/>
+      <c r="DQ38" s="98"/>
+      <c r="DR38" s="98"/>
+      <c r="DS38" s="98"/>
+    </row>
+    <row r="39" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A39" s="98" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
+      <c r="C39" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D39" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E39" s="98"/>
       <c r="F39" s="98"/>
       <c r="G39" s="98"/>
@@ -14267,16 +14372,32 @@
       <c r="DF39" s="98"/>
       <c r="DG39" s="98"/>
       <c r="DH39" s="98"/>
-    </row>
-    <row r="40" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI39" s="98"/>
+      <c r="DJ39" s="98"/>
+      <c r="DK39" s="98"/>
+      <c r="DL39" s="98"/>
+      <c r="DM39" s="98"/>
+      <c r="DN39" s="98"/>
+      <c r="DO39" s="98"/>
+      <c r="DP39" s="98"/>
+      <c r="DQ39" s="98"/>
+      <c r="DR39" s="98"/>
+      <c r="DS39" s="98"/>
+    </row>
+    <row r="40" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A40" s="98" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B40" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
+      <c r="C40" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="108">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E40" s="98"/>
       <c r="F40" s="98"/>
       <c r="G40" s="98"/>
@@ -14385,16 +14506,32 @@
       <c r="DF40" s="98"/>
       <c r="DG40" s="98"/>
       <c r="DH40" s="98"/>
-    </row>
-    <row r="41" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI40" s="98"/>
+      <c r="DJ40" s="98"/>
+      <c r="DK40" s="98"/>
+      <c r="DL40" s="98"/>
+      <c r="DM40" s="98"/>
+      <c r="DN40" s="98"/>
+      <c r="DO40" s="98"/>
+      <c r="DP40" s="98"/>
+      <c r="DQ40" s="98"/>
+      <c r="DR40" s="98"/>
+      <c r="DS40" s="98"/>
+    </row>
+    <row r="41" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A41" s="98" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B41" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
+      <c r="C41" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D41" s="108">
+        <f>C41*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E41" s="98"/>
       <c r="F41" s="98"/>
       <c r="G41" s="98"/>
@@ -14503,16 +14640,32 @@
       <c r="DF41" s="98"/>
       <c r="DG41" s="98"/>
       <c r="DH41" s="98"/>
-    </row>
-    <row r="42" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI41" s="98"/>
+      <c r="DJ41" s="98"/>
+      <c r="DK41" s="98"/>
+      <c r="DL41" s="98"/>
+      <c r="DM41" s="98"/>
+      <c r="DN41" s="98"/>
+      <c r="DO41" s="98"/>
+      <c r="DP41" s="98"/>
+      <c r="DQ41" s="98"/>
+      <c r="DR41" s="98"/>
+      <c r="DS41" s="98"/>
+    </row>
+    <row r="42" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
+      <c r="C42" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="108">
+        <f t="shared" ref="D42:D43" si="1">C42*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E42" s="98"/>
       <c r="F42" s="98"/>
       <c r="G42" s="98"/>
@@ -14621,16 +14774,32 @@
       <c r="DF42" s="98"/>
       <c r="DG42" s="98"/>
       <c r="DH42" s="98"/>
-    </row>
-    <row r="43" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI42" s="98"/>
+      <c r="DJ42" s="98"/>
+      <c r="DK42" s="98"/>
+      <c r="DL42" s="98"/>
+      <c r="DM42" s="98"/>
+      <c r="DN42" s="98"/>
+      <c r="DO42" s="98"/>
+      <c r="DP42" s="98"/>
+      <c r="DQ42" s="98"/>
+      <c r="DR42" s="98"/>
+      <c r="DS42" s="98"/>
+    </row>
+    <row r="43" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A43" s="98" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
+      <c r="C43" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D43" s="108">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
       <c r="E43" s="98"/>
       <c r="F43" s="98"/>
       <c r="G43" s="98"/>
@@ -14739,16 +14908,32 @@
       <c r="DF43" s="98"/>
       <c r="DG43" s="98"/>
       <c r="DH43" s="98"/>
-    </row>
-    <row r="44" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI43" s="98"/>
+      <c r="DJ43" s="98"/>
+      <c r="DK43" s="98"/>
+      <c r="DL43" s="98"/>
+      <c r="DM43" s="98"/>
+      <c r="DN43" s="98"/>
+      <c r="DO43" s="98"/>
+      <c r="DP43" s="98"/>
+      <c r="DQ43" s="98"/>
+      <c r="DR43" s="98"/>
+      <c r="DS43" s="98"/>
+    </row>
+    <row r="44" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A44" s="98" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B44" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
+      <c r="C44" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="108">
+        <f>C44*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E44" s="98"/>
       <c r="F44" s="98"/>
       <c r="G44" s="98"/>
@@ -14857,16 +15042,32 @@
       <c r="DF44" s="98"/>
       <c r="DG44" s="98"/>
       <c r="DH44" s="98"/>
-    </row>
-    <row r="45" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI44" s="98"/>
+      <c r="DJ44" s="98"/>
+      <c r="DK44" s="98"/>
+      <c r="DL44" s="98"/>
+      <c r="DM44" s="98"/>
+      <c r="DN44" s="98"/>
+      <c r="DO44" s="98"/>
+      <c r="DP44" s="98"/>
+      <c r="DQ44" s="98"/>
+      <c r="DR44" s="98"/>
+      <c r="DS44" s="98"/>
+    </row>
+    <row r="45" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A45" s="98" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B45" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
+      <c r="C45" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="108">
+        <f>C45*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E45" s="98"/>
       <c r="F45" s="98"/>
       <c r="G45" s="98"/>
@@ -14975,16 +15176,32 @@
       <c r="DF45" s="98"/>
       <c r="DG45" s="98"/>
       <c r="DH45" s="98"/>
-    </row>
-    <row r="46" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI45" s="98"/>
+      <c r="DJ45" s="98"/>
+      <c r="DK45" s="98"/>
+      <c r="DL45" s="98"/>
+      <c r="DM45" s="98"/>
+      <c r="DN45" s="98"/>
+      <c r="DO45" s="98"/>
+      <c r="DP45" s="98"/>
+      <c r="DQ45" s="98"/>
+      <c r="DR45" s="98"/>
+      <c r="DS45" s="98"/>
+    </row>
+    <row r="46" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A46" s="98" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B46" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
+      <c r="C46" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D46" s="108">
+        <f>C46*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E46" s="98"/>
       <c r="F46" s="98"/>
       <c r="G46" s="98"/>
@@ -15093,16 +15310,32 @@
       <c r="DF46" s="98"/>
       <c r="DG46" s="98"/>
       <c r="DH46" s="98"/>
-    </row>
-    <row r="47" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI46" s="98"/>
+      <c r="DJ46" s="98"/>
+      <c r="DK46" s="98"/>
+      <c r="DL46" s="98"/>
+      <c r="DM46" s="98"/>
+      <c r="DN46" s="98"/>
+      <c r="DO46" s="98"/>
+      <c r="DP46" s="98"/>
+      <c r="DQ46" s="98"/>
+      <c r="DR46" s="98"/>
+      <c r="DS46" s="98"/>
+    </row>
+    <row r="47" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A47" s="98" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B47" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
+      <c r="C47" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D47" s="108">
+        <f>C47*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E47" s="98"/>
       <c r="F47" s="98"/>
       <c r="G47" s="98"/>
@@ -15211,16 +15444,32 @@
       <c r="DF47" s="98"/>
       <c r="DG47" s="98"/>
       <c r="DH47" s="98"/>
-    </row>
-    <row r="48" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI47" s="98"/>
+      <c r="DJ47" s="98"/>
+      <c r="DK47" s="98"/>
+      <c r="DL47" s="98"/>
+      <c r="DM47" s="98"/>
+      <c r="DN47" s="98"/>
+      <c r="DO47" s="98"/>
+      <c r="DP47" s="98"/>
+      <c r="DQ47" s="98"/>
+      <c r="DR47" s="98"/>
+      <c r="DS47" s="98"/>
+    </row>
+    <row r="48" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A48" s="98" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B48" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
+      <c r="C48" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D48" s="108">
+        <f>C48*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E48" s="98"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
@@ -15329,16 +15578,32 @@
       <c r="DF48" s="98"/>
       <c r="DG48" s="98"/>
       <c r="DH48" s="98"/>
-    </row>
-    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI48" s="98"/>
+      <c r="DJ48" s="98"/>
+      <c r="DK48" s="98"/>
+      <c r="DL48" s="98"/>
+      <c r="DM48" s="98"/>
+      <c r="DN48" s="98"/>
+      <c r="DO48" s="98"/>
+      <c r="DP48" s="98"/>
+      <c r="DQ48" s="98"/>
+      <c r="DR48" s="98"/>
+      <c r="DS48" s="98"/>
+    </row>
+    <row r="49" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A49" s="98" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B49" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
+      <c r="C49" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D49" s="108">
+        <f>C49*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E49" s="98"/>
       <c r="F49" s="98"/>
       <c r="G49" s="98"/>
@@ -15447,16 +15712,32 @@
       <c r="DF49" s="98"/>
       <c r="DG49" s="98"/>
       <c r="DH49" s="98"/>
-    </row>
-    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI49" s="98"/>
+      <c r="DJ49" s="98"/>
+      <c r="DK49" s="98"/>
+      <c r="DL49" s="98"/>
+      <c r="DM49" s="98"/>
+      <c r="DN49" s="98"/>
+      <c r="DO49" s="98"/>
+      <c r="DP49" s="98"/>
+      <c r="DQ49" s="98"/>
+      <c r="DR49" s="98"/>
+      <c r="DS49" s="98"/>
+    </row>
+    <row r="50" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A50" s="98" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B50" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
+      <c r="C50" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D50" s="108">
+        <f>C50*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E50" s="98"/>
       <c r="F50" s="98"/>
       <c r="G50" s="98"/>
@@ -15565,16 +15846,32 @@
       <c r="DF50" s="98"/>
       <c r="DG50" s="98"/>
       <c r="DH50" s="98"/>
-    </row>
-    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI50" s="98"/>
+      <c r="DJ50" s="98"/>
+      <c r="DK50" s="98"/>
+      <c r="DL50" s="98"/>
+      <c r="DM50" s="98"/>
+      <c r="DN50" s="98"/>
+      <c r="DO50" s="98"/>
+      <c r="DP50" s="98"/>
+      <c r="DQ50" s="98"/>
+      <c r="DR50" s="98"/>
+      <c r="DS50" s="98"/>
+    </row>
+    <row r="51" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A51" s="98" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="B51" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
+      <c r="C51" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D51" s="108">
+        <f>C51*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E51" s="98"/>
       <c r="F51" s="98"/>
       <c r="G51" s="98"/>
@@ -15683,16 +15980,32 @@
       <c r="DF51" s="98"/>
       <c r="DG51" s="98"/>
       <c r="DH51" s="98"/>
-    </row>
-    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI51" s="98"/>
+      <c r="DJ51" s="98"/>
+      <c r="DK51" s="98"/>
+      <c r="DL51" s="98"/>
+      <c r="DM51" s="98"/>
+      <c r="DN51" s="98"/>
+      <c r="DO51" s="98"/>
+      <c r="DP51" s="98"/>
+      <c r="DQ51" s="98"/>
+      <c r="DR51" s="98"/>
+      <c r="DS51" s="98"/>
+    </row>
+    <row r="52" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A52" s="98" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B52" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
+      <c r="C52" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="108">
+        <f>C52*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
       <c r="G52" s="98"/>
@@ -15801,16 +16114,32 @@
       <c r="DF52" s="98"/>
       <c r="DG52" s="98"/>
       <c r="DH52" s="98"/>
-    </row>
-    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI52" s="98"/>
+      <c r="DJ52" s="98"/>
+      <c r="DK52" s="98"/>
+      <c r="DL52" s="98"/>
+      <c r="DM52" s="98"/>
+      <c r="DN52" s="98"/>
+      <c r="DO52" s="98"/>
+      <c r="DP52" s="98"/>
+      <c r="DQ52" s="98"/>
+      <c r="DR52" s="98"/>
+      <c r="DS52" s="98"/>
+    </row>
+    <row r="53" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A53" s="98" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B53" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
+      <c r="C53" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D53" s="108">
+        <f>C53*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E53" s="98"/>
       <c r="F53" s="98"/>
       <c r="G53" s="98"/>
@@ -15919,16 +16248,32 @@
       <c r="DF53" s="98"/>
       <c r="DG53" s="98"/>
       <c r="DH53" s="98"/>
-    </row>
-    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI53" s="98"/>
+      <c r="DJ53" s="98"/>
+      <c r="DK53" s="98"/>
+      <c r="DL53" s="98"/>
+      <c r="DM53" s="98"/>
+      <c r="DN53" s="98"/>
+      <c r="DO53" s="98"/>
+      <c r="DP53" s="98"/>
+      <c r="DQ53" s="98"/>
+      <c r="DR53" s="98"/>
+      <c r="DS53" s="98"/>
+    </row>
+    <row r="54" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A54" s="98" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B54" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
+      <c r="C54" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="D54" s="108">
+        <f>C54*365*120</f>
+        <v>438</v>
+      </c>
       <c r="E54" s="98"/>
       <c r="F54" s="98"/>
       <c r="G54" s="98"/>
@@ -16037,16 +16382,27 @@
       <c r="DF54" s="98"/>
       <c r="DG54" s="98"/>
       <c r="DH54" s="98"/>
-    </row>
-    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI54" s="98"/>
+      <c r="DJ54" s="98"/>
+      <c r="DK54" s="98"/>
+      <c r="DL54" s="98"/>
+      <c r="DM54" s="98"/>
+      <c r="DN54" s="98"/>
+      <c r="DO54" s="98"/>
+      <c r="DP54" s="98"/>
+      <c r="DQ54" s="98"/>
+      <c r="DR54" s="98"/>
+      <c r="DS54" s="98"/>
+    </row>
+    <row r="55" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A55" s="98" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="B55" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
+      <c r="D55" s="108"/>
       <c r="E55" s="98"/>
       <c r="F55" s="98"/>
       <c r="G55" s="98"/>
@@ -16155,16 +16511,27 @@
       <c r="DF55" s="98"/>
       <c r="DG55" s="98"/>
       <c r="DH55" s="98"/>
-    </row>
-    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI55" s="98"/>
+      <c r="DJ55" s="98"/>
+      <c r="DK55" s="98"/>
+      <c r="DL55" s="98"/>
+      <c r="DM55" s="98"/>
+      <c r="DN55" s="98"/>
+      <c r="DO55" s="98"/>
+      <c r="DP55" s="98"/>
+      <c r="DQ55" s="98"/>
+      <c r="DR55" s="98"/>
+      <c r="DS55" s="98"/>
+    </row>
+    <row r="56" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A56" s="98" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
+      <c r="D56" s="108"/>
       <c r="E56" s="98"/>
       <c r="F56" s="98"/>
       <c r="G56" s="98"/>
@@ -16273,16 +16640,27 @@
       <c r="DF56" s="98"/>
       <c r="DG56" s="98"/>
       <c r="DH56" s="98"/>
-    </row>
-    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI56" s="98"/>
+      <c r="DJ56" s="98"/>
+      <c r="DK56" s="98"/>
+      <c r="DL56" s="98"/>
+      <c r="DM56" s="98"/>
+      <c r="DN56" s="98"/>
+      <c r="DO56" s="98"/>
+      <c r="DP56" s="98"/>
+      <c r="DQ56" s="98"/>
+      <c r="DR56" s="98"/>
+      <c r="DS56" s="98"/>
+    </row>
+    <row r="57" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A57" s="98" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
+      <c r="D57" s="108"/>
       <c r="E57" s="98"/>
       <c r="F57" s="98"/>
       <c r="G57" s="98"/>
@@ -16391,16 +16769,27 @@
       <c r="DF57" s="98"/>
       <c r="DG57" s="98"/>
       <c r="DH57" s="98"/>
-    </row>
-    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI57" s="98"/>
+      <c r="DJ57" s="98"/>
+      <c r="DK57" s="98"/>
+      <c r="DL57" s="98"/>
+      <c r="DM57" s="98"/>
+      <c r="DN57" s="98"/>
+      <c r="DO57" s="98"/>
+      <c r="DP57" s="98"/>
+      <c r="DQ57" s="98"/>
+      <c r="DR57" s="98"/>
+      <c r="DS57" s="98"/>
+    </row>
+    <row r="58" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A58" s="98" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B58" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
+      <c r="D58" s="108"/>
       <c r="E58" s="98"/>
       <c r="F58" s="98"/>
       <c r="G58" s="98"/>
@@ -16509,16 +16898,27 @@
       <c r="DF58" s="98"/>
       <c r="DG58" s="98"/>
       <c r="DH58" s="98"/>
-    </row>
-    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI58" s="98"/>
+      <c r="DJ58" s="98"/>
+      <c r="DK58" s="98"/>
+      <c r="DL58" s="98"/>
+      <c r="DM58" s="98"/>
+      <c r="DN58" s="98"/>
+      <c r="DO58" s="98"/>
+      <c r="DP58" s="98"/>
+      <c r="DQ58" s="98"/>
+      <c r="DR58" s="98"/>
+      <c r="DS58" s="98"/>
+    </row>
+    <row r="59" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A59" s="98" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B59" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
+      <c r="D59" s="108"/>
       <c r="E59" s="98"/>
       <c r="F59" s="98"/>
       <c r="G59" s="98"/>
@@ -16627,16 +17027,27 @@
       <c r="DF59" s="98"/>
       <c r="DG59" s="98"/>
       <c r="DH59" s="98"/>
-    </row>
-    <row r="60" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI59" s="98"/>
+      <c r="DJ59" s="98"/>
+      <c r="DK59" s="98"/>
+      <c r="DL59" s="98"/>
+      <c r="DM59" s="98"/>
+      <c r="DN59" s="98"/>
+      <c r="DO59" s="98"/>
+      <c r="DP59" s="98"/>
+      <c r="DQ59" s="98"/>
+      <c r="DR59" s="98"/>
+      <c r="DS59" s="98"/>
+    </row>
+    <row r="60" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A60" s="98" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B60" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
+      <c r="D60" s="108"/>
       <c r="E60" s="98"/>
       <c r="F60" s="98"/>
       <c r="G60" s="98"/>
@@ -16745,16 +17156,27 @@
       <c r="DF60" s="98"/>
       <c r="DG60" s="98"/>
       <c r="DH60" s="98"/>
-    </row>
-    <row r="61" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI60" s="98"/>
+      <c r="DJ60" s="98"/>
+      <c r="DK60" s="98"/>
+      <c r="DL60" s="98"/>
+      <c r="DM60" s="98"/>
+      <c r="DN60" s="98"/>
+      <c r="DO60" s="98"/>
+      <c r="DP60" s="98"/>
+      <c r="DQ60" s="98"/>
+      <c r="DR60" s="98"/>
+      <c r="DS60" s="98"/>
+    </row>
+    <row r="61" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A61" s="98" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B61" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
+      <c r="D61" s="108"/>
       <c r="E61" s="98"/>
       <c r="F61" s="98"/>
       <c r="G61" s="98"/>
@@ -16863,16 +17285,27 @@
       <c r="DF61" s="98"/>
       <c r="DG61" s="98"/>
       <c r="DH61" s="98"/>
-    </row>
-    <row r="62" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI61" s="98"/>
+      <c r="DJ61" s="98"/>
+      <c r="DK61" s="98"/>
+      <c r="DL61" s="98"/>
+      <c r="DM61" s="98"/>
+      <c r="DN61" s="98"/>
+      <c r="DO61" s="98"/>
+      <c r="DP61" s="98"/>
+      <c r="DQ61" s="98"/>
+      <c r="DR61" s="98"/>
+      <c r="DS61" s="98"/>
+    </row>
+    <row r="62" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A62" s="98" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B62" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
+      <c r="D62" s="108"/>
       <c r="E62" s="98"/>
       <c r="F62" s="98"/>
       <c r="G62" s="98"/>
@@ -16981,16 +17414,27 @@
       <c r="DF62" s="98"/>
       <c r="DG62" s="98"/>
       <c r="DH62" s="98"/>
-    </row>
-    <row r="63" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI62" s="98"/>
+      <c r="DJ62" s="98"/>
+      <c r="DK62" s="98"/>
+      <c r="DL62" s="98"/>
+      <c r="DM62" s="98"/>
+      <c r="DN62" s="98"/>
+      <c r="DO62" s="98"/>
+      <c r="DP62" s="98"/>
+      <c r="DQ62" s="98"/>
+      <c r="DR62" s="98"/>
+      <c r="DS62" s="98"/>
+    </row>
+    <row r="63" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A63" s="98" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B63" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
+      <c r="D63" s="108"/>
       <c r="E63" s="98"/>
       <c r="F63" s="98"/>
       <c r="G63" s="98"/>
@@ -17099,16 +17543,27 @@
       <c r="DF63" s="98"/>
       <c r="DG63" s="98"/>
       <c r="DH63" s="98"/>
-    </row>
-    <row r="64" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI63" s="98"/>
+      <c r="DJ63" s="98"/>
+      <c r="DK63" s="98"/>
+      <c r="DL63" s="98"/>
+      <c r="DM63" s="98"/>
+      <c r="DN63" s="98"/>
+      <c r="DO63" s="98"/>
+      <c r="DP63" s="98"/>
+      <c r="DQ63" s="98"/>
+      <c r="DR63" s="98"/>
+      <c r="DS63" s="98"/>
+    </row>
+    <row r="64" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A64" s="98" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B64" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
+      <c r="D64" s="108"/>
       <c r="E64" s="98"/>
       <c r="F64" s="98"/>
       <c r="G64" s="98"/>
@@ -17217,16 +17672,27 @@
       <c r="DF64" s="98"/>
       <c r="DG64" s="98"/>
       <c r="DH64" s="98"/>
-    </row>
-    <row r="65" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI64" s="98"/>
+      <c r="DJ64" s="98"/>
+      <c r="DK64" s="98"/>
+      <c r="DL64" s="98"/>
+      <c r="DM64" s="98"/>
+      <c r="DN64" s="98"/>
+      <c r="DO64" s="98"/>
+      <c r="DP64" s="98"/>
+      <c r="DQ64" s="98"/>
+      <c r="DR64" s="98"/>
+      <c r="DS64" s="98"/>
+    </row>
+    <row r="65" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A65" s="98" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B65" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="D65" s="108"/>
       <c r="E65" s="98"/>
       <c r="F65" s="98"/>
       <c r="G65" s="98"/>
@@ -17335,16 +17801,27 @@
       <c r="DF65" s="98"/>
       <c r="DG65" s="98"/>
       <c r="DH65" s="98"/>
-    </row>
-    <row r="66" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI65" s="98"/>
+      <c r="DJ65" s="98"/>
+      <c r="DK65" s="98"/>
+      <c r="DL65" s="98"/>
+      <c r="DM65" s="98"/>
+      <c r="DN65" s="98"/>
+      <c r="DO65" s="98"/>
+      <c r="DP65" s="98"/>
+      <c r="DQ65" s="98"/>
+      <c r="DR65" s="98"/>
+      <c r="DS65" s="98"/>
+    </row>
+    <row r="66" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A66" s="98" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="B66" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
+      <c r="D66" s="108"/>
       <c r="E66" s="98"/>
       <c r="F66" s="98"/>
       <c r="G66" s="98"/>
@@ -17453,16 +17930,27 @@
       <c r="DF66" s="98"/>
       <c r="DG66" s="98"/>
       <c r="DH66" s="98"/>
-    </row>
-    <row r="67" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI66" s="98"/>
+      <c r="DJ66" s="98"/>
+      <c r="DK66" s="98"/>
+      <c r="DL66" s="98"/>
+      <c r="DM66" s="98"/>
+      <c r="DN66" s="98"/>
+      <c r="DO66" s="98"/>
+      <c r="DP66" s="98"/>
+      <c r="DQ66" s="98"/>
+      <c r="DR66" s="98"/>
+      <c r="DS66" s="98"/>
+    </row>
+    <row r="67" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A67" s="98" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="B67" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="98"/>
       <c r="F67" s="98"/>
       <c r="G67" s="98"/>
@@ -17571,16 +18059,27 @@
       <c r="DF67" s="98"/>
       <c r="DG67" s="98"/>
       <c r="DH67" s="98"/>
-    </row>
-    <row r="68" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI67" s="98"/>
+      <c r="DJ67" s="98"/>
+      <c r="DK67" s="98"/>
+      <c r="DL67" s="98"/>
+      <c r="DM67" s="98"/>
+      <c r="DN67" s="98"/>
+      <c r="DO67" s="98"/>
+      <c r="DP67" s="98"/>
+      <c r="DQ67" s="98"/>
+      <c r="DR67" s="98"/>
+      <c r="DS67" s="98"/>
+    </row>
+    <row r="68" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A68" s="98" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B68" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
+      <c r="D68" s="108"/>
       <c r="E68" s="98"/>
       <c r="F68" s="98"/>
       <c r="G68" s="98"/>
@@ -17689,16 +18188,27 @@
       <c r="DF68" s="98"/>
       <c r="DG68" s="98"/>
       <c r="DH68" s="98"/>
-    </row>
-    <row r="69" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI68" s="98"/>
+      <c r="DJ68" s="98"/>
+      <c r="DK68" s="98"/>
+      <c r="DL68" s="98"/>
+      <c r="DM68" s="98"/>
+      <c r="DN68" s="98"/>
+      <c r="DO68" s="98"/>
+      <c r="DP68" s="98"/>
+      <c r="DQ68" s="98"/>
+      <c r="DR68" s="98"/>
+      <c r="DS68" s="98"/>
+    </row>
+    <row r="69" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A69" s="98" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B69" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="98"/>
-      <c r="D69" s="98"/>
+      <c r="D69" s="108"/>
       <c r="E69" s="98"/>
       <c r="F69" s="98"/>
       <c r="G69" s="98"/>
@@ -17807,16 +18317,27 @@
       <c r="DF69" s="98"/>
       <c r="DG69" s="98"/>
       <c r="DH69" s="98"/>
-    </row>
-    <row r="70" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI69" s="98"/>
+      <c r="DJ69" s="98"/>
+      <c r="DK69" s="98"/>
+      <c r="DL69" s="98"/>
+      <c r="DM69" s="98"/>
+      <c r="DN69" s="98"/>
+      <c r="DO69" s="98"/>
+      <c r="DP69" s="98"/>
+      <c r="DQ69" s="98"/>
+      <c r="DR69" s="98"/>
+      <c r="DS69" s="98"/>
+    </row>
+    <row r="70" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A70" s="98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B70" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="98"/>
-      <c r="D70" s="98"/>
+      <c r="D70" s="108"/>
       <c r="E70" s="98"/>
       <c r="F70" s="98"/>
       <c r="G70" s="98"/>
@@ -17925,16 +18446,27 @@
       <c r="DF70" s="98"/>
       <c r="DG70" s="98"/>
       <c r="DH70" s="98"/>
-    </row>
-    <row r="71" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI70" s="98"/>
+      <c r="DJ70" s="98"/>
+      <c r="DK70" s="98"/>
+      <c r="DL70" s="98"/>
+      <c r="DM70" s="98"/>
+      <c r="DN70" s="98"/>
+      <c r="DO70" s="98"/>
+      <c r="DP70" s="98"/>
+      <c r="DQ70" s="98"/>
+      <c r="DR70" s="98"/>
+      <c r="DS70" s="98"/>
+    </row>
+    <row r="71" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A71" s="98" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B71" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
+      <c r="D71" s="108"/>
       <c r="E71" s="98"/>
       <c r="F71" s="98"/>
       <c r="G71" s="98"/>
@@ -18043,16 +18575,27 @@
       <c r="DF71" s="98"/>
       <c r="DG71" s="98"/>
       <c r="DH71" s="98"/>
-    </row>
-    <row r="72" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI71" s="98"/>
+      <c r="DJ71" s="98"/>
+      <c r="DK71" s="98"/>
+      <c r="DL71" s="98"/>
+      <c r="DM71" s="98"/>
+      <c r="DN71" s="98"/>
+      <c r="DO71" s="98"/>
+      <c r="DP71" s="98"/>
+      <c r="DQ71" s="98"/>
+      <c r="DR71" s="98"/>
+      <c r="DS71" s="98"/>
+    </row>
+    <row r="72" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A72" s="98" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B72" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
+      <c r="D72" s="108"/>
       <c r="E72" s="98"/>
       <c r="F72" s="98"/>
       <c r="G72" s="98"/>
@@ -18161,16 +18704,27 @@
       <c r="DF72" s="98"/>
       <c r="DG72" s="98"/>
       <c r="DH72" s="98"/>
-    </row>
-    <row r="73" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI72" s="98"/>
+      <c r="DJ72" s="98"/>
+      <c r="DK72" s="98"/>
+      <c r="DL72" s="98"/>
+      <c r="DM72" s="98"/>
+      <c r="DN72" s="98"/>
+      <c r="DO72" s="98"/>
+      <c r="DP72" s="98"/>
+      <c r="DQ72" s="98"/>
+      <c r="DR72" s="98"/>
+      <c r="DS72" s="98"/>
+    </row>
+    <row r="73" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A73" s="98" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="B73" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
+      <c r="D73" s="108"/>
       <c r="E73" s="98"/>
       <c r="F73" s="98"/>
       <c r="G73" s="98"/>
@@ -18279,16 +18833,27 @@
       <c r="DF73" s="98"/>
       <c r="DG73" s="98"/>
       <c r="DH73" s="98"/>
-    </row>
-    <row r="74" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI73" s="98"/>
+      <c r="DJ73" s="98"/>
+      <c r="DK73" s="98"/>
+      <c r="DL73" s="98"/>
+      <c r="DM73" s="98"/>
+      <c r="DN73" s="98"/>
+      <c r="DO73" s="98"/>
+      <c r="DP73" s="98"/>
+      <c r="DQ73" s="98"/>
+      <c r="DR73" s="98"/>
+      <c r="DS73" s="98"/>
+    </row>
+    <row r="74" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A74" s="98" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="B74" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
+      <c r="D74" s="108"/>
       <c r="E74" s="98"/>
       <c r="F74" s="98"/>
       <c r="G74" s="98"/>
@@ -18397,16 +18962,27 @@
       <c r="DF74" s="98"/>
       <c r="DG74" s="98"/>
       <c r="DH74" s="98"/>
-    </row>
-    <row r="75" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI74" s="98"/>
+      <c r="DJ74" s="98"/>
+      <c r="DK74" s="98"/>
+      <c r="DL74" s="98"/>
+      <c r="DM74" s="98"/>
+      <c r="DN74" s="98"/>
+      <c r="DO74" s="98"/>
+      <c r="DP74" s="98"/>
+      <c r="DQ74" s="98"/>
+      <c r="DR74" s="98"/>
+      <c r="DS74" s="98"/>
+    </row>
+    <row r="75" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A75" s="98" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="B75" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="98"/>
-      <c r="D75" s="98"/>
+      <c r="D75" s="108"/>
       <c r="E75" s="98"/>
       <c r="F75" s="98"/>
       <c r="G75" s="98"/>
@@ -18515,16 +19091,27 @@
       <c r="DF75" s="98"/>
       <c r="DG75" s="98"/>
       <c r="DH75" s="98"/>
-    </row>
-    <row r="76" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI75" s="98"/>
+      <c r="DJ75" s="98"/>
+      <c r="DK75" s="98"/>
+      <c r="DL75" s="98"/>
+      <c r="DM75" s="98"/>
+      <c r="DN75" s="98"/>
+      <c r="DO75" s="98"/>
+      <c r="DP75" s="98"/>
+      <c r="DQ75" s="98"/>
+      <c r="DR75" s="98"/>
+      <c r="DS75" s="98"/>
+    </row>
+    <row r="76" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A76" s="98" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B76" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
+      <c r="D76" s="108"/>
       <c r="E76" s="98"/>
       <c r="F76" s="98"/>
       <c r="G76" s="98"/>
@@ -18633,16 +19220,27 @@
       <c r="DF76" s="98"/>
       <c r="DG76" s="98"/>
       <c r="DH76" s="98"/>
-    </row>
-    <row r="77" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI76" s="98"/>
+      <c r="DJ76" s="98"/>
+      <c r="DK76" s="98"/>
+      <c r="DL76" s="98"/>
+      <c r="DM76" s="98"/>
+      <c r="DN76" s="98"/>
+      <c r="DO76" s="98"/>
+      <c r="DP76" s="98"/>
+      <c r="DQ76" s="98"/>
+      <c r="DR76" s="98"/>
+      <c r="DS76" s="98"/>
+    </row>
+    <row r="77" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A77" s="98" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B77" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
+      <c r="D77" s="108"/>
       <c r="E77" s="98"/>
       <c r="F77" s="98"/>
       <c r="G77" s="98"/>
@@ -18751,16 +19349,27 @@
       <c r="DF77" s="98"/>
       <c r="DG77" s="98"/>
       <c r="DH77" s="98"/>
-    </row>
-    <row r="78" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI77" s="98"/>
+      <c r="DJ77" s="98"/>
+      <c r="DK77" s="98"/>
+      <c r="DL77" s="98"/>
+      <c r="DM77" s="98"/>
+      <c r="DN77" s="98"/>
+      <c r="DO77" s="98"/>
+      <c r="DP77" s="98"/>
+      <c r="DQ77" s="98"/>
+      <c r="DR77" s="98"/>
+      <c r="DS77" s="98"/>
+    </row>
+    <row r="78" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A78" s="98" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="B78" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
+      <c r="D78" s="108"/>
       <c r="E78" s="98"/>
       <c r="F78" s="98"/>
       <c r="G78" s="98"/>
@@ -18869,16 +19478,27 @@
       <c r="DF78" s="98"/>
       <c r="DG78" s="98"/>
       <c r="DH78" s="98"/>
-    </row>
-    <row r="79" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI78" s="98"/>
+      <c r="DJ78" s="98"/>
+      <c r="DK78" s="98"/>
+      <c r="DL78" s="98"/>
+      <c r="DM78" s="98"/>
+      <c r="DN78" s="98"/>
+      <c r="DO78" s="98"/>
+      <c r="DP78" s="98"/>
+      <c r="DQ78" s="98"/>
+      <c r="DR78" s="98"/>
+      <c r="DS78" s="98"/>
+    </row>
+    <row r="79" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A79" s="98" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="B79" s="98" t="s">
         <v>76</v>
       </c>
       <c r="C79" s="98"/>
-      <c r="D79" s="98"/>
+      <c r="D79" s="108"/>
       <c r="E79" s="98"/>
       <c r="F79" s="98"/>
       <c r="G79" s="98"/>
@@ -18987,18 +19607,27 @@
       <c r="DF79" s="98"/>
       <c r="DG79" s="98"/>
       <c r="DH79" s="98"/>
-    </row>
-    <row r="80" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI79" s="98"/>
+      <c r="DJ79" s="98"/>
+      <c r="DK79" s="98"/>
+      <c r="DL79" s="98"/>
+      <c r="DM79" s="98"/>
+      <c r="DN79" s="98"/>
+      <c r="DO79" s="98"/>
+      <c r="DP79" s="98"/>
+      <c r="DQ79" s="98"/>
+      <c r="DR79" s="98"/>
+      <c r="DS79" s="98"/>
+    </row>
+    <row r="80" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A80" s="98" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B80" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="98">
-        <v>1</v>
-      </c>
-      <c r="D80" s="98"/>
+        <v>76</v>
+      </c>
+      <c r="C80" s="98"/>
+      <c r="D80" s="108"/>
       <c r="E80" s="98"/>
       <c r="F80" s="98"/>
       <c r="G80" s="98"/>
@@ -19107,16 +19736,27 @@
       <c r="DF80" s="98"/>
       <c r="DG80" s="98"/>
       <c r="DH80" s="98"/>
-    </row>
-    <row r="81" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI80" s="98"/>
+      <c r="DJ80" s="98"/>
+      <c r="DK80" s="98"/>
+      <c r="DL80" s="98"/>
+      <c r="DM80" s="98"/>
+      <c r="DN80" s="98"/>
+      <c r="DO80" s="98"/>
+      <c r="DP80" s="98"/>
+      <c r="DQ80" s="98"/>
+      <c r="DR80" s="98"/>
+      <c r="DS80" s="98"/>
+    </row>
+    <row r="81" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A81" s="98" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B81" s="98" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
+      <c r="D81" s="108"/>
       <c r="E81" s="98"/>
       <c r="F81" s="98"/>
       <c r="G81" s="98"/>
@@ -19225,16 +19865,27 @@
       <c r="DF81" s="98"/>
       <c r="DG81" s="98"/>
       <c r="DH81" s="98"/>
-    </row>
-    <row r="82" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI81" s="98"/>
+      <c r="DJ81" s="98"/>
+      <c r="DK81" s="98"/>
+      <c r="DL81" s="98"/>
+      <c r="DM81" s="98"/>
+      <c r="DN81" s="98"/>
+      <c r="DO81" s="98"/>
+      <c r="DP81" s="98"/>
+      <c r="DQ81" s="98"/>
+      <c r="DR81" s="98"/>
+      <c r="DS81" s="98"/>
+    </row>
+    <row r="82" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A82" s="98" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B82" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C82" s="98"/>
-      <c r="D82" s="98"/>
+      <c r="D82" s="108"/>
       <c r="E82" s="98"/>
       <c r="F82" s="98"/>
       <c r="G82" s="98"/>
@@ -19343,16 +19994,27 @@
       <c r="DF82" s="98"/>
       <c r="DG82" s="98"/>
       <c r="DH82" s="98"/>
-    </row>
-    <row r="83" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI82" s="98"/>
+      <c r="DJ82" s="98"/>
+      <c r="DK82" s="98"/>
+      <c r="DL82" s="98"/>
+      <c r="DM82" s="98"/>
+      <c r="DN82" s="98"/>
+      <c r="DO82" s="98"/>
+      <c r="DP82" s="98"/>
+      <c r="DQ82" s="98"/>
+      <c r="DR82" s="98"/>
+      <c r="DS82" s="98"/>
+    </row>
+    <row r="83" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A83" s="98" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B83" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
+      <c r="D83" s="108"/>
       <c r="E83" s="98"/>
       <c r="F83" s="98"/>
       <c r="G83" s="98"/>
@@ -19461,16 +20123,27 @@
       <c r="DF83" s="98"/>
       <c r="DG83" s="98"/>
       <c r="DH83" s="98"/>
-    </row>
-    <row r="84" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI83" s="98"/>
+      <c r="DJ83" s="98"/>
+      <c r="DK83" s="98"/>
+      <c r="DL83" s="98"/>
+      <c r="DM83" s="98"/>
+      <c r="DN83" s="98"/>
+      <c r="DO83" s="98"/>
+      <c r="DP83" s="98"/>
+      <c r="DQ83" s="98"/>
+      <c r="DR83" s="98"/>
+      <c r="DS83" s="98"/>
+    </row>
+    <row r="84" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A84" s="98" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B84" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C84" s="98"/>
-      <c r="D84" s="98"/>
+      <c r="D84" s="108"/>
       <c r="E84" s="98"/>
       <c r="F84" s="98"/>
       <c r="G84" s="98"/>
@@ -19579,16 +20252,27 @@
       <c r="DF84" s="98"/>
       <c r="DG84" s="98"/>
       <c r="DH84" s="98"/>
-    </row>
-    <row r="85" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI84" s="98"/>
+      <c r="DJ84" s="98"/>
+      <c r="DK84" s="98"/>
+      <c r="DL84" s="98"/>
+      <c r="DM84" s="98"/>
+      <c r="DN84" s="98"/>
+      <c r="DO84" s="98"/>
+      <c r="DP84" s="98"/>
+      <c r="DQ84" s="98"/>
+      <c r="DR84" s="98"/>
+      <c r="DS84" s="98"/>
+    </row>
+    <row r="85" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A85" s="98" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B85" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C85" s="98"/>
-      <c r="D85" s="98"/>
+      <c r="D85" s="108"/>
       <c r="E85" s="98"/>
       <c r="F85" s="98"/>
       <c r="G85" s="98"/>
@@ -19697,16 +20381,27 @@
       <c r="DF85" s="98"/>
       <c r="DG85" s="98"/>
       <c r="DH85" s="98"/>
-    </row>
-    <row r="86" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI85" s="98"/>
+      <c r="DJ85" s="98"/>
+      <c r="DK85" s="98"/>
+      <c r="DL85" s="98"/>
+      <c r="DM85" s="98"/>
+      <c r="DN85" s="98"/>
+      <c r="DO85" s="98"/>
+      <c r="DP85" s="98"/>
+      <c r="DQ85" s="98"/>
+      <c r="DR85" s="98"/>
+      <c r="DS85" s="98"/>
+    </row>
+    <row r="86" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A86" s="98" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B86" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C86" s="98"/>
-      <c r="D86" s="98"/>
+      <c r="D86" s="108"/>
       <c r="E86" s="98"/>
       <c r="F86" s="98"/>
       <c r="G86" s="98"/>
@@ -19815,16 +20510,29 @@
       <c r="DF86" s="98"/>
       <c r="DG86" s="98"/>
       <c r="DH86" s="98"/>
-    </row>
-    <row r="87" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI86" s="98"/>
+      <c r="DJ86" s="98"/>
+      <c r="DK86" s="98"/>
+      <c r="DL86" s="98"/>
+      <c r="DM86" s="98"/>
+      <c r="DN86" s="98"/>
+      <c r="DO86" s="98"/>
+      <c r="DP86" s="98"/>
+      <c r="DQ86" s="98"/>
+      <c r="DR86" s="98"/>
+      <c r="DS86" s="98"/>
+    </row>
+    <row r="87" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A87" s="98" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B87" s="98" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="98"/>
-      <c r="D87" s="98"/>
+      <c r="D87" s="108">
+        <v>1</v>
+      </c>
       <c r="E87" s="98"/>
       <c r="F87" s="98"/>
       <c r="G87" s="98"/>
@@ -19933,16 +20641,27 @@
       <c r="DF87" s="98"/>
       <c r="DG87" s="98"/>
       <c r="DH87" s="98"/>
-    </row>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI87" s="98"/>
+      <c r="DJ87" s="98"/>
+      <c r="DK87" s="98"/>
+      <c r="DL87" s="98"/>
+      <c r="DM87" s="98"/>
+      <c r="DN87" s="98"/>
+      <c r="DO87" s="98"/>
+      <c r="DP87" s="98"/>
+      <c r="DQ87" s="98"/>
+      <c r="DR87" s="98"/>
+      <c r="DS87" s="98"/>
+    </row>
+    <row r="88" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A88" s="98" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B88" s="98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C88" s="98"/>
-      <c r="D88" s="98"/>
+      <c r="D88" s="108"/>
       <c r="E88" s="98"/>
       <c r="F88" s="98"/>
       <c r="G88" s="98"/>
@@ -20051,16 +20770,27 @@
       <c r="DF88" s="98"/>
       <c r="DG88" s="98"/>
       <c r="DH88" s="98"/>
-    </row>
-    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI88" s="98"/>
+      <c r="DJ88" s="98"/>
+      <c r="DK88" s="98"/>
+      <c r="DL88" s="98"/>
+      <c r="DM88" s="98"/>
+      <c r="DN88" s="98"/>
+      <c r="DO88" s="98"/>
+      <c r="DP88" s="98"/>
+      <c r="DQ88" s="98"/>
+      <c r="DR88" s="98"/>
+      <c r="DS88" s="98"/>
+    </row>
+    <row r="89" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A89" s="98" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B89" s="98" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="98"/>
-      <c r="D89" s="98"/>
+      <c r="D89" s="108"/>
       <c r="E89" s="98"/>
       <c r="F89" s="98"/>
       <c r="G89" s="98"/>
@@ -20169,16 +20899,27 @@
       <c r="DF89" s="98"/>
       <c r="DG89" s="98"/>
       <c r="DH89" s="98"/>
-    </row>
-    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI89" s="98"/>
+      <c r="DJ89" s="98"/>
+      <c r="DK89" s="98"/>
+      <c r="DL89" s="98"/>
+      <c r="DM89" s="98"/>
+      <c r="DN89" s="98"/>
+      <c r="DO89" s="98"/>
+      <c r="DP89" s="98"/>
+      <c r="DQ89" s="98"/>
+      <c r="DR89" s="98"/>
+      <c r="DS89" s="98"/>
+    </row>
+    <row r="90" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B90" s="98" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C90" s="98"/>
-      <c r="D90" s="98"/>
+      <c r="D90" s="108"/>
       <c r="E90" s="98"/>
       <c r="F90" s="98"/>
       <c r="G90" s="98"/>
@@ -20287,16 +21028,27 @@
       <c r="DF90" s="98"/>
       <c r="DG90" s="98"/>
       <c r="DH90" s="98"/>
-    </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI90" s="98"/>
+      <c r="DJ90" s="98"/>
+      <c r="DK90" s="98"/>
+      <c r="DL90" s="98"/>
+      <c r="DM90" s="98"/>
+      <c r="DN90" s="98"/>
+      <c r="DO90" s="98"/>
+      <c r="DP90" s="98"/>
+      <c r="DQ90" s="98"/>
+      <c r="DR90" s="98"/>
+      <c r="DS90" s="98"/>
+    </row>
+    <row r="91" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A91" s="98" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B91" s="98" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C91" s="98"/>
-      <c r="D91" s="98"/>
+      <c r="D91" s="108"/>
       <c r="E91" s="98"/>
       <c r="F91" s="98"/>
       <c r="G91" s="98"/>
@@ -20405,19 +21157,27 @@
       <c r="DF91" s="98"/>
       <c r="DG91" s="98"/>
       <c r="DH91" s="98"/>
-    </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI91" s="98"/>
+      <c r="DJ91" s="98"/>
+      <c r="DK91" s="98"/>
+      <c r="DL91" s="98"/>
+      <c r="DM91" s="98"/>
+      <c r="DN91" s="98"/>
+      <c r="DO91" s="98"/>
+      <c r="DP91" s="98"/>
+      <c r="DQ91" s="98"/>
+      <c r="DR91" s="98"/>
+      <c r="DS91" s="98"/>
+    </row>
+    <row r="92" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A92" s="98" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="98">
-        <f>365*120</f>
-        <v>43800</v>
-      </c>
-      <c r="D92" s="98"/>
+        <v>87</v>
+      </c>
+      <c r="C92" s="98"/>
+      <c r="D92" s="108"/>
       <c r="E92" s="98"/>
       <c r="F92" s="98"/>
       <c r="G92" s="98"/>
@@ -20526,19 +21286,27 @@
       <c r="DF92" s="98"/>
       <c r="DG92" s="98"/>
       <c r="DH92" s="98"/>
-    </row>
-    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI92" s="98"/>
+      <c r="DJ92" s="98"/>
+      <c r="DK92" s="98"/>
+      <c r="DL92" s="98"/>
+      <c r="DM92" s="98"/>
+      <c r="DN92" s="98"/>
+      <c r="DO92" s="98"/>
+      <c r="DP92" s="98"/>
+      <c r="DQ92" s="98"/>
+      <c r="DR92" s="98"/>
+      <c r="DS92" s="98"/>
+    </row>
+    <row r="93" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A93" s="98" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B93" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="98">
-        <f>365*120</f>
-        <v>43800</v>
-      </c>
-      <c r="D93" s="98"/>
+        <v>87</v>
+      </c>
+      <c r="C93" s="98"/>
+      <c r="D93" s="108"/>
       <c r="E93" s="98"/>
       <c r="F93" s="98"/>
       <c r="G93" s="98"/>
@@ -20647,16 +21415,27 @@
       <c r="DF93" s="98"/>
       <c r="DG93" s="98"/>
       <c r="DH93" s="98"/>
-    </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI93" s="98"/>
+      <c r="DJ93" s="98"/>
+      <c r="DK93" s="98"/>
+      <c r="DL93" s="98"/>
+      <c r="DM93" s="98"/>
+      <c r="DN93" s="98"/>
+      <c r="DO93" s="98"/>
+      <c r="DP93" s="98"/>
+      <c r="DQ93" s="98"/>
+      <c r="DR93" s="98"/>
+      <c r="DS93" s="98"/>
+    </row>
+    <row r="94" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A94" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B94" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C94" s="98"/>
-      <c r="D94" s="98"/>
+      <c r="D94" s="108"/>
       <c r="E94" s="98"/>
       <c r="F94" s="98"/>
       <c r="G94" s="98"/>
@@ -20765,16 +21544,27 @@
       <c r="DF94" s="98"/>
       <c r="DG94" s="98"/>
       <c r="DH94" s="98"/>
-    </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI94" s="98"/>
+      <c r="DJ94" s="98"/>
+      <c r="DK94" s="98"/>
+      <c r="DL94" s="98"/>
+      <c r="DM94" s="98"/>
+      <c r="DN94" s="98"/>
+      <c r="DO94" s="98"/>
+      <c r="DP94" s="98"/>
+      <c r="DQ94" s="98"/>
+      <c r="DR94" s="98"/>
+      <c r="DS94" s="98"/>
+    </row>
+    <row r="95" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A95" s="98" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B95" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
+      <c r="D95" s="108"/>
       <c r="E95" s="98"/>
       <c r="F95" s="98"/>
       <c r="G95" s="98"/>
@@ -20883,16 +21673,27 @@
       <c r="DF95" s="98"/>
       <c r="DG95" s="98"/>
       <c r="DH95" s="98"/>
-    </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI95" s="98"/>
+      <c r="DJ95" s="98"/>
+      <c r="DK95" s="98"/>
+      <c r="DL95" s="98"/>
+      <c r="DM95" s="98"/>
+      <c r="DN95" s="98"/>
+      <c r="DO95" s="98"/>
+      <c r="DP95" s="98"/>
+      <c r="DQ95" s="98"/>
+      <c r="DR95" s="98"/>
+      <c r="DS95" s="98"/>
+    </row>
+    <row r="96" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A96" s="98" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B96" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C96" s="98"/>
-      <c r="D96" s="98"/>
+      <c r="D96" s="108"/>
       <c r="E96" s="98"/>
       <c r="F96" s="98"/>
       <c r="G96" s="98"/>
@@ -21001,16 +21802,27 @@
       <c r="DF96" s="98"/>
       <c r="DG96" s="98"/>
       <c r="DH96" s="98"/>
-    </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI96" s="98"/>
+      <c r="DJ96" s="98"/>
+      <c r="DK96" s="98"/>
+      <c r="DL96" s="98"/>
+      <c r="DM96" s="98"/>
+      <c r="DN96" s="98"/>
+      <c r="DO96" s="98"/>
+      <c r="DP96" s="98"/>
+      <c r="DQ96" s="98"/>
+      <c r="DR96" s="98"/>
+      <c r="DS96" s="98"/>
+    </row>
+    <row r="97" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A97" s="98" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B97" s="98" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C97" s="98"/>
-      <c r="D97" s="98"/>
+      <c r="D97" s="108"/>
       <c r="E97" s="98"/>
       <c r="F97" s="98"/>
       <c r="G97" s="98"/>
@@ -21119,16 +21931,27 @@
       <c r="DF97" s="98"/>
       <c r="DG97" s="98"/>
       <c r="DH97" s="98"/>
-    </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI97" s="98"/>
+      <c r="DJ97" s="98"/>
+      <c r="DK97" s="98"/>
+      <c r="DL97" s="98"/>
+      <c r="DM97" s="98"/>
+      <c r="DN97" s="98"/>
+      <c r="DO97" s="98"/>
+      <c r="DP97" s="98"/>
+      <c r="DQ97" s="98"/>
+      <c r="DR97" s="98"/>
+      <c r="DS97" s="98"/>
+    </row>
+    <row r="98" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A98" s="98" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B98" s="98" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C98" s="98"/>
-      <c r="D98" s="98"/>
+      <c r="D98" s="108"/>
       <c r="E98" s="98"/>
       <c r="F98" s="98"/>
       <c r="G98" s="98"/>
@@ -21237,16 +22060,30 @@
       <c r="DF98" s="98"/>
       <c r="DG98" s="98"/>
       <c r="DH98" s="98"/>
-    </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI98" s="98"/>
+      <c r="DJ98" s="98"/>
+      <c r="DK98" s="98"/>
+      <c r="DL98" s="98"/>
+      <c r="DM98" s="98"/>
+      <c r="DN98" s="98"/>
+      <c r="DO98" s="98"/>
+      <c r="DP98" s="98"/>
+      <c r="DQ98" s="98"/>
+      <c r="DR98" s="98"/>
+      <c r="DS98" s="98"/>
+    </row>
+    <row r="99" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A99" s="98" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C99" s="98"/>
-      <c r="D99" s="98"/>
+      <c r="D99" s="108">
+        <f>365*120</f>
+        <v>43800</v>
+      </c>
       <c r="E99" s="98"/>
       <c r="F99" s="98"/>
       <c r="G99" s="98"/>
@@ -21355,16 +22192,30 @@
       <c r="DF99" s="98"/>
       <c r="DG99" s="98"/>
       <c r="DH99" s="98"/>
-    </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI99" s="98"/>
+      <c r="DJ99" s="98"/>
+      <c r="DK99" s="98"/>
+      <c r="DL99" s="98"/>
+      <c r="DM99" s="98"/>
+      <c r="DN99" s="98"/>
+      <c r="DO99" s="98"/>
+      <c r="DP99" s="98"/>
+      <c r="DQ99" s="98"/>
+      <c r="DR99" s="98"/>
+      <c r="DS99" s="98"/>
+    </row>
+    <row r="100" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A100" s="98" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B100" s="98" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C100" s="98"/>
-      <c r="D100" s="98"/>
+      <c r="D100" s="108">
+        <f>365*120</f>
+        <v>43800</v>
+      </c>
       <c r="E100" s="98"/>
       <c r="F100" s="98"/>
       <c r="G100" s="98"/>
@@ -21473,16 +22324,27 @@
       <c r="DF100" s="98"/>
       <c r="DG100" s="98"/>
       <c r="DH100" s="98"/>
-    </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI100" s="98"/>
+      <c r="DJ100" s="98"/>
+      <c r="DK100" s="98"/>
+      <c r="DL100" s="98"/>
+      <c r="DM100" s="98"/>
+      <c r="DN100" s="98"/>
+      <c r="DO100" s="98"/>
+      <c r="DP100" s="98"/>
+      <c r="DQ100" s="98"/>
+      <c r="DR100" s="98"/>
+      <c r="DS100" s="98"/>
+    </row>
+    <row r="101" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A101" s="98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B101" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C101" s="98"/>
-      <c r="D101" s="98"/>
+      <c r="D101" s="108"/>
       <c r="E101" s="98"/>
       <c r="F101" s="98"/>
       <c r="G101" s="98"/>
@@ -21591,16 +22453,27 @@
       <c r="DF101" s="98"/>
       <c r="DG101" s="98"/>
       <c r="DH101" s="98"/>
-    </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI101" s="98"/>
+      <c r="DJ101" s="98"/>
+      <c r="DK101" s="98"/>
+      <c r="DL101" s="98"/>
+      <c r="DM101" s="98"/>
+      <c r="DN101" s="98"/>
+      <c r="DO101" s="98"/>
+      <c r="DP101" s="98"/>
+      <c r="DQ101" s="98"/>
+      <c r="DR101" s="98"/>
+      <c r="DS101" s="98"/>
+    </row>
+    <row r="102" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A102" s="98" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B102" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C102" s="98"/>
-      <c r="D102" s="98"/>
+      <c r="D102" s="108"/>
       <c r="E102" s="98"/>
       <c r="F102" s="98"/>
       <c r="G102" s="98"/>
@@ -21709,16 +22582,27 @@
       <c r="DF102" s="98"/>
       <c r="DG102" s="98"/>
       <c r="DH102" s="98"/>
-    </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI102" s="98"/>
+      <c r="DJ102" s="98"/>
+      <c r="DK102" s="98"/>
+      <c r="DL102" s="98"/>
+      <c r="DM102" s="98"/>
+      <c r="DN102" s="98"/>
+      <c r="DO102" s="98"/>
+      <c r="DP102" s="98"/>
+      <c r="DQ102" s="98"/>
+      <c r="DR102" s="98"/>
+      <c r="DS102" s="98"/>
+    </row>
+    <row r="103" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A103" s="98" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B103" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
+      <c r="D103" s="108"/>
       <c r="E103" s="98"/>
       <c r="F103" s="98"/>
       <c r="G103" s="98"/>
@@ -21827,16 +22711,27 @@
       <c r="DF103" s="98"/>
       <c r="DG103" s="98"/>
       <c r="DH103" s="98"/>
-    </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI103" s="98"/>
+      <c r="DJ103" s="98"/>
+      <c r="DK103" s="98"/>
+      <c r="DL103" s="98"/>
+      <c r="DM103" s="98"/>
+      <c r="DN103" s="98"/>
+      <c r="DO103" s="98"/>
+      <c r="DP103" s="98"/>
+      <c r="DQ103" s="98"/>
+      <c r="DR103" s="98"/>
+      <c r="DS103" s="98"/>
+    </row>
+    <row r="104" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B104" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C104" s="98"/>
-      <c r="D104" s="98"/>
+      <c r="D104" s="108"/>
       <c r="E104" s="98"/>
       <c r="F104" s="98"/>
       <c r="G104" s="98"/>
@@ -21945,16 +22840,27 @@
       <c r="DF104" s="98"/>
       <c r="DG104" s="98"/>
       <c r="DH104" s="98"/>
-    </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI104" s="98"/>
+      <c r="DJ104" s="98"/>
+      <c r="DK104" s="98"/>
+      <c r="DL104" s="98"/>
+      <c r="DM104" s="98"/>
+      <c r="DN104" s="98"/>
+      <c r="DO104" s="98"/>
+      <c r="DP104" s="98"/>
+      <c r="DQ104" s="98"/>
+      <c r="DR104" s="98"/>
+      <c r="DS104" s="98"/>
+    </row>
+    <row r="105" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A105" s="98" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B105" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C105" s="98"/>
-      <c r="D105" s="98"/>
+      <c r="D105" s="108"/>
       <c r="E105" s="98"/>
       <c r="F105" s="98"/>
       <c r="G105" s="98"/>
@@ -22063,16 +22969,27 @@
       <c r="DF105" s="98"/>
       <c r="DG105" s="98"/>
       <c r="DH105" s="98"/>
-    </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI105" s="98"/>
+      <c r="DJ105" s="98"/>
+      <c r="DK105" s="98"/>
+      <c r="DL105" s="98"/>
+      <c r="DM105" s="98"/>
+      <c r="DN105" s="98"/>
+      <c r="DO105" s="98"/>
+      <c r="DP105" s="98"/>
+      <c r="DQ105" s="98"/>
+      <c r="DR105" s="98"/>
+      <c r="DS105" s="98"/>
+    </row>
+    <row r="106" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A106" s="98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B106" s="98" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C106" s="98"/>
-      <c r="D106" s="98"/>
+      <c r="D106" s="108"/>
       <c r="E106" s="98"/>
       <c r="F106" s="98"/>
       <c r="G106" s="98"/>
@@ -22181,16 +23098,27 @@
       <c r="DF106" s="98"/>
       <c r="DG106" s="98"/>
       <c r="DH106" s="98"/>
-    </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI106" s="98"/>
+      <c r="DJ106" s="98"/>
+      <c r="DK106" s="98"/>
+      <c r="DL106" s="98"/>
+      <c r="DM106" s="98"/>
+      <c r="DN106" s="98"/>
+      <c r="DO106" s="98"/>
+      <c r="DP106" s="98"/>
+      <c r="DQ106" s="98"/>
+      <c r="DR106" s="98"/>
+      <c r="DS106" s="98"/>
+    </row>
+    <row r="107" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A107" s="98" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B107" s="98" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C107" s="98"/>
-      <c r="D107" s="98"/>
+      <c r="D107" s="108"/>
       <c r="E107" s="98"/>
       <c r="F107" s="98"/>
       <c r="G107" s="98"/>
@@ -22299,16 +23227,27 @@
       <c r="DF107" s="98"/>
       <c r="DG107" s="98"/>
       <c r="DH107" s="98"/>
-    </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI107" s="98"/>
+      <c r="DJ107" s="98"/>
+      <c r="DK107" s="98"/>
+      <c r="DL107" s="98"/>
+      <c r="DM107" s="98"/>
+      <c r="DN107" s="98"/>
+      <c r="DO107" s="98"/>
+      <c r="DP107" s="98"/>
+      <c r="DQ107" s="98"/>
+      <c r="DR107" s="98"/>
+      <c r="DS107" s="98"/>
+    </row>
+    <row r="108" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A108" s="98" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B108" s="98" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C108" s="98"/>
-      <c r="D108" s="98"/>
+      <c r="D108" s="108"/>
       <c r="E108" s="98"/>
       <c r="F108" s="98"/>
       <c r="G108" s="98"/>
@@ -22417,16 +23356,27 @@
       <c r="DF108" s="98"/>
       <c r="DG108" s="98"/>
       <c r="DH108" s="98"/>
-    </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI108" s="98"/>
+      <c r="DJ108" s="98"/>
+      <c r="DK108" s="98"/>
+      <c r="DL108" s="98"/>
+      <c r="DM108" s="98"/>
+      <c r="DN108" s="98"/>
+      <c r="DO108" s="98"/>
+      <c r="DP108" s="98"/>
+      <c r="DQ108" s="98"/>
+      <c r="DR108" s="98"/>
+      <c r="DS108" s="98"/>
+    </row>
+    <row r="109" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A109" s="98" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B109" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C109" s="98"/>
-      <c r="D109" s="98"/>
+      <c r="D109" s="108"/>
       <c r="E109" s="98"/>
       <c r="F109" s="98"/>
       <c r="G109" s="98"/>
@@ -22535,16 +23485,27 @@
       <c r="DF109" s="98"/>
       <c r="DG109" s="98"/>
       <c r="DH109" s="98"/>
-    </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI109" s="98"/>
+      <c r="DJ109" s="98"/>
+      <c r="DK109" s="98"/>
+      <c r="DL109" s="98"/>
+      <c r="DM109" s="98"/>
+      <c r="DN109" s="98"/>
+      <c r="DO109" s="98"/>
+      <c r="DP109" s="98"/>
+      <c r="DQ109" s="98"/>
+      <c r="DR109" s="98"/>
+      <c r="DS109" s="98"/>
+    </row>
+    <row r="110" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A110" s="98" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B110" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C110" s="98"/>
-      <c r="D110" s="98"/>
+      <c r="D110" s="108"/>
       <c r="E110" s="98"/>
       <c r="F110" s="98"/>
       <c r="G110" s="98"/>
@@ -22653,16 +23614,27 @@
       <c r="DF110" s="98"/>
       <c r="DG110" s="98"/>
       <c r="DH110" s="98"/>
-    </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI110" s="98"/>
+      <c r="DJ110" s="98"/>
+      <c r="DK110" s="98"/>
+      <c r="DL110" s="98"/>
+      <c r="DM110" s="98"/>
+      <c r="DN110" s="98"/>
+      <c r="DO110" s="98"/>
+      <c r="DP110" s="98"/>
+      <c r="DQ110" s="98"/>
+      <c r="DR110" s="98"/>
+      <c r="DS110" s="98"/>
+    </row>
+    <row r="111" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A111" s="98" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C111" s="98"/>
-      <c r="D111" s="98"/>
+      <c r="D111" s="108"/>
       <c r="E111" s="98"/>
       <c r="F111" s="98"/>
       <c r="G111" s="98"/>
@@ -22771,16 +23743,27 @@
       <c r="DF111" s="98"/>
       <c r="DG111" s="98"/>
       <c r="DH111" s="98"/>
-    </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI111" s="98"/>
+      <c r="DJ111" s="98"/>
+      <c r="DK111" s="98"/>
+      <c r="DL111" s="98"/>
+      <c r="DM111" s="98"/>
+      <c r="DN111" s="98"/>
+      <c r="DO111" s="98"/>
+      <c r="DP111" s="98"/>
+      <c r="DQ111" s="98"/>
+      <c r="DR111" s="98"/>
+      <c r="DS111" s="98"/>
+    </row>
+    <row r="112" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A112" s="98" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B112" s="98" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C112" s="98"/>
-      <c r="D112" s="98"/>
+      <c r="D112" s="108"/>
       <c r="E112" s="98"/>
       <c r="F112" s="98"/>
       <c r="G112" s="98"/>
@@ -22889,16 +23872,27 @@
       <c r="DF112" s="98"/>
       <c r="DG112" s="98"/>
       <c r="DH112" s="98"/>
-    </row>
-    <row r="113" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI112" s="98"/>
+      <c r="DJ112" s="98"/>
+      <c r="DK112" s="98"/>
+      <c r="DL112" s="98"/>
+      <c r="DM112" s="98"/>
+      <c r="DN112" s="98"/>
+      <c r="DO112" s="98"/>
+      <c r="DP112" s="98"/>
+      <c r="DQ112" s="98"/>
+      <c r="DR112" s="98"/>
+      <c r="DS112" s="98"/>
+    </row>
+    <row r="113" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A113" s="98" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B113" s="98" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C113" s="98"/>
-      <c r="D113" s="98"/>
+      <c r="D113" s="108"/>
       <c r="E113" s="98"/>
       <c r="F113" s="98"/>
       <c r="G113" s="98"/>
@@ -23007,16 +24001,27 @@
       <c r="DF113" s="98"/>
       <c r="DG113" s="98"/>
       <c r="DH113" s="98"/>
-    </row>
-    <row r="114" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI113" s="98"/>
+      <c r="DJ113" s="98"/>
+      <c r="DK113" s="98"/>
+      <c r="DL113" s="98"/>
+      <c r="DM113" s="98"/>
+      <c r="DN113" s="98"/>
+      <c r="DO113" s="98"/>
+      <c r="DP113" s="98"/>
+      <c r="DQ113" s="98"/>
+      <c r="DR113" s="98"/>
+      <c r="DS113" s="98"/>
+    </row>
+    <row r="114" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A114" s="98" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B114" s="98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C114" s="98"/>
-      <c r="D114" s="98"/>
+      <c r="D114" s="108"/>
       <c r="E114" s="98"/>
       <c r="F114" s="98"/>
       <c r="G114" s="98"/>
@@ -23125,16 +24130,27 @@
       <c r="DF114" s="98"/>
       <c r="DG114" s="98"/>
       <c r="DH114" s="98"/>
-    </row>
-    <row r="115" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI114" s="98"/>
+      <c r="DJ114" s="98"/>
+      <c r="DK114" s="98"/>
+      <c r="DL114" s="98"/>
+      <c r="DM114" s="98"/>
+      <c r="DN114" s="98"/>
+      <c r="DO114" s="98"/>
+      <c r="DP114" s="98"/>
+      <c r="DQ114" s="98"/>
+      <c r="DR114" s="98"/>
+      <c r="DS114" s="98"/>
+    </row>
+    <row r="115" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A115" s="98" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B115" s="98" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C115" s="98"/>
-      <c r="D115" s="98"/>
+      <c r="D115" s="108"/>
       <c r="E115" s="98"/>
       <c r="F115" s="98"/>
       <c r="G115" s="98"/>
@@ -23243,16 +24259,27 @@
       <c r="DF115" s="98"/>
       <c r="DG115" s="98"/>
       <c r="DH115" s="98"/>
-    </row>
-    <row r="116" spans="1:112" x14ac:dyDescent="0.3">
+      <c r="DI115" s="98"/>
+      <c r="DJ115" s="98"/>
+      <c r="DK115" s="98"/>
+      <c r="DL115" s="98"/>
+      <c r="DM115" s="98"/>
+      <c r="DN115" s="98"/>
+      <c r="DO115" s="98"/>
+      <c r="DP115" s="98"/>
+      <c r="DQ115" s="98"/>
+      <c r="DR115" s="98"/>
+      <c r="DS115" s="98"/>
+    </row>
+    <row r="116" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A116" s="98" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B116" s="98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C116" s="98"/>
-      <c r="D116" s="98"/>
+      <c r="D116" s="108"/>
       <c r="E116" s="98"/>
       <c r="F116" s="98"/>
       <c r="G116" s="98"/>
@@ -23361,30 +24388,1436 @@
       <c r="DF116" s="98"/>
       <c r="DG116" s="98"/>
       <c r="DH116" s="98"/>
-    </row>
-    <row r="117" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A117" s="99" t="s">
+      <c r="DI116" s="98"/>
+      <c r="DJ116" s="98"/>
+      <c r="DK116" s="98"/>
+      <c r="DL116" s="98"/>
+      <c r="DM116" s="98"/>
+      <c r="DN116" s="98"/>
+      <c r="DO116" s="98"/>
+      <c r="DP116" s="98"/>
+      <c r="DQ116" s="98"/>
+      <c r="DR116" s="98"/>
+      <c r="DS116" s="98"/>
+    </row>
+    <row r="117" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A117" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="98"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="98"/>
+      <c r="I117" s="98"/>
+      <c r="J117" s="98"/>
+      <c r="K117" s="98"/>
+      <c r="L117" s="98"/>
+      <c r="M117" s="98"/>
+      <c r="N117" s="98"/>
+      <c r="O117" s="98"/>
+      <c r="P117" s="98"/>
+      <c r="Q117" s="98"/>
+      <c r="R117" s="98"/>
+      <c r="S117" s="98"/>
+      <c r="T117" s="98"/>
+      <c r="U117" s="98"/>
+      <c r="V117" s="98"/>
+      <c r="W117" s="98"/>
+      <c r="X117" s="98"/>
+      <c r="Y117" s="98"/>
+      <c r="Z117" s="98"/>
+      <c r="AA117" s="98"/>
+      <c r="AB117" s="98"/>
+      <c r="AC117" s="98"/>
+      <c r="AD117" s="98"/>
+      <c r="AE117" s="98"/>
+      <c r="AF117" s="98"/>
+      <c r="AG117" s="98"/>
+      <c r="AH117" s="98"/>
+      <c r="AI117" s="98"/>
+      <c r="AJ117" s="98"/>
+      <c r="AK117" s="98"/>
+      <c r="AL117" s="98"/>
+      <c r="AM117" s="98"/>
+      <c r="AN117" s="98"/>
+      <c r="AO117" s="98"/>
+      <c r="AP117" s="98"/>
+      <c r="AQ117" s="98"/>
+      <c r="AR117" s="98"/>
+      <c r="AS117" s="98"/>
+      <c r="AT117" s="98"/>
+      <c r="AU117" s="98"/>
+      <c r="AV117" s="98"/>
+      <c r="AW117" s="98"/>
+      <c r="AX117" s="98"/>
+      <c r="AY117" s="98"/>
+      <c r="AZ117" s="98"/>
+      <c r="BA117" s="98"/>
+      <c r="BB117" s="98"/>
+      <c r="BC117" s="98"/>
+      <c r="BD117" s="98"/>
+      <c r="BE117" s="98"/>
+      <c r="BF117" s="98"/>
+      <c r="BG117" s="98"/>
+      <c r="BH117" s="98"/>
+      <c r="BI117" s="98"/>
+      <c r="BJ117" s="98"/>
+      <c r="BK117" s="98"/>
+      <c r="BL117" s="98"/>
+      <c r="BM117" s="98"/>
+      <c r="BN117" s="98"/>
+      <c r="BO117" s="98"/>
+      <c r="BP117" s="98"/>
+      <c r="BQ117" s="98"/>
+      <c r="BR117" s="98"/>
+      <c r="BS117" s="98"/>
+      <c r="BT117" s="98"/>
+      <c r="BU117" s="98"/>
+      <c r="BV117" s="98"/>
+      <c r="BW117" s="98"/>
+      <c r="BX117" s="98"/>
+      <c r="BY117" s="98"/>
+      <c r="BZ117" s="98"/>
+      <c r="CA117" s="98"/>
+      <c r="CB117" s="98"/>
+      <c r="CC117" s="98"/>
+      <c r="CD117" s="98"/>
+      <c r="CE117" s="98"/>
+      <c r="CF117" s="98"/>
+      <c r="CG117" s="98"/>
+      <c r="CH117" s="98"/>
+      <c r="CI117" s="98"/>
+      <c r="CJ117" s="98"/>
+      <c r="CK117" s="98"/>
+      <c r="CL117" s="98"/>
+      <c r="CM117" s="98"/>
+      <c r="CN117" s="98"/>
+      <c r="CO117" s="98"/>
+      <c r="CP117" s="98"/>
+      <c r="CQ117" s="98"/>
+      <c r="CR117" s="98"/>
+      <c r="CS117" s="98"/>
+      <c r="CT117" s="98"/>
+      <c r="CU117" s="98"/>
+      <c r="CV117" s="98"/>
+      <c r="CW117" s="98"/>
+      <c r="CX117" s="98"/>
+      <c r="CY117" s="98"/>
+      <c r="CZ117" s="98"/>
+      <c r="DA117" s="98"/>
+      <c r="DB117" s="98"/>
+      <c r="DC117" s="98"/>
+      <c r="DD117" s="98"/>
+      <c r="DE117" s="98"/>
+      <c r="DF117" s="98"/>
+      <c r="DG117" s="98"/>
+      <c r="DH117" s="98"/>
+      <c r="DI117" s="98"/>
+      <c r="DJ117" s="98"/>
+      <c r="DK117" s="98"/>
+      <c r="DL117" s="98"/>
+      <c r="DM117" s="98"/>
+      <c r="DN117" s="98"/>
+      <c r="DO117" s="98"/>
+      <c r="DP117" s="98"/>
+      <c r="DQ117" s="98"/>
+      <c r="DR117" s="98"/>
+      <c r="DS117" s="98"/>
+    </row>
+    <row r="118" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A118" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="98"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="98"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="98"/>
+      <c r="J118" s="98"/>
+      <c r="K118" s="98"/>
+      <c r="L118" s="98"/>
+      <c r="M118" s="98"/>
+      <c r="N118" s="98"/>
+      <c r="O118" s="98"/>
+      <c r="P118" s="98"/>
+      <c r="Q118" s="98"/>
+      <c r="R118" s="98"/>
+      <c r="S118" s="98"/>
+      <c r="T118" s="98"/>
+      <c r="U118" s="98"/>
+      <c r="V118" s="98"/>
+      <c r="W118" s="98"/>
+      <c r="X118" s="98"/>
+      <c r="Y118" s="98"/>
+      <c r="Z118" s="98"/>
+      <c r="AA118" s="98"/>
+      <c r="AB118" s="98"/>
+      <c r="AC118" s="98"/>
+      <c r="AD118" s="98"/>
+      <c r="AE118" s="98"/>
+      <c r="AF118" s="98"/>
+      <c r="AG118" s="98"/>
+      <c r="AH118" s="98"/>
+      <c r="AI118" s="98"/>
+      <c r="AJ118" s="98"/>
+      <c r="AK118" s="98"/>
+      <c r="AL118" s="98"/>
+      <c r="AM118" s="98"/>
+      <c r="AN118" s="98"/>
+      <c r="AO118" s="98"/>
+      <c r="AP118" s="98"/>
+      <c r="AQ118" s="98"/>
+      <c r="AR118" s="98"/>
+      <c r="AS118" s="98"/>
+      <c r="AT118" s="98"/>
+      <c r="AU118" s="98"/>
+      <c r="AV118" s="98"/>
+      <c r="AW118" s="98"/>
+      <c r="AX118" s="98"/>
+      <c r="AY118" s="98"/>
+      <c r="AZ118" s="98"/>
+      <c r="BA118" s="98"/>
+      <c r="BB118" s="98"/>
+      <c r="BC118" s="98"/>
+      <c r="BD118" s="98"/>
+      <c r="BE118" s="98"/>
+      <c r="BF118" s="98"/>
+      <c r="BG118" s="98"/>
+      <c r="BH118" s="98"/>
+      <c r="BI118" s="98"/>
+      <c r="BJ118" s="98"/>
+      <c r="BK118" s="98"/>
+      <c r="BL118" s="98"/>
+      <c r="BM118" s="98"/>
+      <c r="BN118" s="98"/>
+      <c r="BO118" s="98"/>
+      <c r="BP118" s="98"/>
+      <c r="BQ118" s="98"/>
+      <c r="BR118" s="98"/>
+      <c r="BS118" s="98"/>
+      <c r="BT118" s="98"/>
+      <c r="BU118" s="98"/>
+      <c r="BV118" s="98"/>
+      <c r="BW118" s="98"/>
+      <c r="BX118" s="98"/>
+      <c r="BY118" s="98"/>
+      <c r="BZ118" s="98"/>
+      <c r="CA118" s="98"/>
+      <c r="CB118" s="98"/>
+      <c r="CC118" s="98"/>
+      <c r="CD118" s="98"/>
+      <c r="CE118" s="98"/>
+      <c r="CF118" s="98"/>
+      <c r="CG118" s="98"/>
+      <c r="CH118" s="98"/>
+      <c r="CI118" s="98"/>
+      <c r="CJ118" s="98"/>
+      <c r="CK118" s="98"/>
+      <c r="CL118" s="98"/>
+      <c r="CM118" s="98"/>
+      <c r="CN118" s="98"/>
+      <c r="CO118" s="98"/>
+      <c r="CP118" s="98"/>
+      <c r="CQ118" s="98"/>
+      <c r="CR118" s="98"/>
+      <c r="CS118" s="98"/>
+      <c r="CT118" s="98"/>
+      <c r="CU118" s="98"/>
+      <c r="CV118" s="98"/>
+      <c r="CW118" s="98"/>
+      <c r="CX118" s="98"/>
+      <c r="CY118" s="98"/>
+      <c r="CZ118" s="98"/>
+      <c r="DA118" s="98"/>
+      <c r="DB118" s="98"/>
+      <c r="DC118" s="98"/>
+      <c r="DD118" s="98"/>
+      <c r="DE118" s="98"/>
+      <c r="DF118" s="98"/>
+      <c r="DG118" s="98"/>
+      <c r="DH118" s="98"/>
+      <c r="DI118" s="98"/>
+      <c r="DJ118" s="98"/>
+      <c r="DK118" s="98"/>
+      <c r="DL118" s="98"/>
+      <c r="DM118" s="98"/>
+      <c r="DN118" s="98"/>
+      <c r="DO118" s="98"/>
+      <c r="DP118" s="98"/>
+      <c r="DQ118" s="98"/>
+      <c r="DR118" s="98"/>
+      <c r="DS118" s="98"/>
+    </row>
+    <row r="119" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A119" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="98"/>
+      <c r="D119" s="108"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
+      <c r="K119" s="98"/>
+      <c r="L119" s="98"/>
+      <c r="M119" s="98"/>
+      <c r="N119" s="98"/>
+      <c r="O119" s="98"/>
+      <c r="P119" s="98"/>
+      <c r="Q119" s="98"/>
+      <c r="R119" s="98"/>
+      <c r="S119" s="98"/>
+      <c r="T119" s="98"/>
+      <c r="U119" s="98"/>
+      <c r="V119" s="98"/>
+      <c r="W119" s="98"/>
+      <c r="X119" s="98"/>
+      <c r="Y119" s="98"/>
+      <c r="Z119" s="98"/>
+      <c r="AA119" s="98"/>
+      <c r="AB119" s="98"/>
+      <c r="AC119" s="98"/>
+      <c r="AD119" s="98"/>
+      <c r="AE119" s="98"/>
+      <c r="AF119" s="98"/>
+      <c r="AG119" s="98"/>
+      <c r="AH119" s="98"/>
+      <c r="AI119" s="98"/>
+      <c r="AJ119" s="98"/>
+      <c r="AK119" s="98"/>
+      <c r="AL119" s="98"/>
+      <c r="AM119" s="98"/>
+      <c r="AN119" s="98"/>
+      <c r="AO119" s="98"/>
+      <c r="AP119" s="98"/>
+      <c r="AQ119" s="98"/>
+      <c r="AR119" s="98"/>
+      <c r="AS119" s="98"/>
+      <c r="AT119" s="98"/>
+      <c r="AU119" s="98"/>
+      <c r="AV119" s="98"/>
+      <c r="AW119" s="98"/>
+      <c r="AX119" s="98"/>
+      <c r="AY119" s="98"/>
+      <c r="AZ119" s="98"/>
+      <c r="BA119" s="98"/>
+      <c r="BB119" s="98"/>
+      <c r="BC119" s="98"/>
+      <c r="BD119" s="98"/>
+      <c r="BE119" s="98"/>
+      <c r="BF119" s="98"/>
+      <c r="BG119" s="98"/>
+      <c r="BH119" s="98"/>
+      <c r="BI119" s="98"/>
+      <c r="BJ119" s="98"/>
+      <c r="BK119" s="98"/>
+      <c r="BL119" s="98"/>
+      <c r="BM119" s="98"/>
+      <c r="BN119" s="98"/>
+      <c r="BO119" s="98"/>
+      <c r="BP119" s="98"/>
+      <c r="BQ119" s="98"/>
+      <c r="BR119" s="98"/>
+      <c r="BS119" s="98"/>
+      <c r="BT119" s="98"/>
+      <c r="BU119" s="98"/>
+      <c r="BV119" s="98"/>
+      <c r="BW119" s="98"/>
+      <c r="BX119" s="98"/>
+      <c r="BY119" s="98"/>
+      <c r="BZ119" s="98"/>
+      <c r="CA119" s="98"/>
+      <c r="CB119" s="98"/>
+      <c r="CC119" s="98"/>
+      <c r="CD119" s="98"/>
+      <c r="CE119" s="98"/>
+      <c r="CF119" s="98"/>
+      <c r="CG119" s="98"/>
+      <c r="CH119" s="98"/>
+      <c r="CI119" s="98"/>
+      <c r="CJ119" s="98"/>
+      <c r="CK119" s="98"/>
+      <c r="CL119" s="98"/>
+      <c r="CM119" s="98"/>
+      <c r="CN119" s="98"/>
+      <c r="CO119" s="98"/>
+      <c r="CP119" s="98"/>
+      <c r="CQ119" s="98"/>
+      <c r="CR119" s="98"/>
+      <c r="CS119" s="98"/>
+      <c r="CT119" s="98"/>
+      <c r="CU119" s="98"/>
+      <c r="CV119" s="98"/>
+      <c r="CW119" s="98"/>
+      <c r="CX119" s="98"/>
+      <c r="CY119" s="98"/>
+      <c r="CZ119" s="98"/>
+      <c r="DA119" s="98"/>
+      <c r="DB119" s="98"/>
+      <c r="DC119" s="98"/>
+      <c r="DD119" s="98"/>
+      <c r="DE119" s="98"/>
+      <c r="DF119" s="98"/>
+      <c r="DG119" s="98"/>
+      <c r="DH119" s="98"/>
+      <c r="DI119" s="98"/>
+      <c r="DJ119" s="98"/>
+      <c r="DK119" s="98"/>
+      <c r="DL119" s="98"/>
+      <c r="DM119" s="98"/>
+      <c r="DN119" s="98"/>
+      <c r="DO119" s="98"/>
+      <c r="DP119" s="98"/>
+      <c r="DQ119" s="98"/>
+      <c r="DR119" s="98"/>
+      <c r="DS119" s="98"/>
+    </row>
+    <row r="120" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A120" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="98"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="98"/>
+      <c r="H120" s="98"/>
+      <c r="I120" s="98"/>
+      <c r="J120" s="98"/>
+      <c r="K120" s="98"/>
+      <c r="L120" s="98"/>
+      <c r="M120" s="98"/>
+      <c r="N120" s="98"/>
+      <c r="O120" s="98"/>
+      <c r="P120" s="98"/>
+      <c r="Q120" s="98"/>
+      <c r="R120" s="98"/>
+      <c r="S120" s="98"/>
+      <c r="T120" s="98"/>
+      <c r="U120" s="98"/>
+      <c r="V120" s="98"/>
+      <c r="W120" s="98"/>
+      <c r="X120" s="98"/>
+      <c r="Y120" s="98"/>
+      <c r="Z120" s="98"/>
+      <c r="AA120" s="98"/>
+      <c r="AB120" s="98"/>
+      <c r="AC120" s="98"/>
+      <c r="AD120" s="98"/>
+      <c r="AE120" s="98"/>
+      <c r="AF120" s="98"/>
+      <c r="AG120" s="98"/>
+      <c r="AH120" s="98"/>
+      <c r="AI120" s="98"/>
+      <c r="AJ120" s="98"/>
+      <c r="AK120" s="98"/>
+      <c r="AL120" s="98"/>
+      <c r="AM120" s="98"/>
+      <c r="AN120" s="98"/>
+      <c r="AO120" s="98"/>
+      <c r="AP120" s="98"/>
+      <c r="AQ120" s="98"/>
+      <c r="AR120" s="98"/>
+      <c r="AS120" s="98"/>
+      <c r="AT120" s="98"/>
+      <c r="AU120" s="98"/>
+      <c r="AV120" s="98"/>
+      <c r="AW120" s="98"/>
+      <c r="AX120" s="98"/>
+      <c r="AY120" s="98"/>
+      <c r="AZ120" s="98"/>
+      <c r="BA120" s="98"/>
+      <c r="BB120" s="98"/>
+      <c r="BC120" s="98"/>
+      <c r="BD120" s="98"/>
+      <c r="BE120" s="98"/>
+      <c r="BF120" s="98"/>
+      <c r="BG120" s="98"/>
+      <c r="BH120" s="98"/>
+      <c r="BI120" s="98"/>
+      <c r="BJ120" s="98"/>
+      <c r="BK120" s="98"/>
+      <c r="BL120" s="98"/>
+      <c r="BM120" s="98"/>
+      <c r="BN120" s="98"/>
+      <c r="BO120" s="98"/>
+      <c r="BP120" s="98"/>
+      <c r="BQ120" s="98"/>
+      <c r="BR120" s="98"/>
+      <c r="BS120" s="98"/>
+      <c r="BT120" s="98"/>
+      <c r="BU120" s="98"/>
+      <c r="BV120" s="98"/>
+      <c r="BW120" s="98"/>
+      <c r="BX120" s="98"/>
+      <c r="BY120" s="98"/>
+      <c r="BZ120" s="98"/>
+      <c r="CA120" s="98"/>
+      <c r="CB120" s="98"/>
+      <c r="CC120" s="98"/>
+      <c r="CD120" s="98"/>
+      <c r="CE120" s="98"/>
+      <c r="CF120" s="98"/>
+      <c r="CG120" s="98"/>
+      <c r="CH120" s="98"/>
+      <c r="CI120" s="98"/>
+      <c r="CJ120" s="98"/>
+      <c r="CK120" s="98"/>
+      <c r="CL120" s="98"/>
+      <c r="CM120" s="98"/>
+      <c r="CN120" s="98"/>
+      <c r="CO120" s="98"/>
+      <c r="CP120" s="98"/>
+      <c r="CQ120" s="98"/>
+      <c r="CR120" s="98"/>
+      <c r="CS120" s="98"/>
+      <c r="CT120" s="98"/>
+      <c r="CU120" s="98"/>
+      <c r="CV120" s="98"/>
+      <c r="CW120" s="98"/>
+      <c r="CX120" s="98"/>
+      <c r="CY120" s="98"/>
+      <c r="CZ120" s="98"/>
+      <c r="DA120" s="98"/>
+      <c r="DB120" s="98"/>
+      <c r="DC120" s="98"/>
+      <c r="DD120" s="98"/>
+      <c r="DE120" s="98"/>
+      <c r="DF120" s="98"/>
+      <c r="DG120" s="98"/>
+      <c r="DH120" s="98"/>
+      <c r="DI120" s="98"/>
+      <c r="DJ120" s="98"/>
+      <c r="DK120" s="98"/>
+      <c r="DL120" s="98"/>
+      <c r="DM120" s="98"/>
+      <c r="DN120" s="98"/>
+      <c r="DO120" s="98"/>
+      <c r="DP120" s="98"/>
+      <c r="DQ120" s="98"/>
+      <c r="DR120" s="98"/>
+      <c r="DS120" s="98"/>
+    </row>
+    <row r="121" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A121" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="98"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="98"/>
+      <c r="G121" s="98"/>
+      <c r="H121" s="98"/>
+      <c r="I121" s="98"/>
+      <c r="J121" s="98"/>
+      <c r="K121" s="98"/>
+      <c r="L121" s="98"/>
+      <c r="M121" s="98"/>
+      <c r="N121" s="98"/>
+      <c r="O121" s="98"/>
+      <c r="P121" s="98"/>
+      <c r="Q121" s="98"/>
+      <c r="R121" s="98"/>
+      <c r="S121" s="98"/>
+      <c r="T121" s="98"/>
+      <c r="U121" s="98"/>
+      <c r="V121" s="98"/>
+      <c r="W121" s="98"/>
+      <c r="X121" s="98"/>
+      <c r="Y121" s="98"/>
+      <c r="Z121" s="98"/>
+      <c r="AA121" s="98"/>
+      <c r="AB121" s="98"/>
+      <c r="AC121" s="98"/>
+      <c r="AD121" s="98"/>
+      <c r="AE121" s="98"/>
+      <c r="AF121" s="98"/>
+      <c r="AG121" s="98"/>
+      <c r="AH121" s="98"/>
+      <c r="AI121" s="98"/>
+      <c r="AJ121" s="98"/>
+      <c r="AK121" s="98"/>
+      <c r="AL121" s="98"/>
+      <c r="AM121" s="98"/>
+      <c r="AN121" s="98"/>
+      <c r="AO121" s="98"/>
+      <c r="AP121" s="98"/>
+      <c r="AQ121" s="98"/>
+      <c r="AR121" s="98"/>
+      <c r="AS121" s="98"/>
+      <c r="AT121" s="98"/>
+      <c r="AU121" s="98"/>
+      <c r="AV121" s="98"/>
+      <c r="AW121" s="98"/>
+      <c r="AX121" s="98"/>
+      <c r="AY121" s="98"/>
+      <c r="AZ121" s="98"/>
+      <c r="BA121" s="98"/>
+      <c r="BB121" s="98"/>
+      <c r="BC121" s="98"/>
+      <c r="BD121" s="98"/>
+      <c r="BE121" s="98"/>
+      <c r="BF121" s="98"/>
+      <c r="BG121" s="98"/>
+      <c r="BH121" s="98"/>
+      <c r="BI121" s="98"/>
+      <c r="BJ121" s="98"/>
+      <c r="BK121" s="98"/>
+      <c r="BL121" s="98"/>
+      <c r="BM121" s="98"/>
+      <c r="BN121" s="98"/>
+      <c r="BO121" s="98"/>
+      <c r="BP121" s="98"/>
+      <c r="BQ121" s="98"/>
+      <c r="BR121" s="98"/>
+      <c r="BS121" s="98"/>
+      <c r="BT121" s="98"/>
+      <c r="BU121" s="98"/>
+      <c r="BV121" s="98"/>
+      <c r="BW121" s="98"/>
+      <c r="BX121" s="98"/>
+      <c r="BY121" s="98"/>
+      <c r="BZ121" s="98"/>
+      <c r="CA121" s="98"/>
+      <c r="CB121" s="98"/>
+      <c r="CC121" s="98"/>
+      <c r="CD121" s="98"/>
+      <c r="CE121" s="98"/>
+      <c r="CF121" s="98"/>
+      <c r="CG121" s="98"/>
+      <c r="CH121" s="98"/>
+      <c r="CI121" s="98"/>
+      <c r="CJ121" s="98"/>
+      <c r="CK121" s="98"/>
+      <c r="CL121" s="98"/>
+      <c r="CM121" s="98"/>
+      <c r="CN121" s="98"/>
+      <c r="CO121" s="98"/>
+      <c r="CP121" s="98"/>
+      <c r="CQ121" s="98"/>
+      <c r="CR121" s="98"/>
+      <c r="CS121" s="98"/>
+      <c r="CT121" s="98"/>
+      <c r="CU121" s="98"/>
+      <c r="CV121" s="98"/>
+      <c r="CW121" s="98"/>
+      <c r="CX121" s="98"/>
+      <c r="CY121" s="98"/>
+      <c r="CZ121" s="98"/>
+      <c r="DA121" s="98"/>
+      <c r="DB121" s="98"/>
+      <c r="DC121" s="98"/>
+      <c r="DD121" s="98"/>
+      <c r="DE121" s="98"/>
+      <c r="DF121" s="98"/>
+      <c r="DG121" s="98"/>
+      <c r="DH121" s="98"/>
+      <c r="DI121" s="98"/>
+      <c r="DJ121" s="98"/>
+      <c r="DK121" s="98"/>
+      <c r="DL121" s="98"/>
+      <c r="DM121" s="98"/>
+      <c r="DN121" s="98"/>
+      <c r="DO121" s="98"/>
+      <c r="DP121" s="98"/>
+      <c r="DQ121" s="98"/>
+      <c r="DR121" s="98"/>
+      <c r="DS121" s="98"/>
+    </row>
+    <row r="122" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A122" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="98"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="98"/>
+      <c r="H122" s="98"/>
+      <c r="I122" s="98"/>
+      <c r="J122" s="98"/>
+      <c r="K122" s="98"/>
+      <c r="L122" s="98"/>
+      <c r="M122" s="98"/>
+      <c r="N122" s="98"/>
+      <c r="O122" s="98"/>
+      <c r="P122" s="98"/>
+      <c r="Q122" s="98"/>
+      <c r="R122" s="98"/>
+      <c r="S122" s="98"/>
+      <c r="T122" s="98"/>
+      <c r="U122" s="98"/>
+      <c r="V122" s="98"/>
+      <c r="W122" s="98"/>
+      <c r="X122" s="98"/>
+      <c r="Y122" s="98"/>
+      <c r="Z122" s="98"/>
+      <c r="AA122" s="98"/>
+      <c r="AB122" s="98"/>
+      <c r="AC122" s="98"/>
+      <c r="AD122" s="98"/>
+      <c r="AE122" s="98"/>
+      <c r="AF122" s="98"/>
+      <c r="AG122" s="98"/>
+      <c r="AH122" s="98"/>
+      <c r="AI122" s="98"/>
+      <c r="AJ122" s="98"/>
+      <c r="AK122" s="98"/>
+      <c r="AL122" s="98"/>
+      <c r="AM122" s="98"/>
+      <c r="AN122" s="98"/>
+      <c r="AO122" s="98"/>
+      <c r="AP122" s="98"/>
+      <c r="AQ122" s="98"/>
+      <c r="AR122" s="98"/>
+      <c r="AS122" s="98"/>
+      <c r="AT122" s="98"/>
+      <c r="AU122" s="98"/>
+      <c r="AV122" s="98"/>
+      <c r="AW122" s="98"/>
+      <c r="AX122" s="98"/>
+      <c r="AY122" s="98"/>
+      <c r="AZ122" s="98"/>
+      <c r="BA122" s="98"/>
+      <c r="BB122" s="98"/>
+      <c r="BC122" s="98"/>
+      <c r="BD122" s="98"/>
+      <c r="BE122" s="98"/>
+      <c r="BF122" s="98"/>
+      <c r="BG122" s="98"/>
+      <c r="BH122" s="98"/>
+      <c r="BI122" s="98"/>
+      <c r="BJ122" s="98"/>
+      <c r="BK122" s="98"/>
+      <c r="BL122" s="98"/>
+      <c r="BM122" s="98"/>
+      <c r="BN122" s="98"/>
+      <c r="BO122" s="98"/>
+      <c r="BP122" s="98"/>
+      <c r="BQ122" s="98"/>
+      <c r="BR122" s="98"/>
+      <c r="BS122" s="98"/>
+      <c r="BT122" s="98"/>
+      <c r="BU122" s="98"/>
+      <c r="BV122" s="98"/>
+      <c r="BW122" s="98"/>
+      <c r="BX122" s="98"/>
+      <c r="BY122" s="98"/>
+      <c r="BZ122" s="98"/>
+      <c r="CA122" s="98"/>
+      <c r="CB122" s="98"/>
+      <c r="CC122" s="98"/>
+      <c r="CD122" s="98"/>
+      <c r="CE122" s="98"/>
+      <c r="CF122" s="98"/>
+      <c r="CG122" s="98"/>
+      <c r="CH122" s="98"/>
+      <c r="CI122" s="98"/>
+      <c r="CJ122" s="98"/>
+      <c r="CK122" s="98"/>
+      <c r="CL122" s="98"/>
+      <c r="CM122" s="98"/>
+      <c r="CN122" s="98"/>
+      <c r="CO122" s="98"/>
+      <c r="CP122" s="98"/>
+      <c r="CQ122" s="98"/>
+      <c r="CR122" s="98"/>
+      <c r="CS122" s="98"/>
+      <c r="CT122" s="98"/>
+      <c r="CU122" s="98"/>
+      <c r="CV122" s="98"/>
+      <c r="CW122" s="98"/>
+      <c r="CX122" s="98"/>
+      <c r="CY122" s="98"/>
+      <c r="CZ122" s="98"/>
+      <c r="DA122" s="98"/>
+      <c r="DB122" s="98"/>
+      <c r="DC122" s="98"/>
+      <c r="DD122" s="98"/>
+      <c r="DE122" s="98"/>
+      <c r="DF122" s="98"/>
+      <c r="DG122" s="98"/>
+      <c r="DH122" s="98"/>
+      <c r="DI122" s="98"/>
+      <c r="DJ122" s="98"/>
+      <c r="DK122" s="98"/>
+      <c r="DL122" s="98"/>
+      <c r="DM122" s="98"/>
+      <c r="DN122" s="98"/>
+      <c r="DO122" s="98"/>
+      <c r="DP122" s="98"/>
+      <c r="DQ122" s="98"/>
+      <c r="DR122" s="98"/>
+      <c r="DS122" s="98"/>
+    </row>
+    <row r="123" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A123" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="98"/>
+      <c r="D123" s="108"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="98"/>
+      <c r="H123" s="98"/>
+      <c r="I123" s="98"/>
+      <c r="J123" s="98"/>
+      <c r="K123" s="98"/>
+      <c r="L123" s="98"/>
+      <c r="M123" s="98"/>
+      <c r="N123" s="98"/>
+      <c r="O123" s="98"/>
+      <c r="P123" s="98"/>
+      <c r="Q123" s="98"/>
+      <c r="R123" s="98"/>
+      <c r="S123" s="98"/>
+      <c r="T123" s="98"/>
+      <c r="U123" s="98"/>
+      <c r="V123" s="98"/>
+      <c r="W123" s="98"/>
+      <c r="X123" s="98"/>
+      <c r="Y123" s="98"/>
+      <c r="Z123" s="98"/>
+      <c r="AA123" s="98"/>
+      <c r="AB123" s="98"/>
+      <c r="AC123" s="98"/>
+      <c r="AD123" s="98"/>
+      <c r="AE123" s="98"/>
+      <c r="AF123" s="98"/>
+      <c r="AG123" s="98"/>
+      <c r="AH123" s="98"/>
+      <c r="AI123" s="98"/>
+      <c r="AJ123" s="98"/>
+      <c r="AK123" s="98"/>
+      <c r="AL123" s="98"/>
+      <c r="AM123" s="98"/>
+      <c r="AN123" s="98"/>
+      <c r="AO123" s="98"/>
+      <c r="AP123" s="98"/>
+      <c r="AQ123" s="98"/>
+      <c r="AR123" s="98"/>
+      <c r="AS123" s="98"/>
+      <c r="AT123" s="98"/>
+      <c r="AU123" s="98"/>
+      <c r="AV123" s="98"/>
+      <c r="AW123" s="98"/>
+      <c r="AX123" s="98"/>
+      <c r="AY123" s="98"/>
+      <c r="AZ123" s="98"/>
+      <c r="BA123" s="98"/>
+      <c r="BB123" s="98"/>
+      <c r="BC123" s="98"/>
+      <c r="BD123" s="98"/>
+      <c r="BE123" s="98"/>
+      <c r="BF123" s="98"/>
+      <c r="BG123" s="98"/>
+      <c r="BH123" s="98"/>
+      <c r="BI123" s="98"/>
+      <c r="BJ123" s="98"/>
+      <c r="BK123" s="98"/>
+      <c r="BL123" s="98"/>
+      <c r="BM123" s="98"/>
+      <c r="BN123" s="98"/>
+      <c r="BO123" s="98"/>
+      <c r="BP123" s="98"/>
+      <c r="BQ123" s="98"/>
+      <c r="BR123" s="98"/>
+      <c r="BS123" s="98"/>
+      <c r="BT123" s="98"/>
+      <c r="BU123" s="98"/>
+      <c r="BV123" s="98"/>
+      <c r="BW123" s="98"/>
+      <c r="BX123" s="98"/>
+      <c r="BY123" s="98"/>
+      <c r="BZ123" s="98"/>
+      <c r="CA123" s="98"/>
+      <c r="CB123" s="98"/>
+      <c r="CC123" s="98"/>
+      <c r="CD123" s="98"/>
+      <c r="CE123" s="98"/>
+      <c r="CF123" s="98"/>
+      <c r="CG123" s="98"/>
+      <c r="CH123" s="98"/>
+      <c r="CI123" s="98"/>
+      <c r="CJ123" s="98"/>
+      <c r="CK123" s="98"/>
+      <c r="CL123" s="98"/>
+      <c r="CM123" s="98"/>
+      <c r="CN123" s="98"/>
+      <c r="CO123" s="98"/>
+      <c r="CP123" s="98"/>
+      <c r="CQ123" s="98"/>
+      <c r="CR123" s="98"/>
+      <c r="CS123" s="98"/>
+      <c r="CT123" s="98"/>
+      <c r="CU123" s="98"/>
+      <c r="CV123" s="98"/>
+      <c r="CW123" s="98"/>
+      <c r="CX123" s="98"/>
+      <c r="CY123" s="98"/>
+      <c r="CZ123" s="98"/>
+      <c r="DA123" s="98"/>
+      <c r="DB123" s="98"/>
+      <c r="DC123" s="98"/>
+      <c r="DD123" s="98"/>
+      <c r="DE123" s="98"/>
+      <c r="DF123" s="98"/>
+      <c r="DG123" s="98"/>
+      <c r="DH123" s="98"/>
+      <c r="DI123" s="98"/>
+      <c r="DJ123" s="98"/>
+      <c r="DK123" s="98"/>
+      <c r="DL123" s="98"/>
+      <c r="DM123" s="98"/>
+      <c r="DN123" s="98"/>
+      <c r="DO123" s="98"/>
+      <c r="DP123" s="98"/>
+      <c r="DQ123" s="98"/>
+      <c r="DR123" s="98"/>
+      <c r="DS123" s="98"/>
+    </row>
+    <row r="124" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A124" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="98"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="98"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="98"/>
+      <c r="K124" s="98"/>
+      <c r="L124" s="98"/>
+      <c r="M124" s="98"/>
+      <c r="N124" s="98"/>
+      <c r="O124" s="98"/>
+      <c r="P124" s="98"/>
+      <c r="Q124" s="98"/>
+      <c r="R124" s="98"/>
+      <c r="S124" s="98"/>
+      <c r="T124" s="98"/>
+      <c r="U124" s="98"/>
+      <c r="V124" s="98"/>
+      <c r="W124" s="98"/>
+      <c r="X124" s="98"/>
+      <c r="Y124" s="98"/>
+      <c r="Z124" s="98"/>
+      <c r="AA124" s="98"/>
+      <c r="AB124" s="98"/>
+      <c r="AC124" s="98"/>
+      <c r="AD124" s="98"/>
+      <c r="AE124" s="98"/>
+      <c r="AF124" s="98"/>
+      <c r="AG124" s="98"/>
+      <c r="AH124" s="98"/>
+      <c r="AI124" s="98"/>
+      <c r="AJ124" s="98"/>
+      <c r="AK124" s="98"/>
+      <c r="AL124" s="98"/>
+      <c r="AM124" s="98"/>
+      <c r="AN124" s="98"/>
+      <c r="AO124" s="98"/>
+      <c r="AP124" s="98"/>
+      <c r="AQ124" s="98"/>
+      <c r="AR124" s="98"/>
+      <c r="AS124" s="98"/>
+      <c r="AT124" s="98"/>
+      <c r="AU124" s="98"/>
+      <c r="AV124" s="98"/>
+      <c r="AW124" s="98"/>
+      <c r="AX124" s="98"/>
+      <c r="AY124" s="98"/>
+      <c r="AZ124" s="98"/>
+      <c r="BA124" s="98"/>
+      <c r="BB124" s="98"/>
+      <c r="BC124" s="98"/>
+      <c r="BD124" s="98"/>
+      <c r="BE124" s="98"/>
+      <c r="BF124" s="98"/>
+      <c r="BG124" s="98"/>
+      <c r="BH124" s="98"/>
+      <c r="BI124" s="98"/>
+      <c r="BJ124" s="98"/>
+      <c r="BK124" s="98"/>
+      <c r="BL124" s="98"/>
+      <c r="BM124" s="98"/>
+      <c r="BN124" s="98"/>
+      <c r="BO124" s="98"/>
+      <c r="BP124" s="98"/>
+      <c r="BQ124" s="98"/>
+      <c r="BR124" s="98"/>
+      <c r="BS124" s="98"/>
+      <c r="BT124" s="98"/>
+      <c r="BU124" s="98"/>
+      <c r="BV124" s="98"/>
+      <c r="BW124" s="98"/>
+      <c r="BX124" s="98"/>
+      <c r="BY124" s="98"/>
+      <c r="BZ124" s="98"/>
+      <c r="CA124" s="98"/>
+      <c r="CB124" s="98"/>
+      <c r="CC124" s="98"/>
+      <c r="CD124" s="98"/>
+      <c r="CE124" s="98"/>
+      <c r="CF124" s="98"/>
+      <c r="CG124" s="98"/>
+      <c r="CH124" s="98"/>
+      <c r="CI124" s="98"/>
+      <c r="CJ124" s="98"/>
+      <c r="CK124" s="98"/>
+      <c r="CL124" s="98"/>
+      <c r="CM124" s="98"/>
+      <c r="CN124" s="98"/>
+      <c r="CO124" s="98"/>
+      <c r="CP124" s="98"/>
+      <c r="CQ124" s="98"/>
+      <c r="CR124" s="98"/>
+      <c r="CS124" s="98"/>
+      <c r="CT124" s="98"/>
+      <c r="CU124" s="98"/>
+      <c r="CV124" s="98"/>
+      <c r="CW124" s="98"/>
+      <c r="CX124" s="98"/>
+      <c r="CY124" s="98"/>
+      <c r="CZ124" s="98"/>
+      <c r="DA124" s="98"/>
+      <c r="DB124" s="98"/>
+      <c r="DC124" s="98"/>
+      <c r="DD124" s="98"/>
+      <c r="DE124" s="98"/>
+      <c r="DF124" s="98"/>
+      <c r="DG124" s="98"/>
+      <c r="DH124" s="98"/>
+      <c r="DI124" s="98"/>
+      <c r="DJ124" s="98"/>
+      <c r="DK124" s="98"/>
+      <c r="DL124" s="98"/>
+      <c r="DM124" s="98"/>
+      <c r="DN124" s="98"/>
+      <c r="DO124" s="98"/>
+      <c r="DP124" s="98"/>
+      <c r="DQ124" s="98"/>
+      <c r="DR124" s="98"/>
+      <c r="DS124" s="98"/>
+    </row>
+    <row r="125" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A125" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="B117" s="99" t="s">
+      <c r="B125" s="98" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="118" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A118" s="99" t="s">
+      <c r="C125" s="98"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="98"/>
+      <c r="I125" s="98"/>
+      <c r="J125" s="98"/>
+      <c r="K125" s="98"/>
+      <c r="L125" s="98"/>
+      <c r="M125" s="98"/>
+      <c r="N125" s="98"/>
+      <c r="O125" s="98"/>
+      <c r="P125" s="98"/>
+      <c r="Q125" s="98"/>
+      <c r="R125" s="98"/>
+      <c r="S125" s="98"/>
+      <c r="T125" s="98"/>
+      <c r="U125" s="98"/>
+      <c r="V125" s="98"/>
+      <c r="W125" s="98"/>
+      <c r="X125" s="98"/>
+      <c r="Y125" s="98"/>
+      <c r="Z125" s="98"/>
+      <c r="AA125" s="98"/>
+      <c r="AB125" s="98"/>
+      <c r="AC125" s="98"/>
+      <c r="AD125" s="98"/>
+      <c r="AE125" s="98"/>
+      <c r="AF125" s="98"/>
+      <c r="AG125" s="98"/>
+      <c r="AH125" s="98"/>
+      <c r="AI125" s="98"/>
+      <c r="AJ125" s="98"/>
+      <c r="AK125" s="98"/>
+      <c r="AL125" s="98"/>
+      <c r="AM125" s="98"/>
+      <c r="AN125" s="98"/>
+      <c r="AO125" s="98"/>
+      <c r="AP125" s="98"/>
+      <c r="AQ125" s="98"/>
+      <c r="AR125" s="98"/>
+      <c r="AS125" s="98"/>
+      <c r="AT125" s="98"/>
+      <c r="AU125" s="98"/>
+      <c r="AV125" s="98"/>
+      <c r="AW125" s="98"/>
+      <c r="AX125" s="98"/>
+      <c r="AY125" s="98"/>
+      <c r="AZ125" s="98"/>
+      <c r="BA125" s="98"/>
+      <c r="BB125" s="98"/>
+      <c r="BC125" s="98"/>
+      <c r="BD125" s="98"/>
+      <c r="BE125" s="98"/>
+      <c r="BF125" s="98"/>
+      <c r="BG125" s="98"/>
+      <c r="BH125" s="98"/>
+      <c r="BI125" s="98"/>
+      <c r="BJ125" s="98"/>
+      <c r="BK125" s="98"/>
+      <c r="BL125" s="98"/>
+      <c r="BM125" s="98"/>
+      <c r="BN125" s="98"/>
+      <c r="BO125" s="98"/>
+      <c r="BP125" s="98"/>
+      <c r="BQ125" s="98"/>
+      <c r="BR125" s="98"/>
+      <c r="BS125" s="98"/>
+      <c r="BT125" s="98"/>
+      <c r="BU125" s="98"/>
+      <c r="BV125" s="98"/>
+      <c r="BW125" s="98"/>
+      <c r="BX125" s="98"/>
+      <c r="BY125" s="98"/>
+      <c r="BZ125" s="98"/>
+      <c r="CA125" s="98"/>
+      <c r="CB125" s="98"/>
+      <c r="CC125" s="98"/>
+      <c r="CD125" s="98"/>
+      <c r="CE125" s="98"/>
+      <c r="CF125" s="98"/>
+      <c r="CG125" s="98"/>
+      <c r="CH125" s="98"/>
+      <c r="CI125" s="98"/>
+      <c r="CJ125" s="98"/>
+      <c r="CK125" s="98"/>
+      <c r="CL125" s="98"/>
+      <c r="CM125" s="98"/>
+      <c r="CN125" s="98"/>
+      <c r="CO125" s="98"/>
+      <c r="CP125" s="98"/>
+      <c r="CQ125" s="98"/>
+      <c r="CR125" s="98"/>
+      <c r="CS125" s="98"/>
+      <c r="CT125" s="98"/>
+      <c r="CU125" s="98"/>
+      <c r="CV125" s="98"/>
+      <c r="CW125" s="98"/>
+      <c r="CX125" s="98"/>
+      <c r="CY125" s="98"/>
+      <c r="CZ125" s="98"/>
+      <c r="DA125" s="98"/>
+      <c r="DB125" s="98"/>
+      <c r="DC125" s="98"/>
+      <c r="DD125" s="98"/>
+      <c r="DE125" s="98"/>
+      <c r="DF125" s="98"/>
+      <c r="DG125" s="98"/>
+      <c r="DH125" s="98"/>
+      <c r="DI125" s="98"/>
+      <c r="DJ125" s="98"/>
+      <c r="DK125" s="98"/>
+      <c r="DL125" s="98"/>
+      <c r="DM125" s="98"/>
+      <c r="DN125" s="98"/>
+      <c r="DO125" s="98"/>
+      <c r="DP125" s="98"/>
+      <c r="DQ125" s="98"/>
+      <c r="DR125" s="98"/>
+      <c r="DS125" s="98"/>
+    </row>
+    <row r="126" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A126" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="99" t="s">
+      <c r="B126" s="98" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="119" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A119" s="99" t="s">
+      <c r="C126" s="98"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="98"/>
+      <c r="H126" s="98"/>
+      <c r="I126" s="98"/>
+      <c r="J126" s="98"/>
+      <c r="K126" s="98"/>
+      <c r="L126" s="98"/>
+      <c r="M126" s="98"/>
+      <c r="N126" s="98"/>
+      <c r="O126" s="98"/>
+      <c r="P126" s="98"/>
+      <c r="Q126" s="98"/>
+      <c r="R126" s="98"/>
+      <c r="S126" s="98"/>
+      <c r="T126" s="98"/>
+      <c r="U126" s="98"/>
+      <c r="V126" s="98"/>
+      <c r="W126" s="98"/>
+      <c r="X126" s="98"/>
+      <c r="Y126" s="98"/>
+      <c r="Z126" s="98"/>
+      <c r="AA126" s="98"/>
+      <c r="AB126" s="98"/>
+      <c r="AC126" s="98"/>
+      <c r="AD126" s="98"/>
+      <c r="AE126" s="98"/>
+      <c r="AF126" s="98"/>
+      <c r="AG126" s="98"/>
+      <c r="AH126" s="98"/>
+      <c r="AI126" s="98"/>
+      <c r="AJ126" s="98"/>
+      <c r="AK126" s="98"/>
+      <c r="AL126" s="98"/>
+      <c r="AM126" s="98"/>
+      <c r="AN126" s="98"/>
+      <c r="AO126" s="98"/>
+      <c r="AP126" s="98"/>
+      <c r="AQ126" s="98"/>
+      <c r="AR126" s="98"/>
+      <c r="AS126" s="98"/>
+      <c r="AT126" s="98"/>
+      <c r="AU126" s="98"/>
+      <c r="AV126" s="98"/>
+      <c r="AW126" s="98"/>
+      <c r="AX126" s="98"/>
+      <c r="AY126" s="98"/>
+      <c r="AZ126" s="98"/>
+      <c r="BA126" s="98"/>
+      <c r="BB126" s="98"/>
+      <c r="BC126" s="98"/>
+      <c r="BD126" s="98"/>
+      <c r="BE126" s="98"/>
+      <c r="BF126" s="98"/>
+      <c r="BG126" s="98"/>
+      <c r="BH126" s="98"/>
+      <c r="BI126" s="98"/>
+      <c r="BJ126" s="98"/>
+      <c r="BK126" s="98"/>
+      <c r="BL126" s="98"/>
+      <c r="BM126" s="98"/>
+      <c r="BN126" s="98"/>
+      <c r="BO126" s="98"/>
+      <c r="BP126" s="98"/>
+      <c r="BQ126" s="98"/>
+      <c r="BR126" s="98"/>
+      <c r="BS126" s="98"/>
+      <c r="BT126" s="98"/>
+      <c r="BU126" s="98"/>
+      <c r="BV126" s="98"/>
+      <c r="BW126" s="98"/>
+      <c r="BX126" s="98"/>
+      <c r="BY126" s="98"/>
+      <c r="BZ126" s="98"/>
+      <c r="CA126" s="98"/>
+      <c r="CB126" s="98"/>
+      <c r="CC126" s="98"/>
+      <c r="CD126" s="98"/>
+      <c r="CE126" s="98"/>
+      <c r="CF126" s="98"/>
+      <c r="CG126" s="98"/>
+      <c r="CH126" s="98"/>
+      <c r="CI126" s="98"/>
+      <c r="CJ126" s="98"/>
+      <c r="CK126" s="98"/>
+      <c r="CL126" s="98"/>
+      <c r="CM126" s="98"/>
+      <c r="CN126" s="98"/>
+      <c r="CO126" s="98"/>
+      <c r="CP126" s="98"/>
+      <c r="CQ126" s="98"/>
+      <c r="CR126" s="98"/>
+      <c r="CS126" s="98"/>
+      <c r="CT126" s="98"/>
+      <c r="CU126" s="98"/>
+      <c r="CV126" s="98"/>
+      <c r="CW126" s="98"/>
+      <c r="CX126" s="98"/>
+      <c r="CY126" s="98"/>
+      <c r="CZ126" s="98"/>
+      <c r="DA126" s="98"/>
+      <c r="DB126" s="98"/>
+      <c r="DC126" s="98"/>
+      <c r="DD126" s="98"/>
+      <c r="DE126" s="98"/>
+      <c r="DF126" s="98"/>
+      <c r="DG126" s="98"/>
+      <c r="DH126" s="98"/>
+      <c r="DI126" s="98"/>
+      <c r="DJ126" s="98"/>
+      <c r="DK126" s="98"/>
+      <c r="DL126" s="98"/>
+      <c r="DM126" s="98"/>
+      <c r="DN126" s="98"/>
+      <c r="DO126" s="98"/>
+      <c r="DP126" s="98"/>
+      <c r="DQ126" s="98"/>
+      <c r="DR126" s="98"/>
+      <c r="DS126" s="98"/>
+    </row>
+    <row r="127" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A127" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="99" t="s">
+      <c r="B127" s="98" t="s">
         <v>76</v>
       </c>
+      <c r="C127" s="98"/>
+      <c r="D127" s="108"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="98"/>
+      <c r="H127" s="98"/>
+      <c r="I127" s="98"/>
+      <c r="J127" s="98"/>
+      <c r="K127" s="98"/>
+      <c r="L127" s="98"/>
+      <c r="M127" s="98"/>
+      <c r="N127" s="98"/>
+      <c r="O127" s="98"/>
+      <c r="P127" s="98"/>
+      <c r="Q127" s="98"/>
+      <c r="R127" s="98"/>
+      <c r="S127" s="98"/>
+      <c r="T127" s="98"/>
+      <c r="U127" s="98"/>
+      <c r="V127" s="98"/>
+      <c r="W127" s="98"/>
+      <c r="X127" s="98"/>
+      <c r="Y127" s="98"/>
+      <c r="Z127" s="98"/>
+      <c r="AA127" s="98"/>
+      <c r="AB127" s="98"/>
+      <c r="AC127" s="98"/>
+      <c r="AD127" s="98"/>
+      <c r="AE127" s="98"/>
+      <c r="AF127" s="98"/>
+      <c r="AG127" s="98"/>
+      <c r="AH127" s="98"/>
+      <c r="AI127" s="98"/>
+      <c r="AJ127" s="98"/>
+      <c r="AK127" s="98"/>
+      <c r="AL127" s="98"/>
+      <c r="AM127" s="98"/>
+      <c r="AN127" s="98"/>
+      <c r="AO127" s="98"/>
+      <c r="AP127" s="98"/>
+      <c r="AQ127" s="98"/>
+      <c r="AR127" s="98"/>
+      <c r="AS127" s="98"/>
+      <c r="AT127" s="98"/>
+      <c r="AU127" s="98"/>
+      <c r="AV127" s="98"/>
+      <c r="AW127" s="98"/>
+      <c r="AX127" s="98"/>
+      <c r="AY127" s="98"/>
+      <c r="AZ127" s="98"/>
+      <c r="BA127" s="98"/>
+      <c r="BB127" s="98"/>
+      <c r="BC127" s="98"/>
+      <c r="BD127" s="98"/>
+      <c r="BE127" s="98"/>
+      <c r="BF127" s="98"/>
+      <c r="BG127" s="98"/>
+      <c r="BH127" s="98"/>
+      <c r="BI127" s="98"/>
+      <c r="BJ127" s="98"/>
+      <c r="BK127" s="98"/>
+      <c r="BL127" s="98"/>
+      <c r="BM127" s="98"/>
+      <c r="BN127" s="98"/>
+      <c r="BO127" s="98"/>
+      <c r="BP127" s="98"/>
+      <c r="BQ127" s="98"/>
+      <c r="BR127" s="98"/>
+      <c r="BS127" s="98"/>
+      <c r="BT127" s="98"/>
+      <c r="BU127" s="98"/>
+      <c r="BV127" s="98"/>
+      <c r="BW127" s="98"/>
+      <c r="BX127" s="98"/>
+      <c r="BY127" s="98"/>
+      <c r="BZ127" s="98"/>
+      <c r="CA127" s="98"/>
+      <c r="CB127" s="98"/>
+      <c r="CC127" s="98"/>
+      <c r="CD127" s="98"/>
+      <c r="CE127" s="98"/>
+      <c r="CF127" s="98"/>
+      <c r="CG127" s="98"/>
+      <c r="CH127" s="98"/>
+      <c r="CI127" s="98"/>
+      <c r="CJ127" s="98"/>
+      <c r="CK127" s="98"/>
+      <c r="CL127" s="98"/>
+      <c r="CM127" s="98"/>
+      <c r="CN127" s="98"/>
+      <c r="CO127" s="98"/>
+      <c r="CP127" s="98"/>
+      <c r="CQ127" s="98"/>
+      <c r="CR127" s="98"/>
+      <c r="CS127" s="98"/>
+      <c r="CT127" s="98"/>
+      <c r="CU127" s="98"/>
+      <c r="CV127" s="98"/>
+      <c r="CW127" s="98"/>
+      <c r="CX127" s="98"/>
+      <c r="CY127" s="98"/>
+      <c r="CZ127" s="98"/>
+      <c r="DA127" s="98"/>
+      <c r="DB127" s="98"/>
+      <c r="DC127" s="98"/>
+      <c r="DD127" s="98"/>
+      <c r="DE127" s="98"/>
+      <c r="DF127" s="98"/>
+      <c r="DG127" s="98"/>
+      <c r="DH127" s="98"/>
+      <c r="DI127" s="98"/>
+      <c r="DJ127" s="98"/>
+      <c r="DK127" s="98"/>
+      <c r="DL127" s="98"/>
+      <c r="DM127" s="98"/>
+      <c r="DN127" s="98"/>
+      <c r="DO127" s="98"/>
+      <c r="DP127" s="98"/>
+      <c r="DQ127" s="98"/>
+      <c r="DR127" s="98"/>
+      <c r="DS127" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
